--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="227">
   <si>
     <t>Bereich</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Bettina Kremplbauer</t>
   </si>
   <si>
-    <t>2x +</t>
-  </si>
-  <si>
     <t>Sabrina Gagstädter</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>Gerald Gagstädter</t>
   </si>
   <si>
-    <t>Musikbetreuung</t>
-  </si>
-  <si>
     <t>Grubmüller Michael (Verantwortlich)</t>
   </si>
   <si>
@@ -688,6 +682,21 @@
   </si>
   <si>
     <t>GN14</t>
+  </si>
+  <si>
+    <t>Bianca Koczirz</t>
+  </si>
+  <si>
+    <t>Musik (DJ)</t>
+  </si>
+  <si>
+    <t>Philipp Branstötter (EIceBAR)</t>
+  </si>
+  <si>
+    <t>Carina Doppler</t>
+  </si>
+  <si>
+    <t>5x +</t>
   </si>
 </sst>
 </file>
@@ -1409,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,7 +1437,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1438,29 +1447,29 @@
       </c>
       <c r="E1" s="40"/>
       <c r="G1" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>226</v>
       </c>
       <c r="D2" s="41"/>
       <c r="F2" s="42"/>
       <c r="G2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
@@ -1470,9 +1479,11 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="C3" s="6" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="D3" s="42"/>
       <c r="F3" s="42"/>
@@ -1480,10 +1491,10 @@
         <v>19</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1492,13 +1503,13 @@
       <c r="D4" s="42"/>
       <c r="F4" s="42"/>
       <c r="G4" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1508,10 +1519,10 @@
       <c r="E5" s="26"/>
       <c r="F5" s="42"/>
       <c r="G5" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I5" s="7"/>
     </row>
@@ -1522,79 +1533,81 @@
       <c r="E6" s="26"/>
       <c r="F6" s="42"/>
       <c r="G6" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>92</v>
-      </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="43"/>
       <c r="E7" s="26"/>
       <c r="F7" s="42"/>
       <c r="G7" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="42"/>
+      <c r="D8" s="42" t="s">
+        <v>105</v>
+      </c>
       <c r="F8" s="42"/>
       <c r="G8" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="43"/>
+      <c r="D9" s="43" t="s">
+        <v>224</v>
+      </c>
       <c r="E9" s="26"/>
       <c r="F9" s="42"/>
       <c r="G9" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="D10" s="41"/>
       <c r="F10" s="42"/>
       <c r="G10" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>15</v>
@@ -1606,7 +1619,7 @@
       <c r="D11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -1614,75 +1627,72 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="42" t="s">
+        <v>66</v>
+      </c>
       <c r="F12" s="42"/>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="6"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="44"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="10" t="s">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I14" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="26"/>
+      <c r="A15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="41"/>
       <c r="F15" s="42"/>
-      <c r="G15" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>111</v>
+      <c r="G15" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -1690,18 +1700,19 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="43"/>
+      <c r="D16" s="43" t="s">
+        <v>222</v>
+      </c>
       <c r="E16" s="26"/>
       <c r="F16" s="42"/>
       <c r="G16" s="26" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -1714,13 +1725,13 @@
       <c r="E17" s="26"/>
       <c r="F17" s="42"/>
       <c r="G17" s="26" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -1733,13 +1744,13 @@
       <c r="E18" s="26"/>
       <c r="F18" s="42"/>
       <c r="G18" s="26" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -1752,13 +1763,13 @@
       <c r="E19" s="26"/>
       <c r="F19" s="42"/>
       <c r="G19" s="26" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -1771,13 +1782,13 @@
       <c r="E20" s="26"/>
       <c r="F20" s="42"/>
       <c r="G20" s="26" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -1785,20 +1796,18 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="6" t="s">
-        <v>153</v>
-      </c>
+      <c r="C21" s="6"/>
       <c r="D21" s="43"/>
       <c r="E21" s="26"/>
       <c r="F21" s="42"/>
       <c r="G21" s="26" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -1806,18 +1815,20 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="D22" s="43"/>
       <c r="E22" s="26"/>
       <c r="F22" s="42"/>
       <c r="G22" s="26" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -1830,98 +1841,107 @@
       <c r="E23" s="26"/>
       <c r="F23" s="42"/>
       <c r="G23" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="I23" s="22"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="44"/>
+        <v>177</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="42"/>
-      <c r="G24" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="G24" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="44"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="44"/>
+      <c r="D26" s="41" t="s">
+        <v>109</v>
+      </c>
       <c r="F26" s="42"/>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="42"/>
+      <c r="G27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="41"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="26"/>
+      <c r="C28" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="41"/>
       <c r="F28" s="42"/>
-      <c r="G28" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I28" s="15"/>
+      <c r="G28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
@@ -1930,9 +1950,11 @@
       <c r="E29" s="26"/>
       <c r="F29" s="42"/>
       <c r="G29" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="H29" s="15"/>
+        <v>81</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>154</v>
+      </c>
       <c r="I29" s="15"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -1942,12 +1964,10 @@
       <c r="E30" s="26"/>
       <c r="F30" s="42"/>
       <c r="G30" s="26" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="H30" s="15"/>
-      <c r="I30" s="15" t="s">
-        <v>76</v>
-      </c>
+      <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
@@ -1956,61 +1976,60 @@
       <c r="E31" s="26"/>
       <c r="F31" s="42"/>
       <c r="G31" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="44"/>
+        <v>198</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="G32" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="44"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="42"/>
+      <c r="D34" s="41"/>
       <c r="F34" s="42"/>
-      <c r="G34" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>85</v>
+      <c r="G34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2019,77 +2038,81 @@
       <c r="D35" s="42"/>
       <c r="F35" s="42"/>
       <c r="G35" s="6" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="26"/>
+      <c r="D36" s="42"/>
       <c r="F36" s="42"/>
-      <c r="G36" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>165</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="G36" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="26"/>
+      <c r="D38" s="41"/>
       <c r="F38" s="42"/>
-      <c r="G38" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="H38" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="24" t="s">
-        <v>22</v>
+      <c r="G38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="42"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="42"/>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="H39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
+      <c r="I39" s="24" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
@@ -2097,194 +2120,211 @@
       <c r="D40" s="42"/>
       <c r="F40" s="42"/>
       <c r="G40" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="H40" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I40" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="44"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="2" t="s">
+    </row>
+    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="42"/>
+      <c r="G42" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D42" s="41"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="26"/>
+      <c r="C43" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" s="41"/>
       <c r="F43" s="42"/>
-      <c r="G43" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="44"/>
+      <c r="G43" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="26"/>
       <c r="F44" s="42"/>
-      <c r="G44" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="G44" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="44"/>
       <c r="F45" s="42"/>
       <c r="G45" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>31</v>
+        <v>63</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>105</v>
-      </c>
-      <c r="B46" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="44"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="D47" s="18"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="8"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="44"/>
+      <c r="D48" s="42" t="s">
+        <v>79</v>
+      </c>
       <c r="F48" s="42"/>
-      <c r="G48" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
+      <c r="G48" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="44"/>
       <c r="F49" s="42"/>
       <c r="G49" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I49" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="44"/>
+      <c r="D50" s="44" t="s">
+        <v>92</v>
+      </c>
       <c r="F50" s="42"/>
-      <c r="G50" s="9"/>
+      <c r="G50" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="H50" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>34</v>
+        <v>92</v>
+      </c>
+      <c r="I50" s="14"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="44"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2312,7 +2352,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -2321,94 +2361,94 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
       <c r="E2" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
       <c r="D4" s="38"/>
       <c r="E4" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
       <c r="D5" s="38"/>
       <c r="E5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
       <c r="D6" s="38"/>
       <c r="E6" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I6" s="6"/>
     </row>
@@ -2418,13 +2458,13 @@
       <c r="C7" s="6"/>
       <c r="D7" s="38"/>
       <c r="E7" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I7" s="6"/>
     </row>
@@ -2434,11 +2474,11 @@
       <c r="C8" s="26"/>
       <c r="D8" s="38"/>
       <c r="E8" s="29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I8" s="6"/>
     </row>
@@ -2457,7 +2497,7 @@
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="33"/>
@@ -2468,73 +2508,73 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="26"/>
       <c r="E13" s="29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="26"/>
       <c r="E14" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="26"/>
       <c r="E15" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I15" s="6"/>
     </row>
@@ -2543,13 +2583,13 @@
       <c r="B16" s="29"/>
       <c r="C16" s="26"/>
       <c r="E16" s="29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I16" s="6"/>
     </row>
@@ -2561,10 +2601,10 @@
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I17" s="6"/>
     </row>
@@ -2573,13 +2613,13 @@
       <c r="B18" s="29"/>
       <c r="C18" s="26"/>
       <c r="E18" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I18" s="6"/>
     </row>
@@ -2591,7 +2631,7 @@
         <v>17</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G19" s="7"/>
       <c r="I19" s="6"/>
@@ -2601,10 +2641,10 @@
       <c r="B20" s="29"/>
       <c r="C20" s="26"/>
       <c r="E20" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" s="7"/>
       <c r="I20" s="6"/>
@@ -2614,10 +2654,10 @@
       <c r="B21" s="29"/>
       <c r="C21" s="26"/>
       <c r="E21" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G21" s="7"/>
       <c r="I21" s="6"/>
@@ -2628,7 +2668,7 @@
       <c r="C22" s="26"/>
       <c r="E22" s="29"/>
       <c r="F22" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G22" s="7"/>
       <c r="I22" s="6"/>
@@ -2639,7 +2679,7 @@
     </row>
     <row r="24" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="33"/>
@@ -2650,155 +2690,155 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="26"/>
       <c r="E26" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="26"/>
       <c r="E27" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="26"/>
       <c r="E28" s="29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="26"/>
       <c r="E29" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="26"/>
       <c r="E30" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="26"/>
       <c r="E31" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="26"/>
       <c r="E32" s="29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="26"/>
       <c r="E33" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>15</v>
@@ -2810,10 +2850,10 @@
       <c r="B34" s="29"/>
       <c r="C34" s="26"/>
       <c r="E34" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G34" s="7"/>
       <c r="I34" s="6"/>
@@ -2823,10 +2863,10 @@
       <c r="B35" s="29"/>
       <c r="C35" s="26"/>
       <c r="E35" s="29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G35" s="7"/>
       <c r="I35" s="6"/>
@@ -2836,13 +2876,13 @@
       <c r="B36" s="29"/>
       <c r="C36" s="26"/>
       <c r="E36" s="29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I36" s="6"/>
     </row>
@@ -2851,10 +2891,10 @@
       <c r="B37" s="29"/>
       <c r="C37" s="26"/>
       <c r="E37" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G37" s="7"/>
       <c r="I37" s="6"/>
@@ -2864,10 +2904,10 @@
       <c r="B38" s="29"/>
       <c r="C38" s="26"/>
       <c r="E38" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G38" s="7"/>
       <c r="I38" s="6"/>
@@ -2877,10 +2917,10 @@
       <c r="B39" s="29"/>
       <c r="C39" s="26"/>
       <c r="E39" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G39" s="7"/>
       <c r="I39" s="6"/>
@@ -2900,7 +2940,7 @@
     </row>
     <row r="42" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B42" s="36"/>
       <c r="C42" s="33"/>
@@ -2911,119 +2951,119 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B43" s="30"/>
       <c r="C43" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D43" s="34"/>
       <c r="E43" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H43" s="21"/>
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B44" s="29"/>
       <c r="C44" s="26"/>
       <c r="E44" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B45" s="29"/>
       <c r="C45" s="26"/>
       <c r="E45" s="29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B46" s="29"/>
       <c r="C46" s="26"/>
       <c r="E46" s="29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B47" s="29"/>
       <c r="C47" s="26"/>
       <c r="E47" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B48" s="29"/>
       <c r="C48" s="26"/>
       <c r="E48" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G48" s="7"/>
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B49" s="29"/>
       <c r="C49" s="26"/>
       <c r="E49" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G49" s="7"/>
       <c r="I49" s="6"/>
@@ -3033,10 +3073,10 @@
       <c r="B50" s="29"/>
       <c r="C50" s="26"/>
       <c r="E50" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G50" s="7"/>
       <c r="I50" s="6"/>
@@ -3046,10 +3086,10 @@
       <c r="B51" s="29"/>
       <c r="C51" s="26"/>
       <c r="E51" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G51" s="7"/>
       <c r="I51" s="6"/>
@@ -3059,10 +3099,10 @@
       <c r="B52" s="29"/>
       <c r="C52" s="26"/>
       <c r="E52" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G52" s="7"/>
     </row>
@@ -3071,10 +3111,10 @@
       <c r="B53" s="29"/>
       <c r="C53" s="26"/>
       <c r="E53" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G53" s="7"/>
     </row>
@@ -3083,10 +3123,10 @@
       <c r="B54" s="29"/>
       <c r="C54" s="26"/>
       <c r="E54" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G54" s="7"/>
     </row>
@@ -3096,7 +3136,7 @@
       <c r="C55" s="26"/>
       <c r="E55" s="29"/>
       <c r="F55" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G55" s="7"/>
     </row>
@@ -3106,7 +3146,7 @@
       <c r="C56" s="26"/>
       <c r="E56" s="29"/>
       <c r="F56" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G56" s="7"/>
     </row>
@@ -3144,7 +3184,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3153,54 +3193,54 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="26"/>
       <c r="D3" s="34"/>
       <c r="E3" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="26"/>
       <c r="E4" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3208,13 +3248,13 @@
       <c r="B5" s="29"/>
       <c r="C5" s="26"/>
       <c r="E5" s="29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3222,13 +3262,13 @@
       <c r="B6" s="29"/>
       <c r="C6" s="26"/>
       <c r="E6" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3236,13 +3276,13 @@
       <c r="B7" s="29"/>
       <c r="C7" s="26"/>
       <c r="E7" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3250,13 +3290,13 @@
       <c r="B8" s="29"/>
       <c r="C8" s="26"/>
       <c r="E8" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3264,13 +3304,13 @@
       <c r="B9" s="29"/>
       <c r="C9" s="26"/>
       <c r="E9" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3278,13 +3318,13 @@
       <c r="B10" s="29"/>
       <c r="C10" s="26"/>
       <c r="E10" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3292,13 +3332,13 @@
       <c r="B11" s="29"/>
       <c r="C11" s="26"/>
       <c r="E11" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3306,13 +3346,13 @@
       <c r="B12" s="29"/>
       <c r="C12" s="26"/>
       <c r="E12" s="29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3320,13 +3360,13 @@
       <c r="B13" s="29"/>
       <c r="C13" s="26"/>
       <c r="E13" s="29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3334,13 +3374,13 @@
       <c r="B14" s="29"/>
       <c r="C14" s="26"/>
       <c r="E14" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3348,13 +3388,13 @@
       <c r="B15" s="29"/>
       <c r="C15" s="26"/>
       <c r="E15" s="29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3362,13 +3402,13 @@
       <c r="B16" s="29"/>
       <c r="C16" s="26"/>
       <c r="E16" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3376,10 +3416,10 @@
       <c r="B17" s="29"/>
       <c r="C17" s="26"/>
       <c r="E17" s="29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7"/>
     </row>
@@ -3391,7 +3431,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G18" s="7"/>
     </row>
@@ -3400,10 +3440,10 @@
       <c r="B19" s="29"/>
       <c r="C19" s="26"/>
       <c r="E19" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7"/>
     </row>
@@ -3412,10 +3452,10 @@
       <c r="B20" s="29"/>
       <c r="C20" s="26"/>
       <c r="E20" s="29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G20" s="7"/>
     </row>
@@ -3424,7 +3464,7 @@
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
       <c r="E21" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -3434,7 +3474,7 @@
       <c r="B22" s="7"/>
       <c r="C22" s="6"/>
       <c r="E22" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="231">
   <si>
     <t>Bereich</t>
   </si>
@@ -342,9 +342,6 @@
     <t>Verena</t>
   </si>
   <si>
-    <t>Mathias</t>
-  </si>
-  <si>
     <t>Klemens Brandstötter</t>
   </si>
   <si>
@@ -501,9 +498,6 @@
     <t>Christoph Peterseil</t>
   </si>
   <si>
-    <t>Christoph</t>
-  </si>
-  <si>
     <t>Wolfgang</t>
   </si>
   <si>
@@ -645,9 +639,6 @@
     <t>Michael Rammer (?)</t>
   </si>
   <si>
-    <t>Johann Rammer (Anhänger)</t>
-  </si>
-  <si>
     <t>Jahr 2012</t>
   </si>
   <si>
@@ -697,6 +688,27 @@
   </si>
   <si>
     <t>5x +</t>
+  </si>
+  <si>
+    <t>Benedikt</t>
+  </si>
+  <si>
+    <t>Michael Buchner ab 22:00</t>
+  </si>
+  <si>
+    <t>Leopold Rammer (Anhänger)</t>
+  </si>
+  <si>
+    <t>Sepp</t>
+  </si>
+  <si>
+    <t>Gagstädter Chrisi (DJ-Springer)</t>
+  </si>
+  <si>
+    <t>Rammer Michael (DJ-Springer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1421,7 +1433,7 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,7 +1449,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1447,26 +1459,28 @@
       </c>
       <c r="E1" s="40"/>
       <c r="G1" s="27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" s="41"/>
+        <v>223</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>69</v>
+      </c>
       <c r="F2" s="42"/>
       <c r="G2" s="3" t="s">
         <v>69</v>
@@ -1485,7 +1499,9 @@
       <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="42"/>
+      <c r="D3" s="42" t="s">
+        <v>126</v>
+      </c>
       <c r="F3" s="42"/>
       <c r="G3" s="6" t="s">
         <v>19</v>
@@ -1500,10 +1516,12 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="42"/>
+      <c r="D4" s="42" t="s">
+        <v>19</v>
+      </c>
       <c r="F4" s="42"/>
       <c r="G4" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>81</v>
@@ -1519,17 +1537,19 @@
       <c r="E5" s="26"/>
       <c r="F5" s="42"/>
       <c r="G5" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="43"/>
+      <c r="D6" s="43" t="s">
+        <v>228</v>
+      </c>
       <c r="E6" s="26"/>
       <c r="F6" s="42"/>
       <c r="G6" s="26" t="s">
@@ -1543,14 +1563,16 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="43"/>
+      <c r="D7" s="43" t="s">
+        <v>229</v>
+      </c>
       <c r="E7" s="26"/>
       <c r="F7" s="42"/>
       <c r="G7" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>81</v>
@@ -1570,14 +1592,14 @@
         <v>105</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="43" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="42"/>
@@ -1593,21 +1615,21 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="41"/>
       <c r="F10" s="42"/>
       <c r="G10" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>15</v>
@@ -1617,9 +1639,12 @@
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="42"/>
+      <c r="E11" s="6" t="s">
+        <v>230</v>
+      </c>
       <c r="F11" s="42"/>
       <c r="G11" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -1639,7 +1664,7 @@
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="43" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="42"/>
@@ -1657,7 +1682,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="9" t="s">
@@ -1675,7 +1700,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
@@ -1683,10 +1708,12 @@
       <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="41"/>
+      <c r="D15" s="41" t="s">
+        <v>15</v>
+      </c>
       <c r="F15" s="42"/>
       <c r="G15" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>18</v>
@@ -1701,7 +1728,7 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="D16" s="43" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="42"/>
@@ -1709,10 +1736,10 @@
         <v>15</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -1721,11 +1748,13 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="43"/>
+      <c r="D17" s="43" t="s">
+        <v>225</v>
+      </c>
       <c r="E17" s="26"/>
       <c r="F17" s="42"/>
       <c r="G17" s="26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>22</v>
@@ -1782,10 +1811,10 @@
       <c r="E20" s="26"/>
       <c r="F20" s="42"/>
       <c r="G20" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>92</v>
@@ -1804,7 +1833,7 @@
         <v>97</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>73</v>
@@ -1816,7 +1845,7 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D22" s="43"/>
       <c r="E22" s="26"/>
@@ -1841,10 +1870,10 @@
       <c r="E23" s="26"/>
       <c r="F23" s="42"/>
       <c r="G23" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>68</v>
@@ -1860,10 +1889,10 @@
       <c r="E24" s="26"/>
       <c r="F24" s="42"/>
       <c r="G24" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I24" s="22"/>
     </row>
@@ -1873,16 +1902,16 @@
       <c r="D25" s="44"/>
       <c r="F25" s="42"/>
       <c r="G25" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
@@ -1891,11 +1920,11 @@
         <v>5</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F26" s="42"/>
       <c r="G26" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>24</v>
@@ -1915,7 +1944,7 @@
         <v>22</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>23</v>
@@ -1929,7 +1958,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D28" s="41"/>
       <c r="F28" s="42"/>
@@ -1953,7 +1982,7 @@
         <v>81</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I29" s="15"/>
     </row>
@@ -1964,7 +1993,7 @@
       <c r="E30" s="26"/>
       <c r="F30" s="42"/>
       <c r="G30" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
@@ -1976,7 +2005,7 @@
       <c r="E31" s="26"/>
       <c r="F31" s="42"/>
       <c r="G31" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="15" t="s">
@@ -1990,7 +2019,7 @@
       <c r="E32" s="26"/>
       <c r="F32" s="42"/>
       <c r="G32" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7" t="s">
@@ -2003,7 +2032,7 @@
       <c r="D33" s="44"/>
       <c r="F33" s="42"/>
       <c r="G33" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
@@ -2053,7 +2082,7 @@
       <c r="D36" s="42"/>
       <c r="F36" s="42"/>
       <c r="G36" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>84</v>
@@ -2069,7 +2098,7 @@
       <c r="E37" s="26"/>
       <c r="F37" s="42"/>
       <c r="G37" s="26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="22" t="s">
@@ -2078,7 +2107,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>9</v>
@@ -2086,7 +2115,9 @@
       <c r="C38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="41"/>
+      <c r="D38" s="41" t="s">
+        <v>166</v>
+      </c>
       <c r="F38" s="42"/>
       <c r="G38" s="3" t="s">
         <v>27</v>
@@ -2105,7 +2136,7 @@
       <c r="E39" s="26"/>
       <c r="F39" s="42"/>
       <c r="G39" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H39" s="24" t="s">
         <v>27</v>
@@ -2131,7 +2162,7 @@
       <c r="D41" s="42"/>
       <c r="F41" s="42"/>
       <c r="G41" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H41" s="24" t="s">
         <v>26</v>
@@ -2144,14 +2175,14 @@
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
       <c r="D42" s="44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F42" s="42"/>
       <c r="G42" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I42" s="25" t="s">
         <v>26</v>
@@ -2165,12 +2196,12 @@
         <v>10</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D43" s="41"/>
       <c r="F43" s="42"/>
       <c r="G43" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>25</v>
@@ -2186,7 +2217,7 @@
       <c r="E44" s="26"/>
       <c r="F44" s="42"/>
       <c r="G44" s="26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
@@ -2208,10 +2239,10 @@
     </row>
     <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>12</v>
@@ -2287,10 +2318,10 @@
     </row>
     <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>12</v>
@@ -2321,7 +2352,7 @@
       <c r="F51" s="42"/>
       <c r="G51" s="9"/>
       <c r="H51" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I51" s="14" t="s">
         <v>33</v>
@@ -2338,7 +2369,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2352,7 +2383,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -2361,19 +2392,19 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
       <c r="E2" s="11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I2" s="6"/>
     </row>
@@ -2381,16 +2412,18 @@
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="15" t="s">
+        <v>112</v>
+      </c>
       <c r="C3" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>34</v>
@@ -2402,14 +2435,16 @@
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="C4" s="6"/>
       <c r="D4" s="38"/>
       <c r="E4" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>71</v>
@@ -2427,7 +2462,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>70</v>
@@ -2438,7 +2473,9 @@
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="38"/>
       <c r="E6" s="7" t="s">
@@ -2458,7 +2495,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="38"/>
       <c r="E7" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>88</v>
@@ -2474,7 +2511,7 @@
       <c r="C8" s="26"/>
       <c r="D8" s="38"/>
       <c r="E8" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -2497,7 +2534,7 @@
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="33"/>
@@ -2512,14 +2549,14 @@
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>96</v>
@@ -2534,10 +2571,10 @@
       <c r="B13" s="29"/>
       <c r="C13" s="26"/>
       <c r="E13" s="29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>40</v>
@@ -2563,15 +2600,15 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="26"/>
       <c r="E15" s="29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>87</v>
@@ -2583,7 +2620,7 @@
       <c r="B16" s="29"/>
       <c r="C16" s="26"/>
       <c r="E16" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>29</v>
@@ -2601,7 +2638,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>95</v>
@@ -2613,10 +2650,10 @@
       <c r="B18" s="29"/>
       <c r="C18" s="26"/>
       <c r="E18" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>98</v>
@@ -2657,7 +2694,7 @@
         <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7"/>
       <c r="I21" s="6"/>
@@ -2679,7 +2716,7 @@
     </row>
     <row r="24" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="33"/>
@@ -2692,16 +2729,18 @@
       <c r="A25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="30"/>
+      <c r="B25" s="30" t="s">
+        <v>162</v>
+      </c>
       <c r="C25" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>59</v>
@@ -2713,7 +2752,9 @@
       <c r="A26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="29"/>
+      <c r="B26" s="29" t="s">
+        <v>92</v>
+      </c>
       <c r="C26" s="26"/>
       <c r="E26" s="29" t="s">
         <v>30</v>
@@ -2736,7 +2777,7 @@
         <v>92</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>86</v>
@@ -2750,10 +2791,10 @@
       <c r="B28" s="29"/>
       <c r="C28" s="26"/>
       <c r="E28" s="29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>65</v>
@@ -2767,10 +2808,10 @@
       <c r="B29" s="29"/>
       <c r="C29" s="26"/>
       <c r="E29" s="29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>66</v>
@@ -2784,10 +2825,10 @@
       <c r="B30" s="29"/>
       <c r="C30" s="26"/>
       <c r="E30" s="29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>55</v>
@@ -2801,10 +2842,10 @@
       <c r="B31" s="29"/>
       <c r="C31" s="26"/>
       <c r="E31" s="29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>92</v>
@@ -2813,15 +2854,15 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="26"/>
       <c r="E32" s="29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>97</v>
@@ -2835,7 +2876,7 @@
       <c r="B33" s="29"/>
       <c r="C33" s="26"/>
       <c r="E33" s="29" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>55</v>
@@ -2853,7 +2894,7 @@
         <v>80</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G34" s="7"/>
       <c r="I34" s="6"/>
@@ -2863,10 +2904,10 @@
       <c r="B35" s="29"/>
       <c r="C35" s="26"/>
       <c r="E35" s="29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G35" s="7"/>
       <c r="I35" s="6"/>
@@ -2876,10 +2917,10 @@
       <c r="B36" s="29"/>
       <c r="C36" s="26"/>
       <c r="E36" s="29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>102</v>
@@ -2894,7 +2935,7 @@
         <v>74</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G37" s="7"/>
       <c r="I37" s="6"/>
@@ -2904,10 +2945,10 @@
       <c r="B38" s="29"/>
       <c r="C38" s="26"/>
       <c r="E38" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G38" s="7"/>
       <c r="I38" s="6"/>
@@ -2920,7 +2961,7 @@
         <v>94</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G39" s="7"/>
       <c r="I39" s="6"/>
@@ -2940,7 +2981,7 @@
     </row>
     <row r="42" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B42" s="36"/>
       <c r="C42" s="33"/>
@@ -2959,10 +3000,10 @@
       </c>
       <c r="D43" s="34"/>
       <c r="E43" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G43" s="15" t="s">
         <v>34</v>
@@ -2980,7 +3021,7 @@
         <v>92</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>29</v>
@@ -2994,7 +3035,7 @@
       <c r="B45" s="29"/>
       <c r="C45" s="26"/>
       <c r="E45" s="29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>15</v>
@@ -3006,12 +3047,12 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B46" s="29"/>
       <c r="C46" s="26"/>
       <c r="E46" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>23</v>
@@ -3028,13 +3069,13 @@
       <c r="B47" s="29"/>
       <c r="C47" s="26"/>
       <c r="E47" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I47" s="6"/>
     </row>
@@ -3048,7 +3089,7 @@
         <v>30</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G48" s="7"/>
       <c r="I48" s="6"/>
@@ -3060,10 +3101,10 @@
       <c r="B49" s="29"/>
       <c r="C49" s="26"/>
       <c r="E49" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G49" s="7"/>
       <c r="I49" s="6"/>
@@ -3076,7 +3117,7 @@
         <v>55</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G50" s="7"/>
       <c r="I50" s="6"/>
@@ -3086,10 +3127,10 @@
       <c r="B51" s="29"/>
       <c r="C51" s="26"/>
       <c r="E51" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G51" s="7"/>
       <c r="I51" s="6"/>
@@ -3099,10 +3140,10 @@
       <c r="B52" s="29"/>
       <c r="C52" s="26"/>
       <c r="E52" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G52" s="7"/>
     </row>
@@ -3114,7 +3155,7 @@
         <v>22</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G53" s="7"/>
     </row>
@@ -3123,7 +3164,7 @@
       <c r="B54" s="29"/>
       <c r="C54" s="26"/>
       <c r="E54" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>81</v>
@@ -3146,7 +3187,7 @@
       <c r="C56" s="26"/>
       <c r="E56" s="29"/>
       <c r="F56" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G56" s="7"/>
     </row>
@@ -3169,7 +3210,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3184,7 +3225,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3193,35 +3234,37 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B2" s="36"/>
-      <c r="C2" s="38" t="s">
-        <v>161</v>
-      </c>
+      <c r="C2" s="38"/>
       <c r="D2" s="33"/>
       <c r="E2" s="37" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>227</v>
+      </c>
       <c r="D3" s="34"/>
       <c r="E3" s="30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>59</v>
@@ -3234,7 +3277,7 @@
       <c r="B4" s="29"/>
       <c r="C4" s="26"/>
       <c r="E4" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>78</v>
@@ -3248,10 +3291,10 @@
       <c r="B5" s="29"/>
       <c r="C5" s="26"/>
       <c r="E5" s="29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>60</v>
@@ -3265,7 +3308,7 @@
         <v>76</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>61</v>
@@ -3276,7 +3319,7 @@
       <c r="B7" s="29"/>
       <c r="C7" s="26"/>
       <c r="E7" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>77</v>
@@ -3290,10 +3333,10 @@
       <c r="B8" s="29"/>
       <c r="C8" s="26"/>
       <c r="E8" s="29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>64</v>
@@ -3304,7 +3347,7 @@
       <c r="B9" s="29"/>
       <c r="C9" s="26"/>
       <c r="E9" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>29</v>
@@ -3318,10 +3361,10 @@
       <c r="B10" s="29"/>
       <c r="C10" s="26"/>
       <c r="E10" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>76</v>
@@ -3332,10 +3375,10 @@
       <c r="B11" s="29"/>
       <c r="C11" s="26"/>
       <c r="E11" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>77</v>
@@ -3346,10 +3389,10 @@
       <c r="B12" s="29"/>
       <c r="C12" s="26"/>
       <c r="E12" s="29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>78</v>
@@ -3360,7 +3403,7 @@
       <c r="B13" s="29"/>
       <c r="C13" s="26"/>
       <c r="E13" s="29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
@@ -3374,7 +3417,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="26"/>
       <c r="E14" s="29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>30</v>
@@ -3388,7 +3431,7 @@
       <c r="B15" s="29"/>
       <c r="C15" s="26"/>
       <c r="E15" s="29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>33</v>
@@ -3405,10 +3448,10 @@
         <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3416,7 +3459,7 @@
       <c r="B17" s="29"/>
       <c r="C17" s="26"/>
       <c r="E17" s="29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>79</v>
@@ -3431,7 +3474,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G18" s="7"/>
     </row>
@@ -3440,10 +3483,10 @@
       <c r="B19" s="29"/>
       <c r="C19" s="26"/>
       <c r="E19" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7"/>
     </row>
@@ -3452,10 +3495,10 @@
       <c r="B20" s="29"/>
       <c r="C20" s="26"/>
       <c r="E20" s="29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G20" s="7"/>
     </row>
@@ -3464,7 +3507,7 @@
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
       <c r="E21" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -3474,7 +3517,7 @@
       <c r="B22" s="7"/>
       <c r="C22" s="6"/>
       <c r="E22" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="232">
   <si>
     <t>Bereich</t>
   </si>
@@ -709,13 +709,16 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Schatz Bruno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1144,7 +1147,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -1218,7 +1221,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1253,7 +1255,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -1429,14 +1430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -1447,7 +1448,7 @@
     <col min="7" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="21.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>218</v>
       </c>
@@ -1468,7 +1469,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -1492,7 +1493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="B3" s="5" t="s">
         <v>90</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="42" t="s">
@@ -1530,7 +1531,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="43"/>
@@ -1544,7 +1545,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="43" t="s">
@@ -1560,7 +1561,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="43" t="s">
@@ -1578,7 +1579,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="42" t="s">
@@ -1595,7 +1596,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="43" t="s">
@@ -1613,7 +1614,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -1635,7 +1636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="42"/>
@@ -1649,7 +1650,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="42" t="s">
@@ -1660,7 +1661,7 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="43" t="s">
@@ -1678,7 +1679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="44" t="s">
@@ -1698,7 +1699,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>224</v>
       </c>
@@ -1725,7 +1726,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="B16" s="5"/>
       <c r="D16" s="43" t="s">
         <v>219</v>
@@ -1745,7 +1746,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="43" t="s">
@@ -1766,7 +1767,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="43"/>
@@ -1785,7 +1786,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="43"/>
@@ -1804,7 +1805,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="43"/>
@@ -1823,7 +1824,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="43"/>
@@ -1842,12 +1843,14 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="43" t="s">
+        <v>231</v>
+      </c>
       <c r="E22" s="26"/>
       <c r="F22" s="42"/>
       <c r="G22" s="26" t="s">
@@ -1863,7 +1866,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="43"/>
@@ -1882,7 +1885,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="43"/>
@@ -1896,7 +1899,7 @@
       </c>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="15.75" thickBot="1">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="44"/>
@@ -1909,7 +1912,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>160</v>
       </c>
@@ -1933,7 +1936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="15.75" thickBot="1">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="44" t="s">
@@ -1950,7 +1953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -1972,7 +1975,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="43"/>
@@ -1986,7 +1989,7 @@
       </c>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="43"/>
@@ -1998,7 +2001,7 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="43"/>
@@ -2012,7 +2015,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="43"/>
@@ -2026,7 +2029,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1">
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="44"/>
@@ -2039,7 +2042,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -2061,7 +2064,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="42"/>
@@ -2076,7 +2079,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="42"/>
@@ -2091,7 +2094,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15.75" thickBot="1">
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="43"/>
@@ -2105,7 +2108,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -2129,7 +2132,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="43"/>
@@ -2145,7 +2148,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="42"/>
@@ -2156,7 +2159,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="D41" s="42"/>
@@ -2171,7 +2174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15.75" thickBot="1">
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
       <c r="D42" s="44" t="s">
@@ -2188,7 +2191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>107</v>
       </c>
@@ -2210,7 +2213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="43"/>
@@ -2222,7 +2225,7 @@
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15.75" thickBot="1">
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
       <c r="D45" s="44"/>
@@ -2237,7 +2240,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15.75" thickBot="1">
       <c r="A46" t="s">
         <v>224</v>
       </c>
@@ -2259,7 +2262,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15.75" thickBot="1">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -2281,7 +2284,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -2305,7 +2308,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15.75" thickBot="1">
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
       <c r="D49" s="44"/>
@@ -2316,7 +2319,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15.75" thickBot="1">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -2338,7 +2341,7 @@
       </c>
       <c r="I50" s="14"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15.75" thickBot="1">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -2365,14 +2368,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="3" width="37.42578125" customWidth="1"/>
@@ -2381,7 +2384,7 @@
     <col min="6" max="7" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="21.75" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>217</v>
       </c>
@@ -2390,7 +2393,7 @@
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>215</v>
       </c>
@@ -2408,7 +2411,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
@@ -2431,7 +2434,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -2451,7 +2454,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
@@ -2469,7 +2472,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -2489,7 +2492,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -2505,7 +2508,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="7"/>
       <c r="B8" s="29"/>
       <c r="C8" s="26"/>
@@ -2519,7 +2522,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -2528,11 +2531,11 @@
       <c r="G9" s="7"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1">
       <c r="E10"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
       <c r="A11" s="17" t="s">
         <v>214</v>
       </c>
@@ -2543,7 +2546,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="16" t="s">
         <v>35</v>
       </c>
@@ -2564,7 +2567,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
@@ -2581,7 +2584,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
@@ -2598,7 +2601,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
         <v>156</v>
       </c>
@@ -2615,7 +2618,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="7"/>
       <c r="B16" s="29"/>
       <c r="C16" s="26"/>
@@ -2630,7 +2633,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="7"/>
       <c r="B17" s="29"/>
       <c r="C17" s="26"/>
@@ -2645,7 +2648,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="7"/>
       <c r="B18" s="29"/>
       <c r="C18" s="26"/>
@@ -2660,7 +2663,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="7"/>
       <c r="B19" s="29"/>
       <c r="C19" s="26"/>
@@ -2673,7 +2676,7 @@
       <c r="G19" s="7"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="7"/>
       <c r="B20" s="29"/>
       <c r="C20" s="26"/>
@@ -2686,7 +2689,7 @@
       <c r="G20" s="7"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7"/>
       <c r="B21" s="29"/>
       <c r="C21" s="26"/>
@@ -2699,7 +2702,7 @@
       <c r="G21" s="7"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="7"/>
       <c r="B22" s="29"/>
       <c r="C22" s="26"/>
@@ -2710,11 +2713,11 @@
       <c r="G22" s="7"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1">
       <c r="E23"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
       <c r="A24" s="17" t="s">
         <v>213</v>
       </c>
@@ -2725,7 +2728,7 @@
       <c r="F24" s="39"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="16" t="s">
         <v>35</v>
       </c>
@@ -2748,7 +2751,7 @@
       <c r="H25" s="20"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="7" t="s">
         <v>57</v>
       </c>
@@ -2767,7 +2770,7 @@
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
         <v>47</v>
       </c>
@@ -2784,7 +2787,7 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
         <v>43</v>
       </c>
@@ -2801,7 +2804,7 @@
       </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
@@ -2818,7 +2821,7 @@
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="7" t="s">
         <v>45</v>
       </c>
@@ -2835,7 +2838,7 @@
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
@@ -2852,7 +2855,7 @@
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="7" t="s">
         <v>190</v>
       </c>
@@ -2869,7 +2872,7 @@
       </c>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="7" t="s">
         <v>99</v>
       </c>
@@ -2886,7 +2889,7 @@
       </c>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="7"/>
       <c r="B34" s="29"/>
       <c r="C34" s="26"/>
@@ -2899,7 +2902,7 @@
       <c r="G34" s="7"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="7"/>
       <c r="B35" s="29"/>
       <c r="C35" s="26"/>
@@ -2912,7 +2915,7 @@
       <c r="G35" s="7"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="7"/>
       <c r="B36" s="29"/>
       <c r="C36" s="26"/>
@@ -2927,7 +2930,7 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="7"/>
       <c r="B37" s="29"/>
       <c r="C37" s="26"/>
@@ -2940,7 +2943,7 @@
       <c r="G37" s="7"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="7"/>
       <c r="B38" s="29"/>
       <c r="C38" s="26"/>
@@ -2953,7 +2956,7 @@
       <c r="G38" s="7"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="7"/>
       <c r="B39" s="29"/>
       <c r="C39" s="26"/>
@@ -2966,7 +2969,7 @@
       <c r="G39" s="7"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="6"/>
@@ -2975,11 +2978,11 @@
       <c r="G40" s="7"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15.75" thickBot="1">
       <c r="E41"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
       <c r="A42" s="17" t="s">
         <v>212</v>
       </c>
@@ -2990,7 +2993,7 @@
       <c r="F42" s="39"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="16" t="s">
         <v>35</v>
       </c>
@@ -3011,7 +3014,7 @@
       <c r="H43" s="21"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="7" t="s">
         <v>46</v>
       </c>
@@ -3028,7 +3031,7 @@
       </c>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="7" t="s">
         <v>48</v>
       </c>
@@ -3045,7 +3048,7 @@
       </c>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="7" t="s">
         <v>189</v>
       </c>
@@ -3062,7 +3065,7 @@
       </c>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="7" t="s">
         <v>49</v>
       </c>
@@ -3079,7 +3082,7 @@
       </c>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="7" t="s">
         <v>50</v>
       </c>
@@ -3094,7 +3097,7 @@
       <c r="G48" s="7"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="7" t="s">
         <v>51</v>
       </c>
@@ -3109,7 +3112,7 @@
       <c r="G49" s="7"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="7"/>
       <c r="B50" s="29"/>
       <c r="C50" s="26"/>
@@ -3122,7 +3125,7 @@
       <c r="G50" s="7"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="7"/>
       <c r="B51" s="29"/>
       <c r="C51" s="26"/>
@@ -3135,7 +3138,7 @@
       <c r="G51" s="7"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="7"/>
       <c r="B52" s="29"/>
       <c r="C52" s="26"/>
@@ -3147,7 +3150,7 @@
       </c>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="7"/>
       <c r="B53" s="29"/>
       <c r="C53" s="26"/>
@@ -3159,7 +3162,7 @@
       </c>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="7"/>
       <c r="B54" s="29"/>
       <c r="C54" s="26"/>
@@ -3171,7 +3174,7 @@
       </c>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="7"/>
       <c r="B55" s="29"/>
       <c r="C55" s="26"/>
@@ -3181,7 +3184,7 @@
       </c>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="7"/>
       <c r="B56" s="29"/>
       <c r="C56" s="26"/>
@@ -3191,7 +3194,7 @@
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="6"/>
@@ -3206,14 +3209,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
@@ -3223,7 +3226,7 @@
     <col min="6" max="7" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="21.75" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>210</v>
       </c>
@@ -3232,7 +3235,7 @@
       <c r="D1" s="32"/>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>211</v>
       </c>
@@ -3249,7 +3252,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
@@ -3286,7 +3289,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="7"/>
       <c r="B5" s="29"/>
       <c r="C5" s="26"/>
@@ -3300,7 +3303,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="7"/>
       <c r="B6" s="29"/>
       <c r="C6" s="26"/>
@@ -3314,7 +3317,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="7"/>
       <c r="B7" s="29"/>
       <c r="C7" s="26"/>
@@ -3328,7 +3331,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="7"/>
       <c r="B8" s="29"/>
       <c r="C8" s="26"/>
@@ -3342,7 +3345,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="7"/>
       <c r="B9" s="29"/>
       <c r="C9" s="26"/>
@@ -3356,7 +3359,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="7"/>
       <c r="B10" s="29"/>
       <c r="C10" s="26"/>
@@ -3370,7 +3373,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="7"/>
       <c r="B11" s="29"/>
       <c r="C11" s="26"/>
@@ -3384,7 +3387,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="7"/>
       <c r="B12" s="29"/>
       <c r="C12" s="26"/>
@@ -3398,7 +3401,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="7"/>
       <c r="B13" s="29"/>
       <c r="C13" s="26"/>
@@ -3412,7 +3415,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="7"/>
       <c r="B14" s="29"/>
       <c r="C14" s="26"/>
@@ -3426,7 +3429,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="7"/>
       <c r="B15" s="29"/>
       <c r="C15" s="26"/>
@@ -3440,7 +3443,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="7"/>
       <c r="B16" s="29"/>
       <c r="C16" s="26"/>
@@ -3454,7 +3457,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="7"/>
       <c r="B17" s="29"/>
       <c r="C17" s="26"/>
@@ -3466,7 +3469,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="7"/>
       <c r="B18" s="29"/>
       <c r="C18" s="26"/>
@@ -3478,7 +3481,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="7"/>
       <c r="B19" s="29"/>
       <c r="C19" s="26"/>
@@ -3490,7 +3493,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="7"/>
       <c r="B20" s="29"/>
       <c r="C20" s="26"/>
@@ -3502,7 +3505,7 @@
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
@@ -3512,7 +3515,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="6"/>
@@ -3522,7 +3525,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="6"/>
@@ -3530,7 +3533,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
@@ -3538,7 +3541,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="6"/>
@@ -3546,7 +3549,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="6"/>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -702,23 +702,23 @@
     <t>Sepp</t>
   </si>
   <si>
-    <t>Gagstädter Chrisi (DJ-Springer)</t>
-  </si>
-  <si>
-    <t>Rammer Michael (DJ-Springer)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Schatz Bruno</t>
+  </si>
+  <si>
+    <t>Christopher Gagstädter (DJ/Kellner)</t>
+  </si>
+  <si>
+    <t>Michael Rammer (DJ/Kellner)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1147,7 +1147,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -1221,6 +1221,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1255,6 +1256,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -1430,25 +1432,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" style="6" customWidth="1"/>
     <col min="6" max="6" width="3.5703125" style="6" customWidth="1"/>
     <col min="7" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21.75" thickBot="1">
+    <row r="1" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>218</v>
       </c>
@@ -1469,7 +1471,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -1493,7 +1495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>90</v>
       </c>
@@ -1514,7 +1516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="42" t="s">
@@ -1531,7 +1533,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="43"/>
@@ -1545,11 +1547,11 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="43" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="42"/>
@@ -1561,11 +1563,11 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="43" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="42"/>
@@ -1579,7 +1581,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="42" t="s">
@@ -1596,7 +1598,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="43" t="s">
@@ -1614,7 +1616,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -1636,12 +1638,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="42"/>
       <c r="E11" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="6" t="s">
@@ -1650,7 +1652,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="42" t="s">
@@ -1661,7 +1663,7 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="43" t="s">
@@ -1679,7 +1681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="44" t="s">
@@ -1699,7 +1701,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>224</v>
       </c>
@@ -1726,7 +1728,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="D16" s="43" t="s">
         <v>219</v>
@@ -1746,7 +1748,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="43" t="s">
@@ -1767,7 +1769,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="43"/>
@@ -1786,7 +1788,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="43"/>
@@ -1805,7 +1807,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="43"/>
@@ -1824,7 +1826,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="43"/>
@@ -1843,13 +1845,13 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
         <v>150</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="42"/>
@@ -1866,7 +1868,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="43"/>
@@ -1885,7 +1887,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="43"/>
@@ -1899,7 +1901,7 @@
       </c>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" thickBot="1">
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="44"/>
@@ -1912,7 +1914,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>160</v>
       </c>
@@ -1936,7 +1938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1">
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="44" t="s">
@@ -1953,7 +1955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -1975,7 +1977,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="43"/>
@@ -1989,7 +1991,7 @@
       </c>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="43"/>
@@ -2001,7 +2003,7 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="43"/>
@@ -2015,7 +2017,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="43"/>
@@ -2029,7 +2031,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="44"/>
@@ -2042,7 +2044,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -2064,7 +2066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="42"/>
@@ -2079,7 +2081,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="42"/>
@@ -2094,7 +2096,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1">
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="43"/>
@@ -2108,7 +2110,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -2132,7 +2134,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="43"/>
@@ -2148,7 +2150,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="42"/>
@@ -2159,7 +2161,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="D41" s="42"/>
@@ -2174,7 +2176,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1">
+    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
       <c r="D42" s="44" t="s">
@@ -2191,7 +2193,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>107</v>
       </c>
@@ -2213,7 +2215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="43"/>
@@ -2225,7 +2227,7 @@
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1">
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
       <c r="D45" s="44"/>
@@ -2240,7 +2242,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1">
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>224</v>
       </c>
@@ -2262,7 +2264,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1">
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -2284,7 +2286,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -2308,7 +2310,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1">
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
       <c r="D49" s="44"/>
@@ -2319,7 +2321,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1">
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -2341,7 +2343,7 @@
       </c>
       <c r="I50" s="14"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1">
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -2368,14 +2370,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="3" width="37.42578125" customWidth="1"/>
@@ -2384,7 +2386,7 @@
     <col min="6" max="7" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.75" thickBot="1">
+    <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>217</v>
       </c>
@@ -2393,7 +2395,7 @@
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>215</v>
       </c>
@@ -2411,7 +2413,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
@@ -2434,7 +2436,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -2454,7 +2456,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
@@ -2472,7 +2474,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -2492,7 +2494,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -2508,7 +2510,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="29"/>
       <c r="C8" s="26"/>
@@ -2522,7 +2524,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -2531,11 +2533,11 @@
       <c r="G9" s="7"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>214</v>
       </c>
@@ -2546,7 +2548,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>35</v>
       </c>
@@ -2567,7 +2569,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
@@ -2584,7 +2586,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
@@ -2601,7 +2603,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>156</v>
       </c>
@@ -2618,7 +2620,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="29"/>
       <c r="C16" s="26"/>
@@ -2633,7 +2635,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="29"/>
       <c r="C17" s="26"/>
@@ -2648,7 +2650,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="29"/>
       <c r="C18" s="26"/>
@@ -2663,7 +2665,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="29"/>
       <c r="C19" s="26"/>
@@ -2676,7 +2678,7 @@
       <c r="G19" s="7"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="29"/>
       <c r="C20" s="26"/>
@@ -2689,7 +2691,7 @@
       <c r="G20" s="7"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="29"/>
       <c r="C21" s="26"/>
@@ -2702,7 +2704,7 @@
       <c r="G21" s="7"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="29"/>
       <c r="C22" s="26"/>
@@ -2713,11 +2715,11 @@
       <c r="G22" s="7"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
+    <row r="24" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>213</v>
       </c>
@@ -2728,7 +2730,7 @@
       <c r="F24" s="39"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>35</v>
       </c>
@@ -2751,7 +2753,7 @@
       <c r="H25" s="20"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>57</v>
       </c>
@@ -2770,7 +2772,7 @@
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>47</v>
       </c>
@@ -2787,7 +2789,7 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>43</v>
       </c>
@@ -2804,7 +2806,7 @@
       </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
@@ -2821,7 +2823,7 @@
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>45</v>
       </c>
@@ -2838,7 +2840,7 @@
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
@@ -2855,7 +2857,7 @@
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>190</v>
       </c>
@@ -2872,7 +2874,7 @@
       </c>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>99</v>
       </c>
@@ -2889,7 +2891,7 @@
       </c>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="29"/>
       <c r="C34" s="26"/>
@@ -2902,7 +2904,7 @@
       <c r="G34" s="7"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="29"/>
       <c r="C35" s="26"/>
@@ -2915,7 +2917,7 @@
       <c r="G35" s="7"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="29"/>
       <c r="C36" s="26"/>
@@ -2930,7 +2932,7 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="29"/>
       <c r="C37" s="26"/>
@@ -2943,7 +2945,7 @@
       <c r="G37" s="7"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="29"/>
       <c r="C38" s="26"/>
@@ -2956,7 +2958,7 @@
       <c r="G38" s="7"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="29"/>
       <c r="C39" s="26"/>
@@ -2969,7 +2971,7 @@
       <c r="G39" s="7"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="6"/>
@@ -2978,11 +2980,11 @@
       <c r="G40" s="7"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1">
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E41"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
+    <row r="42" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>212</v>
       </c>
@@ -2993,7 +2995,7 @@
       <c r="F42" s="39"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>35</v>
       </c>
@@ -3014,7 +3016,7 @@
       <c r="H43" s="21"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>46</v>
       </c>
@@ -3031,7 +3033,7 @@
       </c>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>48</v>
       </c>
@@ -3048,7 +3050,7 @@
       </c>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>189</v>
       </c>
@@ -3065,7 +3067,7 @@
       </c>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>49</v>
       </c>
@@ -3082,7 +3084,7 @@
       </c>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>50</v>
       </c>
@@ -3097,7 +3099,7 @@
       <c r="G48" s="7"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>51</v>
       </c>
@@ -3112,7 +3114,7 @@
       <c r="G49" s="7"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="29"/>
       <c r="C50" s="26"/>
@@ -3125,7 +3127,7 @@
       <c r="G50" s="7"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="29"/>
       <c r="C51" s="26"/>
@@ -3138,7 +3140,7 @@
       <c r="G51" s="7"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="29"/>
       <c r="C52" s="26"/>
@@ -3150,7 +3152,7 @@
       </c>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="29"/>
       <c r="C53" s="26"/>
@@ -3162,7 +3164,7 @@
       </c>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="29"/>
       <c r="C54" s="26"/>
@@ -3174,7 +3176,7 @@
       </c>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="29"/>
       <c r="C55" s="26"/>
@@ -3184,7 +3186,7 @@
       </c>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="29"/>
       <c r="C56" s="26"/>
@@ -3194,7 +3196,7 @@
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="6"/>
@@ -3209,14 +3211,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
@@ -3226,7 +3228,7 @@
     <col min="6" max="7" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.75" thickBot="1">
+    <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>210</v>
       </c>
@@ -3235,7 +3237,7 @@
       <c r="D1" s="32"/>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>211</v>
       </c>
@@ -3252,7 +3254,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
@@ -3273,7 +3275,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
@@ -3289,7 +3291,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="29"/>
       <c r="C5" s="26"/>
@@ -3303,7 +3305,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="29"/>
       <c r="C6" s="26"/>
@@ -3317,7 +3319,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="29"/>
       <c r="C7" s="26"/>
@@ -3331,7 +3333,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="29"/>
       <c r="C8" s="26"/>
@@ -3345,7 +3347,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="29"/>
       <c r="C9" s="26"/>
@@ -3359,7 +3361,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="29"/>
       <c r="C10" s="26"/>
@@ -3373,7 +3375,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="29"/>
       <c r="C11" s="26"/>
@@ -3387,7 +3389,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="29"/>
       <c r="C12" s="26"/>
@@ -3401,7 +3403,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="29"/>
       <c r="C13" s="26"/>
@@ -3415,7 +3417,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="29"/>
       <c r="C14" s="26"/>
@@ -3429,7 +3431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="29"/>
       <c r="C15" s="26"/>
@@ -3443,7 +3445,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="29"/>
       <c r="C16" s="26"/>
@@ -3457,7 +3459,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="29"/>
       <c r="C17" s="26"/>
@@ -3469,7 +3471,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="29"/>
       <c r="C18" s="26"/>
@@ -3481,7 +3483,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="29"/>
       <c r="C19" s="26"/>
@@ -3493,7 +3495,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="29"/>
       <c r="C20" s="26"/>
@@ -3505,7 +3507,7 @@
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
@@ -3515,7 +3517,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="6"/>
@@ -3525,7 +3527,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="6"/>
@@ -3533,7 +3535,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
@@ -3541,7 +3543,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="6"/>
@@ -3549,7 +3551,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="6"/>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -4,13 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
     <sheet name="Aufbau" sheetId="2" r:id="rId2"/>
     <sheet name="Abbau" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Abbau!$A$1:$B$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Aufbau!$A$1:$B$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Fest!$A$1:$D$51</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -776,7 +781,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1054,27 +1059,20 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1129,9 +1127,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1435,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,7 +1469,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -1481,10 +1479,10 @@
       <c r="C2" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="42"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="3" t="s">
         <v>69</v>
       </c>
@@ -1495,17 +1493,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="42"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1516,13 +1514,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="42"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="6" t="s">
         <v>191</v>
       </c>
@@ -1533,12 +1531,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="43"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="26"/>
-      <c r="F5" s="42"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="26" t="s">
         <v>126</v>
       </c>
@@ -1547,14 +1545,14 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>230</v>
       </c>
       <c r="E6" s="26"/>
-      <c r="F6" s="42"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="26" t="s">
         <v>30</v>
       </c>
@@ -1563,14 +1561,14 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="42" t="s">
         <v>231</v>
       </c>
       <c r="E7" s="26"/>
-      <c r="F7" s="42"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="26" t="s">
         <v>138</v>
       </c>
@@ -1581,13 +1579,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="6" t="s">
         <v>105</v>
       </c>
@@ -1598,14 +1596,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+    <row r="9" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="43" t="s">
         <v>221</v>
       </c>
       <c r="E9" s="26"/>
-      <c r="F9" s="42"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="26" t="s">
         <v>89</v>
       </c>
@@ -1616,7 +1614,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -1626,8 +1624,8 @@
       <c r="C10" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="F10" s="42"/>
+      <c r="D10" s="23"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="3" t="s">
         <v>158</v>
       </c>
@@ -1638,39 +1636,39 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="42"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="6" t="s">
         <v>159</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="6"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="42" t="s">
         <v>222</v>
       </c>
       <c r="E13" s="26"/>
-      <c r="F13" s="42"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="26" t="s">
         <v>16</v>
       </c>
@@ -1681,13 +1679,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="F14" s="42"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="9" t="s">
         <v>66</v>
       </c>
@@ -1701,7 +1699,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>224</v>
       </c>
@@ -1711,10 +1709,10 @@
       <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="3" t="s">
         <v>164</v>
       </c>
@@ -1728,13 +1726,14 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="D16" s="43" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="42" t="s">
         <v>219</v>
       </c>
       <c r="E16" s="26"/>
-      <c r="F16" s="42"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="26" t="s">
         <v>15</v>
       </c>
@@ -1748,14 +1747,14 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="42" t="s">
         <v>225</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="F17" s="42"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="26" t="s">
         <v>168</v>
       </c>
@@ -1769,12 +1768,12 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="42"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="26" t="s">
         <v>18</v>
       </c>
@@ -1788,12 +1787,12 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="43"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="26"/>
-      <c r="F19" s="42"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="26" t="s">
         <v>23</v>
       </c>
@@ -1807,12 +1806,12 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="43"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="26"/>
-      <c r="F20" s="42"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="26" t="s">
         <v>174</v>
       </c>
@@ -1826,12 +1825,12 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="43"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="26"/>
-      <c r="F21" s="42"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="26" t="s">
         <v>97</v>
       </c>
@@ -1845,16 +1844,16 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="42" t="s">
         <v>229</v>
       </c>
       <c r="E22" s="26"/>
-      <c r="F22" s="42"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="26" t="s">
         <v>73</v>
       </c>
@@ -1868,12 +1867,12 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="43"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="26"/>
-      <c r="F23" s="42"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="26" t="s">
         <v>175</v>
       </c>
@@ -1887,12 +1886,12 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="43"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="26"/>
-      <c r="F24" s="42"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="26" t="s">
         <v>176</v>
       </c>
@@ -1901,11 +1900,11 @@
       </c>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="44"/>
-      <c r="F25" s="42"/>
+      <c r="D25" s="25"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="9" t="s">
         <v>177</v>
       </c>
@@ -1914,7 +1913,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>160</v>
       </c>
@@ -1924,10 +1923,10 @@
       <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="3" t="s">
         <v>108</v>
       </c>
@@ -1938,13 +1937,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="42"/>
+      <c r="F27" s="41"/>
       <c r="G27" s="9" t="s">
         <v>22</v>
       </c>
@@ -1955,7 +1954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -1965,8 +1964,8 @@
       <c r="C28" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="F28" s="42"/>
+      <c r="D28" s="23"/>
+      <c r="F28" s="41"/>
       <c r="G28" s="3" t="s">
         <v>82</v>
       </c>
@@ -1977,12 +1976,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="43"/>
+      <c r="D29" s="42"/>
       <c r="E29" s="26"/>
-      <c r="F29" s="42"/>
+      <c r="F29" s="41"/>
       <c r="G29" s="26" t="s">
         <v>81</v>
       </c>
@@ -1991,24 +1990,24 @@
       </c>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="43"/>
+      <c r="D30" s="42"/>
       <c r="E30" s="26"/>
-      <c r="F30" s="42"/>
+      <c r="F30" s="41"/>
       <c r="G30" s="26" t="s">
         <v>187</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="43"/>
+      <c r="D31" s="42"/>
       <c r="E31" s="26"/>
-      <c r="F31" s="42"/>
+      <c r="F31" s="41"/>
       <c r="G31" s="26" t="s">
         <v>196</v>
       </c>
@@ -2017,12 +2016,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="43"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="26"/>
-      <c r="F32" s="42"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="26" t="s">
         <v>197</v>
       </c>
@@ -2031,11 +2030,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="44"/>
-      <c r="F33" s="42"/>
+      <c r="D33" s="25"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="9" t="s">
         <v>198</v>
       </c>
@@ -2044,7 +2043,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -2054,8 +2053,8 @@
       <c r="C34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="F34" s="42"/>
+      <c r="D34" s="23"/>
+      <c r="F34" s="41"/>
       <c r="G34" s="3" t="s">
         <v>83</v>
       </c>
@@ -2066,11 +2065,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="42"/>
-      <c r="F35" s="42"/>
+      <c r="D35" s="24"/>
+      <c r="F35" s="41"/>
       <c r="G35" s="6" t="s">
         <v>84</v>
       </c>
@@ -2081,11 +2080,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="42"/>
-      <c r="F36" s="42"/>
+      <c r="D36" s="24"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="6" t="s">
         <v>182</v>
       </c>
@@ -2096,12 +2095,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
+    <row r="37" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="43"/>
       <c r="E37" s="26"/>
-      <c r="F37" s="42"/>
+      <c r="F37" s="41"/>
       <c r="G37" s="26" t="s">
         <v>199</v>
       </c>
@@ -2110,7 +2109,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -2120,10 +2119,10 @@
       <c r="C38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="41" t="s">
+      <c r="D38" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F38" s="42"/>
+      <c r="F38" s="41"/>
       <c r="G38" s="3" t="s">
         <v>27</v>
       </c>
@@ -2134,12 +2133,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="43"/>
+      <c r="D39" s="42"/>
       <c r="E39" s="26"/>
-      <c r="F39" s="42"/>
+      <c r="F39" s="41"/>
       <c r="G39" s="26" t="s">
         <v>205</v>
       </c>
@@ -2150,22 +2149,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="42"/>
-      <c r="F40" s="42"/>
+      <c r="D40" s="24"/>
+      <c r="F40" s="41"/>
       <c r="G40" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="42"/>
-      <c r="F41" s="42"/>
+      <c r="D41" s="24"/>
+      <c r="F41" s="41"/>
       <c r="G41" s="6" t="s">
         <v>166</v>
       </c>
@@ -2176,13 +2175,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="F42" s="42"/>
+      <c r="F42" s="41"/>
       <c r="G42" s="9" t="s">
         <v>165</v>
       </c>
@@ -2193,7 +2192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>107</v>
       </c>
@@ -2203,8 +2202,8 @@
       <c r="C43" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D43" s="41"/>
-      <c r="F43" s="42"/>
+      <c r="D43" s="23"/>
+      <c r="F43" s="41"/>
       <c r="G43" s="3" t="s">
         <v>201</v>
       </c>
@@ -2215,23 +2214,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="43"/>
+      <c r="D44" s="42"/>
       <c r="E44" s="26"/>
-      <c r="F44" s="42"/>
+      <c r="F44" s="41"/>
       <c r="G44" s="26" t="s">
         <v>188</v>
       </c>
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="44"/>
-      <c r="F45" s="42"/>
+      <c r="D45" s="25"/>
+      <c r="F45" s="41"/>
       <c r="G45" s="9" t="s">
         <v>63</v>
       </c>
@@ -2242,18 +2241,18 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>224</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="44"/>
-      <c r="F46" s="42"/>
+      <c r="F46" s="41"/>
       <c r="G46" s="9" t="s">
         <v>30</v>
       </c>
@@ -2264,7 +2263,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -2274,8 +2273,8 @@
       <c r="C47" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="18"/>
-      <c r="F47" s="42"/>
+      <c r="D47" s="44"/>
+      <c r="F47" s="41"/>
       <c r="G47" s="12" t="s">
         <v>92</v>
       </c>
@@ -2286,7 +2285,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -2296,10 +2295,10 @@
       <c r="C48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="42"/>
+      <c r="F48" s="41"/>
       <c r="G48" s="6" t="s">
         <v>79</v>
       </c>
@@ -2310,31 +2309,31 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
-      <c r="D49" s="44"/>
-      <c r="F49" s="42"/>
+      <c r="D49" s="25"/>
+      <c r="F49" s="41"/>
       <c r="G49" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="F50" s="42"/>
+      <c r="F50" s="41"/>
       <c r="G50" s="9" t="s">
         <v>92</v>
       </c>
@@ -2343,18 +2342,18 @@
       </c>
       <c r="I50" s="14"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="44"/>
-      <c r="F51" s="42"/>
+      <c r="F51" s="41"/>
       <c r="G51" s="9"/>
       <c r="H51" s="14" t="s">
         <v>151</v>
@@ -2373,8 +2372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3215,7 +3214,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="234">
   <si>
     <t>Bereich</t>
   </si>
@@ -717,6 +717,12 @@
   </si>
   <si>
     <t>Michael Rammer (DJ/Kellner)</t>
+  </si>
+  <si>
+    <t>Julian Raml</t>
+  </si>
+  <si>
+    <t>Franz Brückler ab 13:00</t>
   </si>
 </sst>
 </file>
@@ -1433,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,7 +1876,9 @@
     <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="42"/>
+      <c r="D23" s="42" t="s">
+        <v>232</v>
+      </c>
       <c r="E23" s="26"/>
       <c r="F23" s="41"/>
       <c r="G23" s="26" t="s">
@@ -2273,7 +2281,9 @@
       <c r="C47" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="44"/>
+      <c r="D47" s="44" t="s">
+        <v>131</v>
+      </c>
       <c r="F47" s="41"/>
       <c r="G47" s="12" t="s">
         <v>92</v>
@@ -2372,8 +2382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2551,7 +2561,9 @@
       <c r="A12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="30" t="s">
+        <v>114</v>
+      </c>
       <c r="C12" s="26" t="s">
         <v>115</v>
       </c>
@@ -2998,7 +3010,9 @@
       <c r="A43" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="30"/>
+      <c r="B43" s="30" t="s">
+        <v>114</v>
+      </c>
       <c r="C43" s="26" t="s">
         <v>104</v>
       </c>
@@ -3019,7 +3033,9 @@
       <c r="A44" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="29"/>
+      <c r="B44" s="29" t="s">
+        <v>233</v>
+      </c>
       <c r="C44" s="26"/>
       <c r="E44" s="29" t="s">
         <v>92</v>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="235">
   <si>
     <t>Bereich</t>
   </si>
@@ -723,6 +723,9 @@
   </si>
   <si>
     <t>Franz Brückler ab 13:00</t>
+  </si>
+  <si>
+    <t>Fritz Zeitlhofer (Anhänger)</t>
   </si>
 </sst>
 </file>
@@ -1439,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2210,7 +2213,9 @@
       <c r="C43" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D43" s="23"/>
+      <c r="D43" s="23" t="s">
+        <v>63</v>
+      </c>
       <c r="F43" s="41"/>
       <c r="G43" s="3" t="s">
         <v>201</v>
@@ -2382,8 +2387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3052,7 +3057,9 @@
       <c r="A45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="29"/>
+      <c r="B45" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="C45" s="26"/>
       <c r="E45" s="29" t="s">
         <v>169</v>
@@ -3230,7 +3237,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3294,7 +3301,9 @@
       <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="29" t="s">
+        <v>234</v>
+      </c>
       <c r="C4" s="26"/>
       <c r="E4" s="29" t="s">
         <v>159</v>
@@ -3308,7 +3317,9 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="29"/>
+      <c r="B5" s="29" t="s">
+        <v>183</v>
+      </c>
       <c r="C5" s="26"/>
       <c r="E5" s="29" t="s">
         <v>169</v>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="237">
   <si>
     <t>Bereich</t>
   </si>
@@ -726,6 +726,12 @@
   </si>
   <si>
     <t>Fritz Zeitlhofer (Anhänger)</t>
+  </si>
+  <si>
+    <t>Christian Brandstötter (Hütte)</t>
+  </si>
+  <si>
+    <t>Philipp Brandstötter (Hütte)</t>
   </si>
 </sst>
 </file>
@@ -1442,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2387,8 +2393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2474,7 +2480,9 @@
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="38"/>
       <c r="E5" s="7" t="s">
@@ -2589,7 +2597,9 @@
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="29" t="s">
+        <v>235</v>
+      </c>
       <c r="C13" s="26"/>
       <c r="E13" s="29" t="s">
         <v>167</v>
@@ -2606,7 +2616,9 @@
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="29" t="s">
+        <v>236</v>
+      </c>
       <c r="C14" s="26"/>
       <c r="E14" s="29" t="s">
         <v>92</v>
@@ -2623,7 +2635,9 @@
       <c r="A15" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="29" t="s">
+        <v>170</v>
+      </c>
       <c r="C15" s="26"/>
       <c r="E15" s="29" t="s">
         <v>168</v>
@@ -3076,7 +3090,9 @@
       <c r="A46" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B46" s="29"/>
+      <c r="B46" s="29" t="s">
+        <v>170</v>
+      </c>
       <c r="C46" s="26"/>
       <c r="E46" s="29" t="s">
         <v>170</v>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="239">
   <si>
     <t>Bereich</t>
   </si>
@@ -732,6 +732,12 @@
   </si>
   <si>
     <t>Philipp Brandstötter (Hütte)</t>
+  </si>
+  <si>
+    <t>Roland Reichl bis 22:00</t>
+  </si>
+  <si>
+    <t>Gottfried Hinterberger</t>
   </si>
 </sst>
 </file>
@@ -1448,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,7 +2159,9 @@
     <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="42"/>
+      <c r="D39" s="42" t="s">
+        <v>237</v>
+      </c>
       <c r="E39" s="26"/>
       <c r="F39" s="41"/>
       <c r="G39" s="26" t="s">
@@ -2169,7 +2177,9 @@
     <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="24"/>
+      <c r="D40" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="F40" s="41"/>
       <c r="G40" s="6" t="s">
         <v>26</v>
@@ -2180,7 +2190,9 @@
     <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="24"/>
+      <c r="D41" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="F41" s="41"/>
       <c r="G41" s="6" t="s">
         <v>166</v>
@@ -2373,7 +2385,9 @@
       <c r="C51" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="44"/>
+      <c r="D51" s="44" t="s">
+        <v>238</v>
+      </c>
       <c r="F51" s="41"/>
       <c r="G51" s="9"/>
       <c r="H51" s="14" t="s">
@@ -2393,7 +2407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="240">
   <si>
     <t>Bereich</t>
   </si>
@@ -738,6 +738,9 @@
   </si>
   <si>
     <t>Gottfried Hinterberger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Brandstötter </t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1458,7 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,7 +1795,9 @@
     <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="42"/>
+      <c r="D18" s="42" t="s">
+        <v>239</v>
+      </c>
       <c r="E18" s="26"/>
       <c r="F18" s="41"/>
       <c r="G18" s="26" t="s">
@@ -1811,7 +1816,9 @@
     <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="42"/>
+      <c r="D19" s="42" t="s">
+        <v>174</v>
+      </c>
       <c r="E19" s="26"/>
       <c r="F19" s="41"/>
       <c r="G19" s="26" t="s">
@@ -2407,8 +2414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2820,7 +2827,9 @@
       <c r="A27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="29"/>
+      <c r="B27" s="29" t="s">
+        <v>108</v>
+      </c>
       <c r="C27" s="26"/>
       <c r="E27" s="29" t="s">
         <v>92</v>
@@ -2837,7 +2846,9 @@
       <c r="A28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="C28" s="26"/>
       <c r="E28" s="29" t="s">
         <v>171</v>
@@ -3267,7 +3278,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="240">
   <si>
     <t>Bereich</t>
   </si>
@@ -746,8 +746,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -1243,7 +1243,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1278,7 +1277,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -1454,14 +1452,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -1472,7 +1470,7 @@
     <col min="7" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="21.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>218</v>
       </c>
@@ -1493,7 +1491,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" customHeight="1">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -1517,7 +1515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>90</v>
       </c>
@@ -1538,7 +1536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" customHeight="1">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="24" t="s">
@@ -1555,7 +1553,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14.25" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="42"/>
@@ -1569,7 +1567,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="14.25" customHeight="1">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="42" t="s">
@@ -1585,7 +1583,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="14.25" customHeight="1">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="42" t="s">
@@ -1603,7 +1601,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="14.25" customHeight="1">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="24" t="s">
@@ -1620,7 +1618,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="43" t="s">
@@ -1638,7 +1636,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="14.25" customHeight="1">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -1660,7 +1658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="14.25" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="24"/>
@@ -1674,7 +1672,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="14.25" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="24" t="s">
@@ -1685,7 +1683,7 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="14.25" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="42" t="s">
@@ -1703,7 +1701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="25" t="s">
@@ -1723,7 +1721,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="14.25" customHeight="1">
       <c r="A15" t="s">
         <v>224</v>
       </c>
@@ -1750,7 +1748,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="14.25" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="42" t="s">
@@ -1771,7 +1769,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="42" t="s">
@@ -1792,7 +1790,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="14.25" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="42" t="s">
@@ -1813,7 +1811,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="14.25" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="42" t="s">
@@ -1834,7 +1832,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="14.25" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="42"/>
@@ -1853,7 +1851,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="14.25" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="42"/>
@@ -1872,7 +1870,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="14.25" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
         <v>150</v>
@@ -1895,7 +1893,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="14.25" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="42" t="s">
@@ -1916,7 +1914,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="14.25" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="42"/>
@@ -1930,7 +1928,7 @@
       </c>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="25"/>
@@ -1943,7 +1941,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="14.25" customHeight="1">
       <c r="A26" t="s">
         <v>160</v>
       </c>
@@ -1967,7 +1965,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="25" t="s">
@@ -1984,7 +1982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="14.25" customHeight="1">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -2006,7 +2004,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="14.25" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="42"/>
@@ -2020,7 +2018,7 @@
       </c>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="14.25" customHeight="1">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="42"/>
@@ -2032,7 +2030,7 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="14.25" customHeight="1">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="42"/>
@@ -2046,7 +2044,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="14.25" customHeight="1">
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="42"/>
@@ -2060,7 +2058,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="25"/>
@@ -2073,7 +2071,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="14.25" customHeight="1">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -2095,7 +2093,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="14.25" customHeight="1">
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="24"/>
@@ -2110,7 +2108,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="14.25" customHeight="1">
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="24"/>
@@ -2125,7 +2123,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="43"/>
@@ -2139,7 +2137,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="14.25" customHeight="1">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -2163,7 +2161,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="14.25" customHeight="1">
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="42" t="s">
@@ -2181,7 +2179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="14.25" customHeight="1">
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="24" t="s">
@@ -2194,7 +2192,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
     </row>
-    <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="14.25" customHeight="1">
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="D41" s="24" t="s">
@@ -2211,7 +2209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
       <c r="D42" s="25" t="s">
@@ -2228,7 +2226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="14.25" customHeight="1">
       <c r="A43" t="s">
         <v>107</v>
       </c>
@@ -2252,7 +2250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="14.25" customHeight="1">
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="42"/>
@@ -2264,7 +2262,7 @@
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
     </row>
-    <row r="45" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
       <c r="D45" s="25"/>
@@ -2279,7 +2277,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="A46" t="s">
         <v>224</v>
       </c>
@@ -2301,7 +2299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -2325,7 +2323,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="14.25" customHeight="1">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -2349,7 +2347,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
       <c r="D49" s="25"/>
@@ -2360,7 +2358,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -2382,7 +2380,7 @@
       </c>
       <c r="I50" s="14"/>
     </row>
-    <row r="51" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -2411,14 +2409,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="3" width="37.42578125" customWidth="1"/>
@@ -2427,7 +2425,7 @@
     <col min="6" max="7" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="21.75" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>217</v>
       </c>
@@ -2436,7 +2434,7 @@
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>215</v>
       </c>
@@ -2454,7 +2452,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
@@ -2477,7 +2475,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -2497,7 +2495,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
@@ -2517,7 +2515,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -2537,7 +2535,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -2553,7 +2551,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="7"/>
       <c r="B8" s="29"/>
       <c r="C8" s="26"/>
@@ -2567,7 +2565,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -2576,11 +2574,11 @@
       <c r="G9" s="7"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1">
       <c r="E10"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
       <c r="A11" s="17" t="s">
         <v>214</v>
       </c>
@@ -2591,7 +2589,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="16" t="s">
         <v>35</v>
       </c>
@@ -2614,7 +2612,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
@@ -2633,7 +2631,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
@@ -2652,7 +2650,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
         <v>156</v>
       </c>
@@ -2671,7 +2669,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="7"/>
       <c r="B16" s="29"/>
       <c r="C16" s="26"/>
@@ -2686,7 +2684,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="7"/>
       <c r="B17" s="29"/>
       <c r="C17" s="26"/>
@@ -2701,7 +2699,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="7"/>
       <c r="B18" s="29"/>
       <c r="C18" s="26"/>
@@ -2716,7 +2714,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="7"/>
       <c r="B19" s="29"/>
       <c r="C19" s="26"/>
@@ -2729,7 +2727,7 @@
       <c r="G19" s="7"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="7"/>
       <c r="B20" s="29"/>
       <c r="C20" s="26"/>
@@ -2742,7 +2740,7 @@
       <c r="G20" s="7"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7"/>
       <c r="B21" s="29"/>
       <c r="C21" s="26"/>
@@ -2755,7 +2753,7 @@
       <c r="G21" s="7"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="7"/>
       <c r="B22" s="29"/>
       <c r="C22" s="26"/>
@@ -2766,11 +2764,11 @@
       <c r="G22" s="7"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1">
       <c r="E23"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
       <c r="A24" s="17" t="s">
         <v>213</v>
       </c>
@@ -2781,7 +2779,7 @@
       <c r="F24" s="39"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="16" t="s">
         <v>35</v>
       </c>
@@ -2804,7 +2802,7 @@
       <c r="H25" s="20"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="7" t="s">
         <v>57</v>
       </c>
@@ -2823,7 +2821,7 @@
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
         <v>47</v>
       </c>
@@ -2842,7 +2840,7 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
         <v>43</v>
       </c>
@@ -2861,7 +2859,7 @@
       </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
@@ -2878,7 +2876,7 @@
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="7" t="s">
         <v>45</v>
       </c>
@@ -2895,7 +2893,7 @@
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
@@ -2912,7 +2910,7 @@
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="7" t="s">
         <v>190</v>
       </c>
@@ -2929,7 +2927,7 @@
       </c>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="7" t="s">
         <v>99</v>
       </c>
@@ -2946,7 +2944,7 @@
       </c>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="7"/>
       <c r="B34" s="29"/>
       <c r="C34" s="26"/>
@@ -2959,7 +2957,7 @@
       <c r="G34" s="7"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="7"/>
       <c r="B35" s="29"/>
       <c r="C35" s="26"/>
@@ -2972,7 +2970,7 @@
       <c r="G35" s="7"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="7"/>
       <c r="B36" s="29"/>
       <c r="C36" s="26"/>
@@ -2987,7 +2985,7 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="7"/>
       <c r="B37" s="29"/>
       <c r="C37" s="26"/>
@@ -3000,7 +2998,7 @@
       <c r="G37" s="7"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="7"/>
       <c r="B38" s="29"/>
       <c r="C38" s="26"/>
@@ -3013,7 +3011,7 @@
       <c r="G38" s="7"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="7"/>
       <c r="B39" s="29"/>
       <c r="C39" s="26"/>
@@ -3026,7 +3024,7 @@
       <c r="G39" s="7"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="6"/>
@@ -3035,11 +3033,11 @@
       <c r="G40" s="7"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15.75" thickBot="1">
       <c r="E41"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
       <c r="A42" s="17" t="s">
         <v>212</v>
       </c>
@@ -3050,7 +3048,7 @@
       <c r="F42" s="39"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="16" t="s">
         <v>35</v>
       </c>
@@ -3073,7 +3071,7 @@
       <c r="H43" s="21"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="7" t="s">
         <v>46</v>
       </c>
@@ -3092,7 +3090,7 @@
       </c>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="7" t="s">
         <v>48</v>
       </c>
@@ -3111,7 +3109,7 @@
       </c>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="7" t="s">
         <v>189</v>
       </c>
@@ -3130,7 +3128,7 @@
       </c>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="7" t="s">
         <v>49</v>
       </c>
@@ -3147,7 +3145,7 @@
       </c>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="7" t="s">
         <v>50</v>
       </c>
@@ -3162,7 +3160,7 @@
       <c r="G48" s="7"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="7" t="s">
         <v>51</v>
       </c>
@@ -3177,7 +3175,7 @@
       <c r="G49" s="7"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="7"/>
       <c r="B50" s="29"/>
       <c r="C50" s="26"/>
@@ -3190,7 +3188,7 @@
       <c r="G50" s="7"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="7"/>
       <c r="B51" s="29"/>
       <c r="C51" s="26"/>
@@ -3203,7 +3201,7 @@
       <c r="G51" s="7"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="7"/>
       <c r="B52" s="29"/>
       <c r="C52" s="26"/>
@@ -3215,7 +3213,7 @@
       </c>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="7"/>
       <c r="B53" s="29"/>
       <c r="C53" s="26"/>
@@ -3227,7 +3225,7 @@
       </c>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="7"/>
       <c r="B54" s="29"/>
       <c r="C54" s="26"/>
@@ -3239,7 +3237,7 @@
       </c>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="7"/>
       <c r="B55" s="29"/>
       <c r="C55" s="26"/>
@@ -3249,7 +3247,7 @@
       </c>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="7"/>
       <c r="B56" s="29"/>
       <c r="C56" s="26"/>
@@ -3259,7 +3257,7 @@
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="6"/>
@@ -3274,14 +3272,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
@@ -3291,7 +3289,7 @@
     <col min="6" max="7" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="21.75" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>210</v>
       </c>
@@ -3300,7 +3298,7 @@
       <c r="D1" s="32"/>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>211</v>
       </c>
@@ -3317,7 +3315,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
@@ -3338,7 +3336,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
@@ -3356,7 +3354,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="7"/>
       <c r="B5" s="29" t="s">
         <v>183</v>
@@ -3372,7 +3370,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="7"/>
       <c r="B6" s="29"/>
       <c r="C6" s="26"/>
@@ -3386,7 +3384,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="7"/>
       <c r="B7" s="29"/>
       <c r="C7" s="26"/>
@@ -3400,7 +3398,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="7"/>
       <c r="B8" s="29"/>
       <c r="C8" s="26"/>
@@ -3414,7 +3412,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="7"/>
       <c r="B9" s="29"/>
       <c r="C9" s="26"/>
@@ -3428,7 +3426,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="7"/>
       <c r="B10" s="29"/>
       <c r="C10" s="26"/>
@@ -3442,7 +3440,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="7"/>
       <c r="B11" s="29"/>
       <c r="C11" s="26"/>
@@ -3456,7 +3454,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="7"/>
       <c r="B12" s="29"/>
       <c r="C12" s="26"/>
@@ -3470,7 +3468,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="7"/>
       <c r="B13" s="29"/>
       <c r="C13" s="26"/>
@@ -3484,7 +3482,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="7"/>
       <c r="B14" s="29"/>
       <c r="C14" s="26"/>
@@ -3498,7 +3496,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="7"/>
       <c r="B15" s="29"/>
       <c r="C15" s="26"/>
@@ -3512,7 +3510,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="7"/>
       <c r="B16" s="29"/>
       <c r="C16" s="26"/>
@@ -3526,7 +3524,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="7"/>
       <c r="B17" s="29"/>
       <c r="C17" s="26"/>
@@ -3538,7 +3536,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="7"/>
       <c r="B18" s="29"/>
       <c r="C18" s="26"/>
@@ -3550,7 +3548,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="7"/>
       <c r="B19" s="29"/>
       <c r="C19" s="26"/>
@@ -3562,7 +3560,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="7"/>
       <c r="B20" s="29"/>
       <c r="C20" s="26"/>
@@ -3574,7 +3572,7 @@
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
@@ -3584,7 +3582,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="6"/>
@@ -3594,7 +3592,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="6"/>
@@ -3602,7 +3600,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
@@ -3610,7 +3608,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="6"/>
@@ -3618,9 +3616,11 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="B26" s="29" t="s">
+        <v>184</v>
+      </c>
       <c r="C26" s="6"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="241">
   <si>
     <t>Bereich</t>
   </si>
@@ -741,13 +741,16 @@
   </si>
   <si>
     <t xml:space="preserve">Christian Brandstötter </t>
+  </si>
+  <si>
+    <t>Pointner Maria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1169,7 +1172,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -1243,6 +1246,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1277,6 +1281,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -1452,14 +1457,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -1470,7 +1475,7 @@
     <col min="7" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21.75" thickBot="1">
+    <row r="1" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>218</v>
       </c>
@@ -1491,7 +1496,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.25" customHeight="1">
+    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -1515,7 +1520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.25" customHeight="1">
+    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>90</v>
       </c>
@@ -1536,7 +1541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.25" customHeight="1">
+    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="24" t="s">
@@ -1553,7 +1558,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.25" customHeight="1">
+    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="42"/>
@@ -1567,7 +1572,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:14" ht="14.25" customHeight="1">
+    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="42" t="s">
@@ -1583,7 +1588,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:14" ht="14.25" customHeight="1">
+    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="42" t="s">
@@ -1601,7 +1606,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.25" customHeight="1">
+    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="24" t="s">
@@ -1618,7 +1623,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
+    <row r="9" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="43" t="s">
@@ -1636,7 +1641,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.25" customHeight="1">
+    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -1658,7 +1663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.25" customHeight="1">
+    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="24"/>
@@ -1672,7 +1677,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:14" ht="14.25" customHeight="1">
+    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="24" t="s">
@@ -1683,7 +1688,7 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:14" ht="14.25" customHeight="1">
+    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="42" t="s">
@@ -1701,7 +1706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
+    <row r="14" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="25" t="s">
@@ -1721,7 +1726,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="14.25" customHeight="1">
+    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>224</v>
       </c>
@@ -1748,7 +1753,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" ht="14.25" customHeight="1">
+    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="42" t="s">
@@ -1769,7 +1774,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" ht="14.25" customHeight="1">
+    <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="42" t="s">
@@ -1790,7 +1795,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" ht="14.25" customHeight="1">
+    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="42" t="s">
@@ -1811,7 +1816,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" ht="14.25" customHeight="1">
+    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="42" t="s">
@@ -1832,7 +1837,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14" ht="14.25" customHeight="1">
+    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="42"/>
@@ -1851,7 +1856,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14" ht="14.25" customHeight="1">
+    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="42"/>
@@ -1870,7 +1875,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14" ht="14.25" customHeight="1">
+    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
         <v>150</v>
@@ -1893,7 +1898,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14" ht="14.25" customHeight="1">
+    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="42" t="s">
@@ -1914,7 +1919,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:14" ht="14.25" customHeight="1">
+    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="42"/>
@@ -1928,7 +1933,7 @@
       </c>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
+    <row r="25" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="25"/>
@@ -1941,7 +1946,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:14" ht="14.25" customHeight="1">
+    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>160</v>
       </c>
@@ -1965,7 +1970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
+    <row r="27" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="25" t="s">
@@ -1982,7 +1987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.25" customHeight="1">
+    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -2004,7 +2009,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="14.25" customHeight="1">
+    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="42"/>
@@ -2018,7 +2023,7 @@
       </c>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="1:14" ht="14.25" customHeight="1">
+    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="42"/>
@@ -2030,7 +2035,7 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="1:14" ht="14.25" customHeight="1">
+    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="42"/>
@@ -2044,7 +2049,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="14.25" customHeight="1">
+    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="42"/>
@@ -2058,7 +2063,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="33" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="25"/>
@@ -2071,7 +2076,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="14.25" customHeight="1">
+    <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -2093,7 +2098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="14.25" customHeight="1">
+    <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="24"/>
@@ -2108,7 +2113,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.25" customHeight="1">
+    <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="24"/>
@@ -2123,7 +2128,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="37" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="43"/>
@@ -2137,7 +2142,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.25" customHeight="1">
+    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -2161,7 +2166,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.25" customHeight="1">
+    <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="42" t="s">
@@ -2179,7 +2184,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.25" customHeight="1">
+    <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="24" t="s">
@@ -2192,7 +2197,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
     </row>
-    <row r="41" spans="1:9" ht="14.25" customHeight="1">
+    <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="D41" s="24" t="s">
@@ -2209,7 +2214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="42" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
       <c r="D42" s="25" t="s">
@@ -2226,7 +2231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.25" customHeight="1">
+    <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>107</v>
       </c>
@@ -2250,7 +2255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="14.25" customHeight="1">
+    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="42"/>
@@ -2262,7 +2267,7 @@
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
     </row>
-    <row r="45" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="45" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
       <c r="D45" s="25"/>
@@ -2277,7 +2282,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="46" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>224</v>
       </c>
@@ -2299,7 +2304,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="47" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -2323,7 +2328,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.25" customHeight="1">
+    <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -2347,7 +2352,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="49" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
       <c r="D49" s="25"/>
@@ -2358,7 +2363,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="50" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -2380,7 +2385,7 @@
       </c>
       <c r="I50" s="14"/>
     </row>
-    <row r="51" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="51" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -2409,14 +2414,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="3" width="37.42578125" customWidth="1"/>
@@ -2425,7 +2430,7 @@
     <col min="6" max="7" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.75" thickBot="1">
+    <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>217</v>
       </c>
@@ -2434,7 +2439,7 @@
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>215</v>
       </c>
@@ -2452,7 +2457,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
@@ -2475,7 +2480,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -2495,7 +2500,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
@@ -2515,7 +2520,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -2535,7 +2540,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -2551,7 +2556,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="29"/>
       <c r="C8" s="26"/>
@@ -2565,7 +2570,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -2574,11 +2579,11 @@
       <c r="G9" s="7"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>214</v>
       </c>
@@ -2589,7 +2594,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>35</v>
       </c>
@@ -2612,7 +2617,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
@@ -2631,7 +2636,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
@@ -2650,7 +2655,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>156</v>
       </c>
@@ -2669,7 +2674,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="29"/>
       <c r="C16" s="26"/>
@@ -2684,7 +2689,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="29"/>
       <c r="C17" s="26"/>
@@ -2699,7 +2704,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="29"/>
       <c r="C18" s="26"/>
@@ -2714,7 +2719,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="29"/>
       <c r="C19" s="26"/>
@@ -2727,7 +2732,7 @@
       <c r="G19" s="7"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="29"/>
       <c r="C20" s="26"/>
@@ -2740,7 +2745,7 @@
       <c r="G20" s="7"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="29"/>
       <c r="C21" s="26"/>
@@ -2753,7 +2758,7 @@
       <c r="G21" s="7"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="29"/>
       <c r="C22" s="26"/>
@@ -2764,11 +2769,11 @@
       <c r="G22" s="7"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
+    <row r="24" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>213</v>
       </c>
@@ -2779,7 +2784,7 @@
       <c r="F24" s="39"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>35</v>
       </c>
@@ -2802,7 +2807,7 @@
       <c r="H25" s="20"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>57</v>
       </c>
@@ -2821,7 +2826,7 @@
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>47</v>
       </c>
@@ -2840,7 +2845,7 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>43</v>
       </c>
@@ -2859,7 +2864,7 @@
       </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
@@ -2876,7 +2881,7 @@
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>45</v>
       </c>
@@ -2893,7 +2898,7 @@
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
@@ -2910,7 +2915,7 @@
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>190</v>
       </c>
@@ -2927,7 +2932,7 @@
       </c>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>99</v>
       </c>
@@ -2944,7 +2949,7 @@
       </c>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="29"/>
       <c r="C34" s="26"/>
@@ -2957,7 +2962,7 @@
       <c r="G34" s="7"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="29"/>
       <c r="C35" s="26"/>
@@ -2970,7 +2975,7 @@
       <c r="G35" s="7"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="29"/>
       <c r="C36" s="26"/>
@@ -2985,7 +2990,7 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="29"/>
       <c r="C37" s="26"/>
@@ -2998,7 +3003,7 @@
       <c r="G37" s="7"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="29"/>
       <c r="C38" s="26"/>
@@ -3011,7 +3016,7 @@
       <c r="G38" s="7"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="29"/>
       <c r="C39" s="26"/>
@@ -3024,7 +3029,7 @@
       <c r="G39" s="7"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="6"/>
@@ -3033,11 +3038,11 @@
       <c r="G40" s="7"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1">
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E41"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
+    <row r="42" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>212</v>
       </c>
@@ -3048,7 +3053,7 @@
       <c r="F42" s="39"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>35</v>
       </c>
@@ -3071,7 +3076,7 @@
       <c r="H43" s="21"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>46</v>
       </c>
@@ -3090,7 +3095,7 @@
       </c>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>48</v>
       </c>
@@ -3109,7 +3114,7 @@
       </c>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>189</v>
       </c>
@@ -3128,7 +3133,7 @@
       </c>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>49</v>
       </c>
@@ -3145,7 +3150,7 @@
       </c>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>50</v>
       </c>
@@ -3160,7 +3165,7 @@
       <c r="G48" s="7"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>51</v>
       </c>
@@ -3175,7 +3180,7 @@
       <c r="G49" s="7"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="29"/>
       <c r="C50" s="26"/>
@@ -3188,7 +3193,7 @@
       <c r="G50" s="7"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="29"/>
       <c r="C51" s="26"/>
@@ -3201,7 +3206,7 @@
       <c r="G51" s="7"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="29"/>
       <c r="C52" s="26"/>
@@ -3213,7 +3218,7 @@
       </c>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="29"/>
       <c r="C53" s="26"/>
@@ -3225,7 +3230,7 @@
       </c>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="29"/>
       <c r="C54" s="26"/>
@@ -3237,7 +3242,7 @@
       </c>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="29"/>
       <c r="C55" s="26"/>
@@ -3247,7 +3252,7 @@
       </c>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="29"/>
       <c r="C56" s="26"/>
@@ -3257,7 +3262,7 @@
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="6"/>
@@ -3272,14 +3277,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
@@ -3289,7 +3294,7 @@
     <col min="6" max="7" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.75" thickBot="1">
+    <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>210</v>
       </c>
@@ -3298,7 +3303,7 @@
       <c r="D1" s="32"/>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>211</v>
       </c>
@@ -3315,7 +3320,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
@@ -3336,7 +3341,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
@@ -3354,7 +3359,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="29" t="s">
         <v>183</v>
@@ -3370,9 +3375,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="29"/>
+      <c r="B6" s="29" t="s">
+        <v>169</v>
+      </c>
       <c r="C6" s="26"/>
       <c r="E6" s="29" t="s">
         <v>76</v>
@@ -3384,9 +3391,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="29"/>
+      <c r="B7" s="29" t="s">
+        <v>155</v>
+      </c>
       <c r="C7" s="26"/>
       <c r="E7" s="29" t="s">
         <v>131</v>
@@ -3398,9 +3407,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="29"/>
+      <c r="B8" s="29" t="s">
+        <v>240</v>
+      </c>
       <c r="C8" s="26"/>
       <c r="E8" s="29" t="s">
         <v>173</v>
@@ -3412,9 +3423,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="29"/>
+      <c r="B9" s="29" t="s">
+        <v>184</v>
+      </c>
       <c r="C9" s="26"/>
       <c r="E9" s="29" t="s">
         <v>204</v>
@@ -3426,7 +3439,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="29"/>
       <c r="C10" s="26"/>
@@ -3440,7 +3453,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="29"/>
       <c r="C11" s="26"/>
@@ -3454,7 +3467,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="29"/>
       <c r="C12" s="26"/>
@@ -3468,7 +3481,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="29"/>
       <c r="C13" s="26"/>
@@ -3482,7 +3495,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="29"/>
       <c r="C14" s="26"/>
@@ -3496,7 +3509,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="29"/>
       <c r="C15" s="26"/>
@@ -3510,7 +3523,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="29"/>
       <c r="C16" s="26"/>
@@ -3524,7 +3537,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="29"/>
       <c r="C17" s="26"/>
@@ -3536,7 +3549,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="29"/>
       <c r="C18" s="26"/>
@@ -3548,7 +3561,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="29"/>
       <c r="C19" s="26"/>
@@ -3560,7 +3573,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="29"/>
       <c r="C20" s="26"/>
@@ -3572,7 +3585,7 @@
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
@@ -3582,7 +3595,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="6"/>
@@ -3592,7 +3605,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="6"/>
@@ -3600,7 +3613,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
@@ -3608,7 +3621,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="6"/>
@@ -3616,11 +3629,9 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="29" t="s">
-        <v>184</v>
-      </c>
+      <c r="B26" s="29"/>
       <c r="C26" s="6"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Abbau!$A$1:$B$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Aufbau!$A$1:$B$57</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Fest!$A$1:$D$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Fest!$A$1:$D$54</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="245">
   <si>
     <t>Bereich</t>
   </si>
@@ -710,18 +710,12 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Schatz Bruno</t>
-  </si>
-  <si>
     <t>Christopher Gagstädter (DJ/Kellner)</t>
   </si>
   <si>
     <t>Michael Rammer (DJ/Kellner)</t>
   </si>
   <si>
-    <t>Julian Raml</t>
-  </si>
-  <si>
     <t>Franz Brückler ab 13:00</t>
   </si>
   <si>
@@ -744,6 +738,24 @@
   </si>
   <si>
     <t>Pointner Maria</t>
+  </si>
+  <si>
+    <t>Schatz Bruno (Gläser)</t>
+  </si>
+  <si>
+    <t>Julian Raml (Gläser)</t>
+  </si>
+  <si>
+    <t>Mike Plöderl</t>
+  </si>
+  <si>
+    <t>Herbert Dalpiaz</t>
+  </si>
+  <si>
+    <t>Eiskaffee-/Sangriabar</t>
+  </si>
+  <si>
+    <t>Marlene Buchner</t>
   </si>
 </sst>
 </file>
@@ -808,7 +820,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1105,11 +1117,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1157,6 +1195,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1458,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,7 +1616,7 @@
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="41"/>
@@ -1592,7 +1632,7 @@
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="41"/>
@@ -1799,7 +1839,7 @@
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="42" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="41"/>
@@ -1840,7 +1880,9 @@
     <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="42"/>
+      <c r="D20" s="42" t="s">
+        <v>55</v>
+      </c>
       <c r="E20" s="26"/>
       <c r="F20" s="41"/>
       <c r="G20" s="26" t="s">
@@ -1881,7 +1923,7 @@
         <v>150</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="41"/>
@@ -1902,7 +1944,7 @@
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="42" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="41"/>
@@ -1988,65 +2030,58 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>106</v>
-      </c>
       <c r="B28" s="2" t="s">
-        <v>6</v>
+        <v>243</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D28" s="23"/>
+        <v>185</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>244</v>
+      </c>
       <c r="F28" s="41"/>
-      <c r="G28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="26"/>
+      <c r="D29" s="24"/>
       <c r="F29" s="41"/>
-      <c r="G29" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="26"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+    </row>
+    <row r="30" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="46"/>
       <c r="F30" s="41"/>
-      <c r="G30" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
     </row>
     <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="26"/>
+      <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="23"/>
       <c r="F31" s="41"/>
-      <c r="G31" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15" t="s">
-        <v>74</v>
+      <c r="G31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2056,354 +2091,396 @@
       <c r="E32" s="26"/>
       <c r="F32" s="41"/>
       <c r="G32" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="25"/>
+        <v>81</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="41"/>
-      <c r="G33" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="G33" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="23"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="41"/>
-      <c r="G34" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>28</v>
+      <c r="G34" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="24"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="41"/>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="25"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="24"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H38" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I38" s="7" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="24"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>161</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="23" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="E39" s="26"/>
+      <c r="D39" s="24"/>
       <c r="F39" s="41"/>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F41" s="41"/>
+      <c r="G41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="H39" s="24" t="s">
+      <c r="H42" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I39" s="24" t="s">
+      <c r="I42" s="24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="24" t="s">
+    <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="6" t="s">
+      <c r="F43" s="41"/>
+      <c r="G43" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-    </row>
-    <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="41"/>
-      <c r="G41" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="H41" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="F42" s="41"/>
-      <c r="G42" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="I42" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F43" s="41"/>
-      <c r="G43" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="26"/>
+      <c r="D44" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="F44" s="41"/>
-      <c r="G44" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
+      <c r="G44" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="25"/>
+      <c r="D45" s="25" t="s">
+        <v>165</v>
+      </c>
       <c r="F45" s="41"/>
       <c r="G45" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="I45" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="F46" s="41"/>
+      <c r="G46" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+    </row>
+    <row r="48" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="25"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="H48" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="I48" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>224</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B49" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="44"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>103</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="F47" s="41"/>
-      <c r="G47" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="8"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="25"/>
+      <c r="D49" s="44" t="s">
+        <v>241</v>
+      </c>
       <c r="F49" s="41"/>
       <c r="G49" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
+        <v>242</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="50" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" s="41"/>
+      <c r="G50" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="9" t="s">
+      <c r="H50" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="41"/>
+      <c r="G51" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="25"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+    </row>
+    <row r="53" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="H50" s="14" t="s">
+      <c r="F53" s="41"/>
+      <c r="G53" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I50" s="14"/>
-    </row>
-    <row r="51" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="H53" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I53" s="14"/>
+    </row>
+    <row r="54" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B54" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="F51" s="41"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="14" t="s">
+      <c r="D54" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="F54" s="41"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="I51" s="14" t="s">
+      <c r="I54" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2417,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2622,7 +2699,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C13" s="26"/>
       <c r="E13" s="29" t="s">
@@ -2641,7 +2718,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C14" s="26"/>
       <c r="E14" s="29" t="s">
@@ -2868,7 +2945,9 @@
       <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="29"/>
+      <c r="B29" s="29" t="s">
+        <v>133</v>
+      </c>
       <c r="C29" s="26"/>
       <c r="E29" s="29" t="s">
         <v>172</v>
@@ -3081,7 +3160,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C44" s="26"/>
       <c r="E44" s="29" t="s">
@@ -3137,7 +3216,9 @@
       <c r="A47" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="29"/>
+      <c r="B47" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="C47" s="26"/>
       <c r="E47" s="29" t="s">
         <v>129</v>
@@ -3154,7 +3235,9 @@
       <c r="A48" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="29"/>
+      <c r="B48" s="29" t="s">
+        <v>126</v>
+      </c>
       <c r="C48" s="26"/>
       <c r="E48" s="29" t="s">
         <v>30</v>
@@ -3280,7 +3363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -3346,7 +3429,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C4" s="26"/>
       <c r="E4" s="29" t="s">
@@ -3410,7 +3493,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C8" s="26"/>
       <c r="E8" s="29" t="s">

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="246">
   <si>
     <t>Bereich</t>
   </si>
@@ -756,6 +756,9 @@
   </si>
   <si>
     <t>Marlene Buchner</t>
+  </si>
+  <si>
+    <t>Fritz Zeitlhofer (Hoftrack, ab 14:00 Uhr)</t>
   </si>
 </sst>
 </file>
@@ -1500,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,7 +1904,9 @@
     <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="42"/>
+      <c r="D21" s="42" t="s">
+        <v>170</v>
+      </c>
       <c r="E21" s="26"/>
       <c r="F21" s="41"/>
       <c r="G21" s="26" t="s">
@@ -2494,8 +2499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2964,7 +2969,9 @@
       <c r="A30" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="29"/>
+      <c r="B30" s="29" t="s">
+        <v>245</v>
+      </c>
       <c r="C30" s="26"/>
       <c r="E30" s="29" t="s">
         <v>183</v>
@@ -3252,7 +3259,9 @@
       <c r="A49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="29"/>
+      <c r="B49" s="29" t="s">
+        <v>108</v>
+      </c>
       <c r="C49" s="26"/>
       <c r="E49" s="29" t="s">
         <v>195</v>
@@ -3265,7 +3274,9 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
-      <c r="B50" s="29"/>
+      <c r="B50" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="C50" s="26"/>
       <c r="E50" s="29" t="s">
         <v>55</v>
@@ -3364,7 +3375,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="247">
   <si>
     <t>Bereich</t>
   </si>
@@ -759,6 +759,9 @@
   </si>
   <si>
     <t>Fritz Zeitlhofer (Hoftrack, ab 14:00 Uhr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -1503,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,7 +2055,9 @@
     <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="24"/>
+      <c r="D29" s="24" t="s">
+        <v>201</v>
+      </c>
       <c r="F29" s="41"/>
       <c r="G29" s="6"/>
       <c r="H29" s="31"/>
@@ -2105,7 +2110,9 @@
     </row>
     <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>246</v>
+      </c>
       <c r="D33" s="42"/>
       <c r="E33" s="26"/>
       <c r="F33" s="41"/>
@@ -2338,7 +2345,9 @@
     <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="42"/>
+      <c r="D47" s="42" t="s">
+        <v>24</v>
+      </c>
       <c r="E47" s="26"/>
       <c r="F47" s="41"/>
       <c r="G47" s="26" t="s">
@@ -2350,7 +2359,9 @@
     <row r="48" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="25"/>
+      <c r="D48" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="F48" s="41"/>
       <c r="G48" s="9" t="s">
         <v>63</v>
@@ -2499,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3289,7 +3300,9 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
-      <c r="B51" s="29"/>
+      <c r="B51" s="29" t="s">
+        <v>143</v>
+      </c>
       <c r="C51" s="26"/>
       <c r="E51" s="29" t="s">
         <v>143</v>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="247">
   <si>
     <t>Bereich</t>
   </si>
@@ -1506,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2173,7 +2173,9 @@
       <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="23"/>
+      <c r="D37" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="F37" s="41"/>
       <c r="G37" s="3" t="s">
         <v>83</v>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="249">
   <si>
     <t>Bereich</t>
   </si>
@@ -762,6 +762,12 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Manuel Brandstötter</t>
+  </si>
+  <si>
+    <t>Manuel Brandstötter (ab 14:00)</t>
   </si>
 </sst>
 </file>
@@ -1506,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,7 +1559,7 @@
         <v>223</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="3" t="s">
@@ -1574,7 +1580,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="F3" s="41"/>
       <c r="G3" s="6" t="s">
@@ -1607,7 +1613,9 @@
     <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="42"/>
+      <c r="D5" s="42" t="s">
+        <v>247</v>
+      </c>
       <c r="E5" s="26"/>
       <c r="F5" s="41"/>
       <c r="G5" s="26" t="s">
@@ -2512,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3001,7 +3009,9 @@
       <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="29"/>
+      <c r="B31" s="29" t="s">
+        <v>195</v>
+      </c>
       <c r="C31" s="26"/>
       <c r="E31" s="29" t="s">
         <v>203</v>
@@ -3317,7 +3327,9 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
-      <c r="B52" s="29"/>
+      <c r="B52" s="29" t="s">
+        <v>248</v>
+      </c>
       <c r="C52" s="26"/>
       <c r="E52" s="29" t="s">
         <v>108</v>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="250">
   <si>
     <t>Bereich</t>
   </si>
@@ -768,6 +768,9 @@
   </si>
   <si>
     <t>Manuel Brandstötter (ab 14:00)</t>
+  </si>
+  <si>
+    <t>Lukas Scherer</t>
   </si>
 </sst>
 </file>
@@ -1512,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,7 +1723,9 @@
     <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="24"/>
+      <c r="D11" s="24" t="s">
+        <v>249</v>
+      </c>
       <c r="E11" s="6" t="s">
         <v>228</v>
       </c>
@@ -2090,7 +2095,9 @@
       <c r="C31" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D31" s="23"/>
+      <c r="D31" s="23" t="s">
+        <v>82</v>
+      </c>
       <c r="F31" s="41"/>
       <c r="G31" s="3" t="s">
         <v>82</v>
@@ -2520,8 +2527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="251">
   <si>
     <t>Bereich</t>
   </si>
@@ -771,6 +771,9 @@
   </si>
   <si>
     <t>Lukas Scherer</t>
+  </si>
+  <si>
+    <t>Stefan Niedersüss (ab 18:00)</t>
   </si>
 </sst>
 </file>
@@ -1515,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,7 +1988,9 @@
     <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="42"/>
+      <c r="D24" s="42" t="s">
+        <v>175</v>
+      </c>
       <c r="E24" s="26"/>
       <c r="F24" s="41"/>
       <c r="G24" s="26" t="s">
@@ -2527,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2786,7 +2791,9 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="29"/>
+      <c r="B16" s="29" t="s">
+        <v>250</v>
+      </c>
       <c r="C16" s="26"/>
       <c r="E16" s="29" t="s">
         <v>170</v>
@@ -3035,7 +3042,9 @@
       <c r="A32" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B32" s="29"/>
+      <c r="B32" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="C32" s="26"/>
       <c r="E32" s="29" t="s">
         <v>192</v>
@@ -3348,7 +3357,9 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
-      <c r="B53" s="29"/>
+      <c r="B53" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="C53" s="26"/>
       <c r="E53" s="29" t="s">
         <v>22</v>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Abbau!$A$1:$B$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Aufbau!$A$1:$B$57</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Fest!$A$1:$D$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Fest!$A$1:$D$55</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="255">
   <si>
     <t>Bereich</t>
   </si>
@@ -774,6 +774,18 @@
   </si>
   <si>
     <t>Stefan Niedersüss (ab 18:00)</t>
+  </si>
+  <si>
+    <t>Alexander Luger</t>
+  </si>
+  <si>
+    <t>Stefan Niedersüss</t>
+  </si>
+  <si>
+    <t>Anna Niedersüss</t>
+  </si>
+  <si>
+    <t>Michael Kolberger (Gläser)</t>
   </si>
 </sst>
 </file>
@@ -838,7 +850,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1161,11 +1173,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1215,6 +1240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1516,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,160 +2027,158 @@
       </c>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="25"/>
+    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="26"/>
       <c r="F25" s="41"/>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="26"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F26" s="41"/>
+      <c r="G26" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H26" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>160</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D27" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="3" t="s">
+      <c r="F27" s="41"/>
+      <c r="G27" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="25" t="s">
+    <row r="28" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="9" t="s">
+      <c r="F28" s="41"/>
+      <c r="G28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I28" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D29" s="45" t="s">
         <v>244</v>
-      </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="24" t="s">
-        <v>201</v>
       </c>
       <c r="F29" s="41"/>
       <c r="G29" s="6"/>
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
     </row>
-    <row r="30" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="46"/>
+    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="24"/>
       <c r="F30" s="41"/>
       <c r="G30" s="6"/>
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
     </row>
-    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="46"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+    </row>
+    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D32" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="3" t="s">
+      <c r="F32" s="41"/>
+      <c r="G32" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="I32" s="15"/>
     </row>
     <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
-      <c r="C33" s="6" t="s">
-        <v>246</v>
-      </c>
+      <c r="C33" s="6"/>
       <c r="D33" s="42"/>
       <c r="E33" s="26"/>
       <c r="F33" s="41"/>
       <c r="G33" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="H33" s="15"/>
+        <v>81</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>153</v>
+      </c>
       <c r="I33" s="15"/>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
+      <c r="C34" s="6" t="s">
+        <v>246</v>
+      </c>
       <c r="D34" s="42"/>
       <c r="E34" s="26"/>
       <c r="F34" s="41"/>
       <c r="G34" s="26" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H34" s="15"/>
-      <c r="I34" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="I34" s="15"/>
     </row>
     <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
@@ -2163,63 +2187,62 @@
       <c r="E35" s="26"/>
       <c r="F35" s="41"/>
       <c r="G35" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7" t="s">
+      <c r="H36" s="7"/>
+      <c r="I36" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="25"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="9" t="s">
+    <row r="37" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="25"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10" t="s">
+      <c r="H37" s="10"/>
+      <c r="I37" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D38" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="3" t="s">
+      <c r="F38" s="41"/>
+      <c r="G38" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I38" s="4" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="24"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2228,297 +2251,312 @@
       <c r="D39" s="24"/>
       <c r="F39" s="41"/>
       <c r="G39" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="24"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="26" t="s">
+    <row r="41" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22" t="s">
+      <c r="H41" s="22"/>
+      <c r="I41" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D42" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F41" s="41"/>
-      <c r="G41" s="3" t="s">
+      <c r="F42" s="41"/>
+      <c r="G42" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="H42" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="23" t="s">
+      <c r="I42" s="23" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="H42" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I42" s="24" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="E43" s="26"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="H43" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="41"/>
-      <c r="G43" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
+      <c r="I43" s="24" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F44" s="41"/>
       <c r="G44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+    </row>
+    <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="41"/>
+      <c r="G45" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H44" s="24" t="s">
+      <c r="H45" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I45" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="25" t="s">
+    <row r="46" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="F45" s="41"/>
-      <c r="G45" s="9" t="s">
+      <c r="F46" s="41"/>
+      <c r="G46" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="H45" s="25" t="s">
+      <c r="H46" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="I45" s="25" t="s">
+      <c r="I46" s="25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D47" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F46" s="41"/>
-      <c r="G46" s="3" t="s">
+      <c r="F47" s="41"/>
+      <c r="G47" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="42" t="s">
+    <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="26"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="26" t="s">
+      <c r="E48" s="26"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-    </row>
-    <row r="48" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="8"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="25" t="s">
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+    </row>
+    <row r="49" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="25" t="s">
         <v>25</v>
-      </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>224</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="44" t="s">
-        <v>241</v>
       </c>
       <c r="F49" s="41"/>
       <c r="G49" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="I49" s="14" t="s">
-        <v>242</v>
+        <v>63</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>224</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="F50" s="41"/>
+      <c r="G50" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="12" t="s">
+      <c r="F51" s="41"/>
+      <c r="G51" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H51" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I50" s="13" t="s">
+      <c r="I51" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D52" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F51" s="41"/>
-      <c r="G51" s="6" t="s">
+      <c r="F52" s="41"/>
+      <c r="G52" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I52" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="8"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="25"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-    </row>
     <row r="53" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="44" t="s">
-        <v>92</v>
-      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="25"/>
       <c r="F53" s="41"/>
       <c r="G53" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I53" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
     </row>
     <row r="54" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="41"/>
+      <c r="G54" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I54" s="14"/>
+    </row>
+    <row r="55" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="F54" s="41"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="14" t="s">
+      <c r="F55" s="41"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="I54" s="14" t="s">
+      <c r="I55" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2532,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,7 +2846,9 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="29"/>
+      <c r="B17" s="29" t="s">
+        <v>251</v>
+      </c>
       <c r="C17" s="26"/>
       <c r="E17" s="29" t="s">
         <v>16</v>
@@ -3043,7 +3083,7 @@
         <v>190</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="C32" s="26"/>
       <c r="E32" s="29" t="s">
@@ -3061,7 +3101,9 @@
       <c r="A33" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="29"/>
+      <c r="B33" s="29" t="s">
+        <v>179</v>
+      </c>
       <c r="C33" s="26"/>
       <c r="E33" s="29" t="s">
         <v>193</v>
@@ -3371,7 +3413,9 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
-      <c r="B54" s="29"/>
+      <c r="B54" s="29" t="s">
+        <v>251</v>
+      </c>
       <c r="C54" s="26"/>
       <c r="E54" s="29" t="s">
         <v>126</v>
@@ -3383,7 +3427,9 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
-      <c r="B55" s="29"/>
+      <c r="B55" s="29" t="s">
+        <v>252</v>
+      </c>
       <c r="C55" s="26"/>
       <c r="E55" s="29"/>
       <c r="F55" s="7" t="s">
@@ -3420,7 +3466,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="255">
   <si>
     <t>Bereich</t>
   </si>
@@ -1544,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2570,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,7 +2755,7 @@
         <v>114</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="30" t="s">
@@ -2863,7 +2863,9 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="29"/>
+      <c r="B18" s="29" t="s">
+        <v>159</v>
+      </c>
       <c r="C18" s="26"/>
       <c r="E18" s="29" t="s">
         <v>159</v>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="255">
   <si>
     <t>Bereich</t>
   </si>
@@ -1544,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2248,7 +2248,9 @@
     <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="24"/>
+      <c r="D39" s="24" t="s">
+        <v>199</v>
+      </c>
       <c r="F39" s="41"/>
       <c r="G39" s="6" t="s">
         <v>84</v>
@@ -2570,7 +2572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Aufbau!$A$1:$B$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Fest!$A$1:$D$55</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="256">
   <si>
     <t>Bereich</t>
   </si>
@@ -786,13 +786,16 @@
   </si>
   <si>
     <t>Michael Kolberger (Gläser)</t>
+  </si>
+  <si>
+    <t>Luger Michael</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1256,7 +1259,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -1330,7 +1333,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1365,7 +1367,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -1541,14 +1542,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E38" sqref="E38:E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -1559,7 +1560,7 @@
     <col min="7" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="21.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>218</v>
       </c>
@@ -1580,7 +1581,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" customHeight="1">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -1604,7 +1605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>90</v>
       </c>
@@ -1625,7 +1626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" customHeight="1">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="24" t="s">
@@ -1642,7 +1643,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14.25" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="42" t="s">
@@ -1658,7 +1659,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="14.25" customHeight="1">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="42" t="s">
@@ -1674,7 +1675,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="14.25" customHeight="1">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="42" t="s">
@@ -1692,7 +1693,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="14.25" customHeight="1">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="24" t="s">
@@ -1709,7 +1710,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="43" t="s">
@@ -1727,7 +1728,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="14.25" customHeight="1">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -1749,7 +1750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="14.25" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="24" t="s">
@@ -1765,7 +1766,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="14.25" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="24" t="s">
@@ -1776,7 +1777,7 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="14.25" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="42" t="s">
@@ -1794,7 +1795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="25" t="s">
@@ -1814,7 +1815,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="14.25" customHeight="1">
       <c r="A15" t="s">
         <v>224</v>
       </c>
@@ -1841,7 +1842,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="14.25" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="42" t="s">
@@ -1862,7 +1863,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="42" t="s">
@@ -1883,7 +1884,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="14.25" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="42" t="s">
@@ -1904,7 +1905,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="14.25" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="42" t="s">
@@ -1925,7 +1926,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="14.25" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="42" t="s">
@@ -1946,7 +1947,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="14.25" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="42" t="s">
@@ -1967,7 +1968,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="14.25" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
         <v>150</v>
@@ -1990,7 +1991,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="14.25" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="42" t="s">
@@ -2011,7 +2012,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="14.25" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="42" t="s">
@@ -2027,7 +2028,7 @@
       </c>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="14.25" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="47" t="s">
@@ -2039,7 +2040,7 @@
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
     </row>
-    <row r="26" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="25" t="s">
@@ -2054,7 +2055,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="14.25" customHeight="1">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="25" t="s">
@@ -2095,7 +2096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="14.25" customHeight="1">
       <c r="B29" s="2" t="s">
         <v>243</v>
       </c>
@@ -2110,7 +2111,7 @@
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
     </row>
-    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="14.25" customHeight="1">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="24"/>
@@ -2119,7 +2120,7 @@
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
     </row>
-    <row r="31" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="46"/>
@@ -2128,7 +2129,7 @@
       <c r="H31" s="31"/>
       <c r="I31" s="31"/>
     </row>
-    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="14.25" customHeight="1">
       <c r="A32" t="s">
         <v>106</v>
       </c>
@@ -2152,7 +2153,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="14.25" customHeight="1">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="42"/>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="14.25" customHeight="1">
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
         <v>246</v>
@@ -2180,7 +2181,7 @@
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="14.25" customHeight="1">
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="42"/>
@@ -2194,7 +2195,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="14.25" customHeight="1">
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="42"/>
@@ -2208,7 +2209,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="25"/>
@@ -2221,7 +2222,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="14.25" customHeight="1">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -2245,7 +2246,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="14.25" customHeight="1">
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="24" t="s">
@@ -2262,7 +2263,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="14.25" customHeight="1">
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="24"/>
@@ -2277,7 +2278,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
       <c r="D41" s="43"/>
@@ -2291,7 +2292,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="14.25" customHeight="1">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -2315,7 +2316,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="14.25" customHeight="1">
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="42" t="s">
@@ -2333,7 +2334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="14.25" customHeight="1">
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="24" t="s">
@@ -2346,7 +2347,7 @@
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
     </row>
-    <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="14.25" customHeight="1">
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="24" t="s">
@@ -2363,7 +2364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
       <c r="D46" s="25" t="s">
@@ -2380,7 +2381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="14.25" customHeight="1">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="14.25" customHeight="1">
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="42" t="s">
@@ -2418,7 +2419,7 @@
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
     </row>
-    <row r="49" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
       <c r="D49" s="25" t="s">
@@ -2435,7 +2436,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="A50" t="s">
         <v>224</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -2483,7 +2484,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="14.25" customHeight="1">
       <c r="A52" t="s">
         <v>104</v>
       </c>
@@ -2507,7 +2508,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
       <c r="D53" s="25"/>
@@ -2518,7 +2519,7 @@
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="A54" t="s">
         <v>111</v>
       </c>
@@ -2540,7 +2541,7 @@
       </c>
       <c r="I54" s="14"/>
     </row>
-    <row r="55" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -2569,14 +2570,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="3" width="37.42578125" customWidth="1"/>
@@ -2585,7 +2586,7 @@
     <col min="6" max="7" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="21.75" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>217</v>
       </c>
@@ -2594,7 +2595,7 @@
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>215</v>
       </c>
@@ -2612,7 +2613,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
@@ -2635,7 +2636,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -2655,7 +2656,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
@@ -2675,7 +2676,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -2695,7 +2696,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -2711,7 +2712,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="7"/>
       <c r="B8" s="29"/>
       <c r="C8" s="26"/>
@@ -2725,7 +2726,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -2734,11 +2735,11 @@
       <c r="G9" s="7"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1">
       <c r="E10"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
       <c r="A11" s="17" t="s">
         <v>214</v>
       </c>
@@ -2749,7 +2750,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="16" t="s">
         <v>35</v>
       </c>
@@ -2772,7 +2773,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
@@ -2791,7 +2792,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
@@ -2810,7 +2811,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
         <v>156</v>
       </c>
@@ -2829,7 +2830,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="7"/>
       <c r="B16" s="29" t="s">
         <v>250</v>
@@ -2846,7 +2847,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="7"/>
       <c r="B17" s="29" t="s">
         <v>251</v>
@@ -2863,7 +2864,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="7"/>
       <c r="B18" s="29" t="s">
         <v>159</v>
@@ -2880,7 +2881,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="7"/>
       <c r="B19" s="29"/>
       <c r="C19" s="26"/>
@@ -2893,7 +2894,7 @@
       <c r="G19" s="7"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="7"/>
       <c r="B20" s="29"/>
       <c r="C20" s="26"/>
@@ -2906,7 +2907,7 @@
       <c r="G20" s="7"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7"/>
       <c r="B21" s="29"/>
       <c r="C21" s="26"/>
@@ -2919,7 +2920,7 @@
       <c r="G21" s="7"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="7"/>
       <c r="B22" s="29"/>
       <c r="C22" s="26"/>
@@ -2930,11 +2931,11 @@
       <c r="G22" s="7"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1">
       <c r="E23"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
       <c r="A24" s="17" t="s">
         <v>213</v>
       </c>
@@ -2945,7 +2946,7 @@
       <c r="F24" s="39"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="16" t="s">
         <v>35</v>
       </c>
@@ -2968,7 +2969,7 @@
       <c r="H25" s="20"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="7" t="s">
         <v>57</v>
       </c>
@@ -2987,7 +2988,7 @@
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
         <v>47</v>
       </c>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
         <v>43</v>
       </c>
@@ -3025,7 +3026,7 @@
       </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
@@ -3044,7 +3045,7 @@
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="7" t="s">
         <v>45</v>
       </c>
@@ -3063,7 +3064,7 @@
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
@@ -3082,7 +3083,7 @@
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="7" t="s">
         <v>190</v>
       </c>
@@ -3101,7 +3102,7 @@
       </c>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="7" t="s">
         <v>99</v>
       </c>
@@ -3120,7 +3121,7 @@
       </c>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="7"/>
       <c r="B34" s="29"/>
       <c r="C34" s="26"/>
@@ -3133,7 +3134,7 @@
       <c r="G34" s="7"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="7"/>
       <c r="B35" s="29"/>
       <c r="C35" s="26"/>
@@ -3146,7 +3147,7 @@
       <c r="G35" s="7"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="7"/>
       <c r="B36" s="29"/>
       <c r="C36" s="26"/>
@@ -3161,7 +3162,7 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="7"/>
       <c r="B37" s="29"/>
       <c r="C37" s="26"/>
@@ -3174,7 +3175,7 @@
       <c r="G37" s="7"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="7"/>
       <c r="B38" s="29"/>
       <c r="C38" s="26"/>
@@ -3187,7 +3188,7 @@
       <c r="G38" s="7"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="7"/>
       <c r="B39" s="29"/>
       <c r="C39" s="26"/>
@@ -3200,7 +3201,7 @@
       <c r="G39" s="7"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="6"/>
@@ -3209,11 +3210,11 @@
       <c r="G40" s="7"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15.75" thickBot="1">
       <c r="E41"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
       <c r="A42" s="17" t="s">
         <v>212</v>
       </c>
@@ -3224,7 +3225,7 @@
       <c r="F42" s="39"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="16" t="s">
         <v>35</v>
       </c>
@@ -3247,7 +3248,7 @@
       <c r="H43" s="21"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="7" t="s">
         <v>46</v>
       </c>
@@ -3266,7 +3267,7 @@
       </c>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="7" t="s">
         <v>48</v>
       </c>
@@ -3285,7 +3286,7 @@
       </c>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="7" t="s">
         <v>189</v>
       </c>
@@ -3304,7 +3305,7 @@
       </c>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="7" t="s">
         <v>49</v>
       </c>
@@ -3323,7 +3324,7 @@
       </c>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="7" t="s">
         <v>50</v>
       </c>
@@ -3340,7 +3341,7 @@
       <c r="G48" s="7"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="7" t="s">
         <v>51</v>
       </c>
@@ -3357,7 +3358,7 @@
       <c r="G49" s="7"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="7"/>
       <c r="B50" s="29" t="s">
         <v>22</v>
@@ -3372,7 +3373,7 @@
       <c r="G50" s="7"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="7"/>
       <c r="B51" s="29" t="s">
         <v>143</v>
@@ -3387,7 +3388,7 @@
       <c r="G51" s="7"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="7"/>
       <c r="B52" s="29" t="s">
         <v>248</v>
@@ -3401,7 +3402,7 @@
       </c>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="7"/>
       <c r="B53" s="29" t="s">
         <v>76</v>
@@ -3415,7 +3416,7 @@
       </c>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="7"/>
       <c r="B54" s="29" t="s">
         <v>251</v>
@@ -3429,7 +3430,7 @@
       </c>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="7"/>
       <c r="B55" s="29" t="s">
         <v>252</v>
@@ -3441,7 +3442,7 @@
       </c>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="7"/>
       <c r="B56" s="29"/>
       <c r="C56" s="26"/>
@@ -3451,7 +3452,7 @@
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="6"/>
@@ -3466,14 +3467,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
@@ -3483,7 +3484,7 @@
     <col min="6" max="7" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="21.75" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>210</v>
       </c>
@@ -3492,7 +3493,7 @@
       <c r="D1" s="32"/>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>211</v>
       </c>
@@ -3509,7 +3510,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
@@ -3530,7 +3531,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
@@ -3548,7 +3549,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="7"/>
       <c r="B5" s="29" t="s">
         <v>183</v>
@@ -3564,7 +3565,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="7"/>
       <c r="B6" s="29" t="s">
         <v>169</v>
@@ -3580,7 +3581,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="7"/>
       <c r="B7" s="29" t="s">
         <v>155</v>
@@ -3596,7 +3597,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="7"/>
       <c r="B8" s="29" t="s">
         <v>238</v>
@@ -3612,7 +3613,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="7"/>
       <c r="B9" s="29" t="s">
         <v>184</v>
@@ -3628,9 +3629,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="7"/>
-      <c r="B10" s="29"/>
+      <c r="B10" s="29" t="s">
+        <v>178</v>
+      </c>
       <c r="C10" s="26"/>
       <c r="E10" s="29" t="s">
         <v>136</v>
@@ -3642,9 +3645,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="7"/>
-      <c r="B11" s="29"/>
+      <c r="B11" s="29" t="s">
+        <v>255</v>
+      </c>
       <c r="C11" s="26"/>
       <c r="E11" s="29" t="s">
         <v>137</v>
@@ -3656,7 +3661,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="7"/>
       <c r="B12" s="29"/>
       <c r="C12" s="26"/>
@@ -3670,7 +3675,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="7"/>
       <c r="B13" s="29"/>
       <c r="C13" s="26"/>
@@ -3684,7 +3689,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="7"/>
       <c r="B14" s="29"/>
       <c r="C14" s="26"/>
@@ -3698,7 +3703,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="7"/>
       <c r="B15" s="29"/>
       <c r="C15" s="26"/>
@@ -3712,7 +3717,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="7"/>
       <c r="B16" s="29"/>
       <c r="C16" s="26"/>
@@ -3726,7 +3731,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="7"/>
       <c r="B17" s="29"/>
       <c r="C17" s="26"/>
@@ -3738,7 +3743,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="7"/>
       <c r="B18" s="29"/>
       <c r="C18" s="26"/>
@@ -3750,7 +3755,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="7"/>
       <c r="B19" s="29"/>
       <c r="C19" s="26"/>
@@ -3762,7 +3767,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="7"/>
       <c r="B20" s="29"/>
       <c r="C20" s="26"/>
@@ -3774,7 +3779,7 @@
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
@@ -3784,7 +3789,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="6"/>
@@ -3794,7 +3799,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="6"/>
@@ -3802,7 +3807,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
@@ -3810,7 +3815,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="6"/>
@@ -3818,7 +3823,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="7"/>
       <c r="B26" s="29"/>
       <c r="C26" s="6"/>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -845,12 +845,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="27">
@@ -1193,7 +1199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1244,6 +1250,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1546,7 +1554,7 @@
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:E41"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2573,8 +2581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C57" sqref="C42:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3471,7 +3479,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3521,7 +3529,7 @@
         <v>227</v>
       </c>
       <c r="D3" s="34"/>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="48" t="s">
         <v>163</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -3555,7 +3563,7 @@
         <v>183</v>
       </c>
       <c r="C5" s="26"/>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="49" t="s">
         <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -3603,7 +3611,7 @@
         <v>238</v>
       </c>
       <c r="C8" s="26"/>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="49" t="s">
         <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -3651,7 +3659,7 @@
         <v>255</v>
       </c>
       <c r="C11" s="26"/>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="49" t="s">
         <v>137</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -3665,7 +3673,7 @@
       <c r="A12" s="7"/>
       <c r="B12" s="29"/>
       <c r="C12" s="26"/>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="49" t="s">
         <v>178</v>
       </c>
       <c r="F12" s="7" t="s">
@@ -3735,7 +3743,7 @@
       <c r="A17" s="7"/>
       <c r="B17" s="29"/>
       <c r="C17" s="26"/>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="49" t="s">
         <v>184</v>
       </c>
       <c r="F17" s="7" t="s">

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Aufbau!$A$1:$B$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Fest!$A$1:$D$55</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="257">
   <si>
     <t>Bereich</t>
   </si>
@@ -789,6 +789,9 @@
   </si>
   <si>
     <t>Luger Michael</t>
+  </si>
+  <si>
+    <t>Schatz Bruno</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
@@ -2581,8 +2584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C57" sqref="C42:C57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2891,7 +2894,9 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="7"/>
-      <c r="B19" s="29"/>
+      <c r="B19" s="29" t="s">
+        <v>256</v>
+      </c>
       <c r="C19" s="26"/>
       <c r="E19" s="29" t="s">
         <v>17</v>
@@ -3478,7 +3483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
     <sheet name="Aufbau" sheetId="2" r:id="rId2"/>
     <sheet name="Abbau" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Abbau!$A$1:$B$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Aufbau!$A$1:$B$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Fest!$A$1:$D$55</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="257">
   <si>
     <t>Bereich</t>
   </si>
@@ -755,9 +756,6 @@
     <t>Eiskaffee-/Sangriabar</t>
   </si>
   <si>
-    <t>Marlene Buchner</t>
-  </si>
-  <si>
     <t>Fritz Zeitlhofer (Hoftrack, ab 14:00 Uhr)</t>
   </si>
   <si>
@@ -792,13 +790,16 @@
   </si>
   <si>
     <t>Schatz Bruno</t>
+  </si>
+  <si>
+    <t>Harald Höflinger (Raika) --&gt; Anhänger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1270,7 +1271,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -1344,6 +1345,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1378,6 +1380,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -1553,14 +1556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -1571,7 +1574,7 @@
     <col min="7" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21.75" thickBot="1">
+    <row r="1" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>218</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.25" customHeight="1">
+    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -1616,7 +1619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.25" customHeight="1">
+    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>90</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.25" customHeight="1">
+    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="24" t="s">
@@ -1654,11 +1657,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.25" customHeight="1">
+    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="41"/>
@@ -1670,7 +1673,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:14" ht="14.25" customHeight="1">
+    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="42" t="s">
@@ -1686,7 +1689,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:14" ht="14.25" customHeight="1">
+    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="42" t="s">
@@ -1704,7 +1707,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.25" customHeight="1">
+    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="24" t="s">
@@ -1721,7 +1724,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
+    <row r="9" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="43" t="s">
@@ -1739,7 +1742,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.25" customHeight="1">
+    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -1749,7 +1752,9 @@
       <c r="C10" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="23" t="s">
+        <v>159</v>
+      </c>
       <c r="F10" s="41"/>
       <c r="G10" s="3" t="s">
         <v>158</v>
@@ -1761,11 +1766,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.25" customHeight="1">
+    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>228</v>
@@ -1777,7 +1782,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:14" ht="14.25" customHeight="1">
+    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="24" t="s">
@@ -1788,7 +1793,7 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:14" ht="14.25" customHeight="1">
+    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="42" t="s">
@@ -1806,7 +1811,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
+    <row r="14" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="25" t="s">
@@ -1826,7 +1831,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="14.25" customHeight="1">
+    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>224</v>
       </c>
@@ -1853,7 +1858,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" ht="14.25" customHeight="1">
+    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="42" t="s">
@@ -1874,7 +1879,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" ht="14.25" customHeight="1">
+    <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="42" t="s">
@@ -1895,7 +1900,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" ht="14.25" customHeight="1">
+    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="42" t="s">
@@ -1916,7 +1921,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" ht="14.25" customHeight="1">
+    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="42" t="s">
@@ -1937,7 +1942,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14" ht="14.25" customHeight="1">
+    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="42" t="s">
@@ -1958,7 +1963,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14" ht="14.25" customHeight="1">
+    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="42" t="s">
@@ -1979,7 +1984,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14" ht="14.25" customHeight="1">
+    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
         <v>150</v>
@@ -2002,7 +2007,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14" ht="14.25" customHeight="1">
+    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="42" t="s">
@@ -2023,7 +2028,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:14" ht="14.25" customHeight="1">
+    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="42" t="s">
@@ -2039,7 +2044,7 @@
       </c>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="1:14" ht="14.25" customHeight="1">
+    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="47" t="s">
@@ -2051,11 +2056,11 @@
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
     </row>
-    <row r="26" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
+    <row r="26" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="9" t="s">
@@ -2066,7 +2071,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:14" ht="14.25" customHeight="1">
+    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -2090,7 +2095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
+    <row r="28" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="25" t="s">
@@ -2107,7 +2112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="14.25" customHeight="1">
+    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>243</v>
       </c>
@@ -2115,32 +2120,36 @@
         <v>185</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="F29" s="41"/>
       <c r="G29" s="6"/>
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
     </row>
-    <row r="30" spans="1:14" ht="14.25" customHeight="1">
+    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="24"/>
+      <c r="D30" s="24" t="s">
+        <v>142</v>
+      </c>
       <c r="F30" s="41"/>
       <c r="G30" s="6"/>
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
     </row>
-    <row r="31" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
+    <row r="31" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="46"/>
+      <c r="D31" s="46" t="s">
+        <v>188</v>
+      </c>
       <c r="F31" s="41"/>
       <c r="G31" s="6"/>
       <c r="H31" s="31"/>
       <c r="I31" s="31"/>
     </row>
-    <row r="32" spans="1:14" ht="14.25" customHeight="1">
+    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>106</v>
       </c>
@@ -2164,10 +2173,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.25" customHeight="1">
+    <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="42"/>
+      <c r="D33" s="42" t="s">
+        <v>81</v>
+      </c>
       <c r="E33" s="26"/>
       <c r="F33" s="41"/>
       <c r="G33" s="26" t="s">
@@ -2178,12 +2189,14 @@
       </c>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25" customHeight="1">
+    <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D34" s="42"/>
+        <v>245</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>54</v>
+      </c>
       <c r="E34" s="26"/>
       <c r="F34" s="41"/>
       <c r="G34" s="26" t="s">
@@ -2192,10 +2205,12 @@
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" spans="1:9" ht="14.25" customHeight="1">
+    <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="42"/>
+      <c r="D35" s="42" t="s">
+        <v>250</v>
+      </c>
       <c r="E35" s="26"/>
       <c r="F35" s="41"/>
       <c r="G35" s="26" t="s">
@@ -2206,7 +2221,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.25" customHeight="1">
+    <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="42"/>
@@ -2220,7 +2235,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="37" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="25"/>
@@ -2233,7 +2248,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.25" customHeight="1">
+    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -2257,7 +2272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.25" customHeight="1">
+    <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="24" t="s">
@@ -2274,7 +2289,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.25" customHeight="1">
+    <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="24"/>
@@ -2289,7 +2304,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="41" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
       <c r="D41" s="43"/>
@@ -2303,7 +2318,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.25" customHeight="1">
+    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -2327,7 +2342,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.25" customHeight="1">
+    <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="42" t="s">
@@ -2345,7 +2360,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="14.25" customHeight="1">
+    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="24" t="s">
@@ -2358,7 +2373,7 @@
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
     </row>
-    <row r="45" spans="1:9" ht="14.25" customHeight="1">
+    <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="24" t="s">
@@ -2375,7 +2390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="46" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
       <c r="D46" s="25" t="s">
@@ -2392,7 +2407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.25" customHeight="1">
+    <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -2416,7 +2431,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.25" customHeight="1">
+    <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="42" t="s">
@@ -2430,7 +2445,7 @@
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
     </row>
-    <row r="49" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="49" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
       <c r="D49" s="25" t="s">
@@ -2447,7 +2462,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="50" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>224</v>
       </c>
@@ -2471,7 +2486,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="51" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -2495,7 +2510,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="14.25" customHeight="1">
+    <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>104</v>
       </c>
@@ -2519,7 +2534,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="53" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
       <c r="D53" s="25"/>
@@ -2530,7 +2545,7 @@
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="54" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>111</v>
       </c>
@@ -2552,7 +2567,7 @@
       </c>
       <c r="I54" s="14"/>
     </row>
-    <row r="55" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="55" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -2581,14 +2596,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="3" width="37.42578125" customWidth="1"/>
@@ -2597,7 +2612,7 @@
     <col min="6" max="7" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.75" thickBot="1">
+    <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>217</v>
       </c>
@@ -2606,7 +2621,7 @@
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>215</v>
       </c>
@@ -2624,7 +2639,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
@@ -2647,7 +2662,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -2667,7 +2682,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
@@ -2687,7 +2702,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -2707,7 +2722,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -2723,7 +2738,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="29"/>
       <c r="C8" s="26"/>
@@ -2737,7 +2752,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -2746,11 +2761,11 @@
       <c r="G9" s="7"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>214</v>
       </c>
@@ -2761,7 +2776,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>35</v>
       </c>
@@ -2784,7 +2799,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
@@ -2803,7 +2818,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
@@ -2822,7 +2837,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>156</v>
       </c>
@@ -2841,10 +2856,10 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C16" s="26"/>
       <c r="E16" s="29" t="s">
@@ -2858,10 +2873,10 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C17" s="26"/>
       <c r="E17" s="29" t="s">
@@ -2875,7 +2890,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="29" t="s">
         <v>159</v>
@@ -2892,10 +2907,10 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C19" s="26"/>
       <c r="E19" s="29" t="s">
@@ -2907,9 +2922,11 @@
       <c r="G19" s="7"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="29"/>
+      <c r="B20" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="C20" s="26"/>
       <c r="E20" s="29" t="s">
         <v>69</v>
@@ -2920,7 +2937,7 @@
       <c r="G20" s="7"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="29"/>
       <c r="C21" s="26"/>
@@ -2933,7 +2950,7 @@
       <c r="G21" s="7"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="29"/>
       <c r="C22" s="26"/>
@@ -2944,11 +2961,11 @@
       <c r="G22" s="7"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
+    <row r="24" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>213</v>
       </c>
@@ -2959,7 +2976,7 @@
       <c r="F24" s="39"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>35</v>
       </c>
@@ -2982,7 +2999,7 @@
       <c r="H25" s="20"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>57</v>
       </c>
@@ -3001,7 +3018,7 @@
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>47</v>
       </c>
@@ -3020,7 +3037,7 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>43</v>
       </c>
@@ -3039,7 +3056,7 @@
       </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
@@ -3058,12 +3075,12 @@
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C30" s="26"/>
       <c r="E30" s="29" t="s">
@@ -3077,7 +3094,7 @@
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
@@ -3096,12 +3113,12 @@
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C32" s="26"/>
       <c r="E32" s="29" t="s">
@@ -3115,7 +3132,7 @@
       </c>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>99</v>
       </c>
@@ -3134,7 +3151,7 @@
       </c>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="29"/>
       <c r="C34" s="26"/>
@@ -3147,7 +3164,7 @@
       <c r="G34" s="7"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="29"/>
       <c r="C35" s="26"/>
@@ -3160,7 +3177,7 @@
       <c r="G35" s="7"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="29"/>
       <c r="C36" s="26"/>
@@ -3175,7 +3192,7 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="29"/>
       <c r="C37" s="26"/>
@@ -3188,7 +3205,7 @@
       <c r="G37" s="7"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="29"/>
       <c r="C38" s="26"/>
@@ -3201,7 +3218,7 @@
       <c r="G38" s="7"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="29"/>
       <c r="C39" s="26"/>
@@ -3214,7 +3231,7 @@
       <c r="G39" s="7"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="6"/>
@@ -3223,11 +3240,11 @@
       <c r="G40" s="7"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1">
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E41"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
+    <row r="42" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>212</v>
       </c>
@@ -3238,7 +3255,7 @@
       <c r="F42" s="39"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>35</v>
       </c>
@@ -3261,7 +3278,7 @@
       <c r="H43" s="21"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>46</v>
       </c>
@@ -3280,7 +3297,7 @@
       </c>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>48</v>
       </c>
@@ -3299,7 +3316,7 @@
       </c>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>189</v>
       </c>
@@ -3318,7 +3335,7 @@
       </c>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>49</v>
       </c>
@@ -3337,7 +3354,7 @@
       </c>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>50</v>
       </c>
@@ -3354,7 +3371,7 @@
       <c r="G48" s="7"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>51</v>
       </c>
@@ -3371,7 +3388,7 @@
       <c r="G49" s="7"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="29" t="s">
         <v>22</v>
@@ -3386,7 +3403,7 @@
       <c r="G50" s="7"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="29" t="s">
         <v>143</v>
@@ -3401,10 +3418,10 @@
       <c r="G51" s="7"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C52" s="26"/>
       <c r="E52" s="29" t="s">
@@ -3415,7 +3432,7 @@
       </c>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="29" t="s">
         <v>76</v>
@@ -3429,10 +3446,10 @@
       </c>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C54" s="26"/>
       <c r="E54" s="29" t="s">
@@ -3443,10 +3460,10 @@
       </c>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C55" s="26"/>
       <c r="E55" s="29"/>
@@ -3455,7 +3472,7 @@
       </c>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="29"/>
       <c r="C56" s="26"/>
@@ -3465,7 +3482,7 @@
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="6"/>
@@ -3480,14 +3497,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
@@ -3497,7 +3514,7 @@
     <col min="6" max="7" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.75" thickBot="1">
+    <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>210</v>
       </c>
@@ -3506,7 +3523,7 @@
       <c r="D1" s="32"/>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>211</v>
       </c>
@@ -3523,7 +3540,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
@@ -3544,7 +3561,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
@@ -3562,7 +3579,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="29" t="s">
         <v>183</v>
@@ -3578,7 +3595,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="29" t="s">
         <v>169</v>
@@ -3594,7 +3611,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="29" t="s">
         <v>155</v>
@@ -3610,7 +3627,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="29" t="s">
         <v>238</v>
@@ -3626,7 +3643,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="29" t="s">
         <v>184</v>
@@ -3642,7 +3659,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="29" t="s">
         <v>178</v>
@@ -3658,10 +3675,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C11" s="26"/>
       <c r="E11" s="49" t="s">
@@ -3674,9 +3691,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="29"/>
+      <c r="B12" s="29" t="s">
+        <v>256</v>
+      </c>
       <c r="C12" s="26"/>
       <c r="E12" s="49" t="s">
         <v>178</v>
@@ -3688,9 +3707,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="29"/>
+      <c r="B13" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="C13" s="26"/>
       <c r="E13" s="29" t="s">
         <v>179</v>
@@ -3702,9 +3723,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="29"/>
+      <c r="B14" s="29" t="s">
+        <v>33</v>
+      </c>
       <c r="C14" s="26"/>
       <c r="E14" s="29" t="s">
         <v>180</v>
@@ -3716,7 +3739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="29"/>
       <c r="C15" s="26"/>
@@ -3730,7 +3753,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="29"/>
       <c r="C16" s="26"/>
@@ -3744,7 +3767,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="29"/>
       <c r="C17" s="26"/>
@@ -3756,7 +3779,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="29"/>
       <c r="C18" s="26"/>
@@ -3768,7 +3791,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="29"/>
       <c r="C19" s="26"/>
@@ -3780,7 +3803,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="29"/>
       <c r="C20" s="26"/>
@@ -3792,7 +3815,7 @@
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
@@ -3802,7 +3825,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="6"/>
@@ -3812,7 +3835,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="6"/>
@@ -3820,7 +3843,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
@@ -3828,7 +3851,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="6"/>
@@ -3836,7 +3859,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="29"/>
       <c r="C26" s="6"/>
@@ -3848,4 +3871,16 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="258">
   <si>
     <t>Bereich</t>
   </si>
@@ -618,9 +618,6 @@
     <t>Anita Luger (ab 19:00)</t>
   </si>
   <si>
-    <t>Joe (Freund von Thomas)</t>
-  </si>
-  <si>
     <t>Sebastian Peterseil</t>
   </si>
   <si>
@@ -793,6 +790,12 @@
   </si>
   <si>
     <t>Harald Höflinger (Raika) --&gt; Anhänger</t>
+  </si>
+  <si>
+    <t>Josef Krankl</t>
+  </si>
+  <si>
+    <t>Johannes Krankl</t>
   </si>
 </sst>
 </file>
@@ -1559,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,7 +1579,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1586,13 +1589,13 @@
       </c>
       <c r="E1" s="40"/>
       <c r="G1" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H1" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="27" t="s">
         <v>207</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1603,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>126</v>
@@ -1661,7 +1664,7 @@
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="41"/>
@@ -1677,7 +1680,7 @@
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="41"/>
@@ -1693,7 +1696,7 @@
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="41"/>
@@ -1728,7 +1731,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="41"/>
@@ -1770,10 +1773,10 @@
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="6" t="s">
@@ -1797,7 +1800,7 @@
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="41"/>
@@ -1833,7 +1836,7 @@
     </row>
     <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
@@ -1862,7 +1865,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="41"/>
@@ -1883,7 +1886,7 @@
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="41"/>
@@ -1904,7 +1907,7 @@
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="41"/>
@@ -1990,7 +1993,7 @@
         <v>150</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="41"/>
@@ -2011,7 +2014,7 @@
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="41"/>
@@ -2060,7 +2063,7 @@
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="9" t="s">
@@ -2114,13 +2117,13 @@
     </row>
     <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>185</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F29" s="41"/>
       <c r="G29" s="6"/>
@@ -2192,7 +2195,7 @@
     <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D34" s="42" t="s">
         <v>54</v>
@@ -2209,7 +2212,7 @@
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="42" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="41"/>
@@ -2224,7 +2227,9 @@
     <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="42"/>
+      <c r="D36" s="42" t="s">
+        <v>257</v>
+      </c>
       <c r="E36" s="26"/>
       <c r="F36" s="41"/>
       <c r="G36" s="26" t="s">
@@ -2238,10 +2243,12 @@
     <row r="37" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="25"/>
+      <c r="D37" s="25" t="s">
+        <v>249</v>
+      </c>
       <c r="F37" s="41"/>
       <c r="G37" s="9" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="10" t="s">
@@ -2276,7 +2283,7 @@
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F39" s="41"/>
       <c r="G39" s="6" t="s">
@@ -2311,7 +2318,7 @@
       <c r="E41" s="26"/>
       <c r="F41" s="41"/>
       <c r="G41" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="22" t="s">
@@ -2346,12 +2353,12 @@
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="41"/>
       <c r="G43" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H43" s="24" t="s">
         <v>27</v>
@@ -2422,7 +2429,7 @@
       </c>
       <c r="F47" s="41"/>
       <c r="G47" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>25</v>
@@ -2464,26 +2471,26 @@
     </row>
     <row r="50" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F50" s="41"/>
       <c r="G50" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2578,7 +2585,7 @@
         <v>12</v>
       </c>
       <c r="D55" s="44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F55" s="41"/>
       <c r="G55" s="9"/>
@@ -2599,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:B55"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2614,7 +2621,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -2623,19 +2630,19 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
       <c r="E2" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F2" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>207</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>208</v>
       </c>
       <c r="I2" s="6"/>
     </row>
@@ -2647,7 +2654,7 @@
         <v>112</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="15" t="s">
@@ -2744,7 +2751,7 @@
       <c r="C8" s="26"/>
       <c r="D8" s="38"/>
       <c r="E8" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -2767,7 +2774,7 @@
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="33"/>
@@ -2804,7 +2811,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C13" s="26"/>
       <c r="E13" s="29" t="s">
@@ -2823,7 +2830,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="26"/>
       <c r="E14" s="29" t="s">
@@ -2859,7 +2866,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C16" s="26"/>
       <c r="E16" s="29" t="s">
@@ -2876,7 +2883,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C17" s="26"/>
       <c r="E17" s="29" t="s">
@@ -2910,7 +2917,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C19" s="26"/>
       <c r="E19" s="29" t="s">
@@ -2967,7 +2974,7 @@
     </row>
     <row r="24" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="33"/>
@@ -3080,7 +3087,7 @@
         <v>45</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C30" s="26"/>
       <c r="E30" s="29" t="s">
@@ -3103,7 +3110,7 @@
       </c>
       <c r="C31" s="26"/>
       <c r="E31" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>140</v>
@@ -3118,7 +3125,7 @@
         <v>190</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C32" s="26"/>
       <c r="E32" s="29" t="s">
@@ -3182,7 +3189,7 @@
       <c r="B36" s="29"/>
       <c r="C36" s="26"/>
       <c r="E36" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>145</v>
@@ -3246,7 +3253,7 @@
     </row>
     <row r="42" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B42" s="36"/>
       <c r="C42" s="33"/>
@@ -3283,7 +3290,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C44" s="26"/>
       <c r="E44" s="29" t="s">
@@ -3421,7 +3428,7 @@
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C52" s="26"/>
       <c r="E52" s="29" t="s">
@@ -3449,7 +3456,7 @@
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C54" s="26"/>
       <c r="E54" s="29" t="s">
@@ -3463,7 +3470,7 @@
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C55" s="26"/>
       <c r="E55" s="29"/>
@@ -3500,7 +3507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -3516,7 +3523,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3525,19 +3532,19 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="38"/>
       <c r="D2" s="33"/>
       <c r="E2" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F2" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>207</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3548,7 +3555,7 @@
         <v>163</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="48" t="s">
@@ -3566,7 +3573,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C4" s="26"/>
       <c r="E4" s="29" t="s">
@@ -3630,7 +3637,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C8" s="26"/>
       <c r="E8" s="49" t="s">
@@ -3650,7 +3657,7 @@
       </c>
       <c r="C9" s="26"/>
       <c r="E9" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>29</v>
@@ -3678,7 +3685,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C11" s="26"/>
       <c r="E11" s="49" t="s">
@@ -3694,7 +3701,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="26"/>
       <c r="E12" s="49" t="s">
@@ -3820,7 +3827,7 @@
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
       <c r="E21" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -3830,7 +3837,7 @@
       <c r="B22" s="7"/>
       <c r="C22" s="6"/>
       <c r="E22" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="259">
   <si>
     <t>Bereich</t>
   </si>
@@ -796,6 +796,9 @@
   </si>
   <si>
     <t>Johannes Krankl</t>
+  </si>
+  <si>
+    <t>Sabrina Wurmsdobler</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -2544,7 +2547,9 @@
     <row r="53" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
-      <c r="D53" s="25"/>
+      <c r="D53" s="25" t="s">
+        <v>258</v>
+      </c>
       <c r="F53" s="41"/>
       <c r="G53" s="9" t="s">
         <v>31</v>
@@ -2606,8 +2611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3508,7 +3513,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -1565,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,8 +2611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="260">
   <si>
     <t>Bereich</t>
   </si>
@@ -799,6 +799,9 @@
   </si>
   <si>
     <t>Sabrina Wurmsdobler</t>
+  </si>
+  <si>
+    <t>Johann Röbl</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -3512,8 +3515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3753,7 +3756,9 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="29"/>
+      <c r="B15" s="29" t="s">
+        <v>259</v>
+      </c>
       <c r="C15" s="26"/>
       <c r="E15" s="29" t="s">
         <v>181</v>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Abbau!$A$1:$B$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Aufbau!$A$1:$B$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Aufbau!$A$1:$C$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Fest!$A$1:$D$55</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="264">
   <si>
     <t>Bereich</t>
   </si>
@@ -801,7 +801,19 @@
     <t>Sabrina Wurmsdobler</t>
   </si>
   <si>
-    <t>Johann Röbl</t>
+    <t>Röbl Johann</t>
+  </si>
+  <si>
+    <t>Hochreiter Walter</t>
+  </si>
+  <si>
+    <t>Hochreiter Anton</t>
+  </si>
+  <si>
+    <t>Friedl Johann</t>
+  </si>
+  <si>
+    <t>Aberl Johann</t>
   </si>
 </sst>
 </file>
@@ -2614,8 +2626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3168,7 +3180,9 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="29"/>
+      <c r="B34" s="29" t="s">
+        <v>261</v>
+      </c>
       <c r="C34" s="26"/>
       <c r="E34" s="29" t="s">
         <v>80</v>
@@ -3181,7 +3195,9 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="29"/>
+      <c r="B35" s="29" t="s">
+        <v>262</v>
+      </c>
       <c r="C35" s="26"/>
       <c r="E35" s="29" t="s">
         <v>194</v>
@@ -3194,7 +3210,9 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="29"/>
+      <c r="B36" s="29" t="s">
+        <v>263</v>
+      </c>
       <c r="C36" s="26"/>
       <c r="E36" s="29" t="s">
         <v>199</v>
@@ -3507,7 +3525,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3515,8 +3533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3772,7 +3790,9 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="29"/>
+      <c r="B16" s="29" t="s">
+        <v>260</v>
+      </c>
       <c r="C16" s="26"/>
       <c r="E16" s="29" t="s">
         <v>84</v>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -14,15 +14,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Abbau!$A$1:$B$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Aufbau!$A$1:$C$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Fest!$A$1:$D$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Aufbau!$A$1:$B$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Fest!$B$1:$D$55</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="254">
   <si>
     <t>Bereich</t>
   </si>
@@ -333,21 +333,9 @@
     <t>Grubauer Franz (ab 14:00 Uhr)</t>
   </si>
   <si>
-    <t>Philipp</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
     <t>Verena Stumptner (EIceBAR)</t>
   </si>
   <si>
-    <t>Chrisi</t>
-  </si>
-  <si>
-    <t>Verena</t>
-  </si>
-  <si>
     <t>Klemens Brandstötter</t>
   </si>
   <si>
@@ -357,9 +345,6 @@
     <t>Elektrik</t>
   </si>
   <si>
-    <t>Josef</t>
-  </si>
-  <si>
     <t>Michael Buchner (Verantwortlicher)</t>
   </si>
   <si>
@@ -369,9 +354,6 @@
     <t>Michael Grubmüller (Verantwortlicher)</t>
   </si>
   <si>
-    <t>Rammer</t>
-  </si>
-  <si>
     <t>UNVOLLSTÄNDIG</t>
   </si>
   <si>
@@ -504,12 +486,6 @@
     <t>Christoph Peterseil</t>
   </si>
   <si>
-    <t>Wolfgang</t>
-  </si>
-  <si>
-    <t>Buchna</t>
-  </si>
-  <si>
     <t>Wolfgang Buchner (Verantwortlicher)</t>
   </si>
   <si>
@@ -669,9 +645,6 @@
     <t>Sonntag, 29.Juni.2014 ab 13:00 Uhr, 5-7 Personen</t>
   </si>
   <si>
-    <t>Buchner Michi</t>
-  </si>
-  <si>
     <t>Aufbau GN14</t>
   </si>
   <si>
@@ -693,18 +666,12 @@
     <t>5x +</t>
   </si>
   <si>
-    <t>Benedikt</t>
-  </si>
-  <si>
     <t>Michael Buchner ab 22:00</t>
   </si>
   <si>
     <t>Leopold Rammer (Anhänger)</t>
   </si>
   <si>
-    <t>Sepp</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -786,9 +753,6 @@
     <t>Luger Michael</t>
   </si>
   <si>
-    <t>Schatz Bruno</t>
-  </si>
-  <si>
     <t>Harald Höflinger (Raika) --&gt; Anhänger</t>
   </si>
   <si>
@@ -801,19 +765,25 @@
     <t>Sabrina Wurmsdobler</t>
   </si>
   <si>
-    <t>Röbl Johann</t>
-  </si>
-  <si>
-    <t>Hochreiter Walter</t>
-  </si>
-  <si>
-    <t>Hochreiter Anton</t>
-  </si>
-  <si>
     <t>Friedl Johann</t>
   </si>
   <si>
     <t>Aberl Johann</t>
+  </si>
+  <si>
+    <t>Johann Röbl</t>
+  </si>
+  <si>
+    <t>Marianne Ogolder</t>
+  </si>
+  <si>
+    <t>Florian Schinnagl</t>
+  </si>
+  <si>
+    <t>Buchner Wolfgang</t>
+  </si>
+  <si>
+    <t>Luger Josef</t>
   </si>
 </sst>
 </file>
@@ -1581,23 +1551,22 @@
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="3.5703125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="8.140625" style="6" customWidth="1"/>
     <col min="7" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1607,27 +1576,27 @@
       </c>
       <c r="E1" s="40"/>
       <c r="G1" s="27" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="3" t="s">
@@ -1669,7 +1638,7 @@
       </c>
       <c r="F4" s="41"/>
       <c r="G4" s="6" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>81</v>
@@ -1682,15 +1651,15 @@
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="42" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="41"/>
       <c r="G5" s="26" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I5" s="7"/>
     </row>
@@ -1698,7 +1667,7 @@
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="42" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="41"/>
@@ -1714,15 +1683,15 @@
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="42" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="41"/>
       <c r="G7" s="26" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>81</v>
@@ -1732,24 +1701,24 @@
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="43" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="41"/>
@@ -1765,23 +1734,23 @@
     </row>
     <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>15</v>
@@ -1791,14 +1760,14 @@
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="24" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -1818,7 +1787,7 @@
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="42" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="41"/>
@@ -1836,7 +1805,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="25" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="9" t="s">
@@ -1854,7 +1823,7 @@
     </row>
     <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
@@ -1867,7 +1836,7 @@
       </c>
       <c r="F15" s="41"/>
       <c r="G15" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>18</v>
@@ -1883,7 +1852,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="42" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="41"/>
@@ -1891,10 +1860,10 @@
         <v>15</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -1904,12 +1873,12 @@
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="42" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="41"/>
       <c r="G17" s="26" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>22</v>
@@ -1925,7 +1894,7 @@
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="42" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="41"/>
@@ -1946,7 +1915,7 @@
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="42" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="41"/>
@@ -1972,10 +1941,10 @@
       <c r="E20" s="26"/>
       <c r="F20" s="41"/>
       <c r="G20" s="26" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>92</v>
@@ -1988,7 +1957,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="42" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="41"/>
@@ -1996,7 +1965,7 @@
         <v>97</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>73</v>
@@ -2008,10 +1977,10 @@
     <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="41"/>
@@ -2032,15 +2001,15 @@
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="42" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="41"/>
       <c r="G23" s="26" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>68</v>
@@ -2053,15 +2022,15 @@
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="42" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="41"/>
       <c r="G24" s="26" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I24" s="22"/>
     </row>
@@ -2069,7 +2038,7 @@
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="47" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="41"/>
@@ -2081,20 +2050,20 @@
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="25" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="9" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
@@ -2103,11 +2072,11 @@
         <v>5</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F27" s="41"/>
       <c r="G27" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>24</v>
@@ -2127,7 +2096,7 @@
         <v>22</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>23</v>
@@ -2135,13 +2104,13 @@
     </row>
     <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F29" s="41"/>
       <c r="G29" s="6"/>
@@ -2152,7 +2121,7 @@
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="24" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F30" s="41"/>
       <c r="G30" s="6"/>
@@ -2163,7 +2132,7 @@
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="46" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F31" s="41"/>
       <c r="G31" s="6"/>
@@ -2172,13 +2141,13 @@
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>82</v>
@@ -2206,14 +2175,14 @@
         <v>81</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I33" s="15"/>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D34" s="42" t="s">
         <v>54</v>
@@ -2221,7 +2190,7 @@
       <c r="E34" s="26"/>
       <c r="F34" s="41"/>
       <c r="G34" s="26" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
@@ -2230,12 +2199,12 @@
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="42" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="41"/>
       <c r="G35" s="26" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15" t="s">
@@ -2246,12 +2215,12 @@
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="42" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="41"/>
       <c r="G36" s="26" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7" t="s">
@@ -2262,11 +2231,11 @@
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="25" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F37" s="41"/>
       <c r="G37" s="9" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="10" t="s">
@@ -2275,7 +2244,7 @@
     </row>
     <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
@@ -2301,7 +2270,7 @@
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="24" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F39" s="41"/>
       <c r="G39" s="6" t="s">
@@ -2320,7 +2289,7 @@
       <c r="D40" s="24"/>
       <c r="F40" s="41"/>
       <c r="G40" s="6" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>84</v>
@@ -2336,7 +2305,7 @@
       <c r="E41" s="26"/>
       <c r="F41" s="41"/>
       <c r="G41" s="26" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="22" t="s">
@@ -2345,7 +2314,7 @@
     </row>
     <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>9</v>
@@ -2354,7 +2323,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F42" s="41"/>
       <c r="G42" s="3" t="s">
@@ -2371,12 +2340,12 @@
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="42" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="41"/>
       <c r="G43" s="26" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H43" s="24" t="s">
         <v>27</v>
@@ -2406,7 +2375,7 @@
       </c>
       <c r="F45" s="41"/>
       <c r="G45" s="6" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H45" s="24" t="s">
         <v>26</v>
@@ -2419,14 +2388,14 @@
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
       <c r="D46" s="25" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F46" s="41"/>
       <c r="G46" s="9" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I46" s="25" t="s">
         <v>26</v>
@@ -2434,20 +2403,20 @@
     </row>
     <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D47" s="23" t="s">
         <v>63</v>
       </c>
       <c r="F47" s="41"/>
       <c r="G47" s="3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>25</v>
@@ -2465,7 +2434,7 @@
       <c r="E48" s="26"/>
       <c r="F48" s="41"/>
       <c r="G48" s="26" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
@@ -2489,31 +2458,31 @@
     </row>
     <row r="50" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>223</v>
+        <v>70</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F50" s="41"/>
       <c r="G50" s="9" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>11</v>
@@ -2522,7 +2491,7 @@
         <v>12</v>
       </c>
       <c r="D51" s="44" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F51" s="41"/>
       <c r="G51" s="12" t="s">
@@ -2537,7 +2506,7 @@
     </row>
     <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>13</v>
@@ -2563,7 +2532,7 @@
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
       <c r="D53" s="25" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="F53" s="41"/>
       <c r="G53" s="9" t="s">
@@ -2574,10 +2543,10 @@
     </row>
     <row r="54" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>253</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>12</v>
@@ -2596,7 +2565,7 @@
     </row>
     <row r="55" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>14</v>
@@ -2605,12 +2574,12 @@
         <v>12</v>
       </c>
       <c r="D55" s="44" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F55" s="41"/>
       <c r="G55" s="9"/>
       <c r="H55" s="14" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I55" s="14" t="s">
         <v>33</v>
@@ -2626,8 +2595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2641,7 +2610,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -2650,19 +2619,19 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
       <c r="E2" s="11" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I2" s="6"/>
     </row>
@@ -2671,17 +2640,17 @@
         <v>35</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>34</v>
@@ -2699,10 +2668,10 @@
       <c r="C4" s="6"/>
       <c r="D4" s="38"/>
       <c r="E4" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>71</v>
@@ -2722,7 +2691,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>70</v>
@@ -2734,7 +2703,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="38"/>
@@ -2751,11 +2720,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="38"/>
       <c r="E7" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>88</v>
@@ -2771,7 +2742,7 @@
       <c r="C8" s="26"/>
       <c r="D8" s="38"/>
       <c r="E8" s="29" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -2794,7 +2765,7 @@
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="33"/>
@@ -2808,17 +2779,17 @@
         <v>35</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="30" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>96</v>
@@ -2831,14 +2802,14 @@
         <v>41</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C13" s="26"/>
       <c r="E13" s="29" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>40</v>
@@ -2850,7 +2821,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C14" s="26"/>
       <c r="E14" s="29" t="s">
@@ -2866,17 +2837,17 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C15" s="26"/>
       <c r="E15" s="29" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>87</v>
@@ -2886,11 +2857,11 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="29" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C16" s="26"/>
       <c r="E16" s="29" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>29</v>
@@ -2903,14 +2874,14 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="29" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C17" s="26"/>
       <c r="E17" s="29" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>95</v>
@@ -2920,14 +2891,14 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="29" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C18" s="26"/>
       <c r="E18" s="29" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>98</v>
@@ -2937,7 +2908,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="29" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="C19" s="26"/>
       <c r="E19" s="29" t="s">
@@ -2952,7 +2923,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="29" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C20" s="26"/>
       <c r="E20" s="29" t="s">
@@ -2972,7 +2943,7 @@
         <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G21" s="7"/>
       <c r="I21" s="6"/>
@@ -2994,7 +2965,7 @@
     </row>
     <row r="24" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="33"/>
@@ -3008,17 +2979,17 @@
         <v>35</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>160</v>
+        <v>252</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="30" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>59</v>
@@ -3050,14 +3021,14 @@
         <v>47</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C27" s="26"/>
       <c r="E27" s="29" t="s">
         <v>92</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>86</v>
@@ -3073,10 +3044,10 @@
       </c>
       <c r="C28" s="26"/>
       <c r="E28" s="29" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>65</v>
@@ -3088,14 +3059,14 @@
         <v>44</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C29" s="26"/>
       <c r="E29" s="29" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>66</v>
@@ -3107,14 +3078,14 @@
         <v>45</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C30" s="26"/>
       <c r="E30" s="29" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>55</v>
@@ -3126,14 +3097,14 @@
         <v>58</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C31" s="26"/>
       <c r="E31" s="29" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>92</v>
@@ -3142,17 +3113,17 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C32" s="26"/>
       <c r="E32" s="29" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>97</v>
@@ -3164,11 +3135,11 @@
         <v>99</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C33" s="26"/>
       <c r="E33" s="29" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>55</v>
@@ -3181,14 +3152,14 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="29" t="s">
-        <v>261</v>
+        <v>63</v>
       </c>
       <c r="C34" s="26"/>
       <c r="E34" s="29" t="s">
         <v>80</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G34" s="7"/>
       <c r="I34" s="6"/>
@@ -3196,14 +3167,14 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="29" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C35" s="26"/>
       <c r="E35" s="29" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G35" s="7"/>
       <c r="I35" s="6"/>
@@ -3211,14 +3182,14 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="29" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C36" s="26"/>
       <c r="E36" s="29" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>102</v>
@@ -3233,7 +3204,7 @@
         <v>74</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G37" s="7"/>
       <c r="I37" s="6"/>
@@ -3243,10 +3214,10 @@
       <c r="B38" s="29"/>
       <c r="C38" s="26"/>
       <c r="E38" s="29" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G38" s="7"/>
       <c r="I38" s="6"/>
@@ -3259,7 +3230,7 @@
         <v>94</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G39" s="7"/>
       <c r="I39" s="6"/>
@@ -3279,7 +3250,7 @@
     </row>
     <row r="42" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B42" s="36"/>
       <c r="C42" s="33"/>
@@ -3293,17 +3264,17 @@
         <v>35</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="D43" s="34"/>
       <c r="E43" s="30" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G43" s="15" t="s">
         <v>34</v>
@@ -3316,14 +3287,14 @@
         <v>46</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C44" s="26"/>
       <c r="E44" s="29" t="s">
         <v>92</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>29</v>
@@ -3335,11 +3306,11 @@
         <v>48</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C45" s="26"/>
       <c r="E45" s="29" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>15</v>
@@ -3351,14 +3322,14 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C46" s="26"/>
       <c r="E46" s="29" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>23</v>
@@ -3377,13 +3348,13 @@
       </c>
       <c r="C47" s="26"/>
       <c r="E47" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I47" s="6"/>
     </row>
@@ -3392,14 +3363,14 @@
         <v>50</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C48" s="26"/>
       <c r="E48" s="29" t="s">
         <v>30</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G48" s="7"/>
       <c r="I48" s="6"/>
@@ -3409,14 +3380,14 @@
         <v>51</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C49" s="26"/>
       <c r="E49" s="29" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G49" s="7"/>
       <c r="I49" s="6"/>
@@ -3431,7 +3402,7 @@
         <v>55</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G50" s="7"/>
       <c r="I50" s="6"/>
@@ -3439,14 +3410,14 @@
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C51" s="26"/>
       <c r="E51" s="29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G51" s="7"/>
       <c r="I51" s="6"/>
@@ -3454,14 +3425,14 @@
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="29" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C52" s="26"/>
       <c r="E52" s="29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G52" s="7"/>
     </row>
@@ -3475,18 +3446,18 @@
         <v>22</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G53" s="7"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="29" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C54" s="26"/>
       <c r="E54" s="29" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>81</v>
@@ -3496,7 +3467,7 @@
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="29" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C55" s="26"/>
       <c r="E55" s="29"/>
@@ -3511,7 +3482,7 @@
       <c r="C56" s="26"/>
       <c r="E56" s="29"/>
       <c r="F56" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G56" s="7"/>
     </row>
@@ -3534,7 +3505,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3549,7 +3520,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3558,19 +3529,19 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="38"/>
       <c r="D2" s="33"/>
       <c r="E2" s="37" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3578,17 +3549,17 @@
         <v>35</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="48" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>59</v>
@@ -3599,11 +3570,11 @@
         <v>52</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C4" s="26"/>
       <c r="E4" s="29" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>78</v>
@@ -3615,14 +3586,14 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="29" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C5" s="26"/>
       <c r="E5" s="49" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>60</v>
@@ -3631,14 +3602,14 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="29" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C6" s="26"/>
       <c r="E6" s="29" t="s">
         <v>76</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>61</v>
@@ -3647,11 +3618,11 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C7" s="26"/>
       <c r="E7" s="29" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>77</v>
@@ -3663,14 +3634,14 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="29" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C8" s="26"/>
       <c r="E8" s="49" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>64</v>
@@ -3679,11 +3650,11 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="29" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C9" s="26"/>
       <c r="E9" s="29" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>29</v>
@@ -3695,14 +3666,14 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="29" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C10" s="26"/>
       <c r="E10" s="29" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>76</v>
@@ -3711,14 +3682,14 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="29" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C11" s="26"/>
       <c r="E11" s="49" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>77</v>
@@ -3727,14 +3698,14 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="29" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C12" s="26"/>
       <c r="E12" s="49" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>78</v>
@@ -3747,7 +3718,7 @@
       </c>
       <c r="C13" s="26"/>
       <c r="E13" s="29" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
@@ -3763,7 +3734,7 @@
       </c>
       <c r="C14" s="26"/>
       <c r="E14" s="29" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>30</v>
@@ -3775,11 +3746,11 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="29" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C15" s="26"/>
       <c r="E15" s="29" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>33</v>
@@ -3791,25 +3762,27 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="29" t="s">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="C16" s="26"/>
       <c r="E16" s="29" t="s">
         <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="29"/>
+      <c r="B17" s="29" t="s">
+        <v>130</v>
+      </c>
       <c r="C17" s="26"/>
       <c r="E17" s="49" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>79</v>
@@ -3818,25 +3791,29 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="29"/>
+      <c r="B18" s="29" t="s">
+        <v>250</v>
+      </c>
       <c r="C18" s="26"/>
       <c r="E18" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="29"/>
+      <c r="B19" s="29" t="s">
+        <v>251</v>
+      </c>
       <c r="C19" s="26"/>
       <c r="E19" s="29" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G19" s="7"/>
     </row>
@@ -3845,10 +3822,10 @@
       <c r="B20" s="29"/>
       <c r="C20" s="26"/>
       <c r="E20" s="29" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G20" s="7"/>
     </row>
@@ -3857,7 +3834,7 @@
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
       <c r="E21" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -3867,7 +3844,7 @@
       <c r="B22" s="7"/>
       <c r="C22" s="6"/>
       <c r="E22" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="257">
   <si>
     <t>Bereich</t>
   </si>
@@ -784,6 +784,15 @@
   </si>
   <si>
     <t>Luger Josef</t>
+  </si>
+  <si>
+    <t>Hermann Mauracher</t>
+  </si>
+  <si>
+    <t>Sieglinde Mauracher</t>
+  </si>
+  <si>
+    <t>Marlene Buchner</t>
   </si>
 </sst>
 </file>
@@ -1550,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2286,7 +2295,9 @@
     <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="24"/>
+      <c r="D40" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="F40" s="41"/>
       <c r="G40" s="6" t="s">
         <v>174</v>
@@ -2595,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3198,7 +3209,9 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="29"/>
+      <c r="B37" s="29" t="s">
+        <v>256</v>
+      </c>
       <c r="C37" s="26"/>
       <c r="E37" s="29" t="s">
         <v>74</v>
@@ -3504,8 +3517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3819,7 +3832,9 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="29"/>
+      <c r="B20" s="29" t="s">
+        <v>254</v>
+      </c>
       <c r="C20" s="26"/>
       <c r="E20" s="29" t="s">
         <v>180</v>
@@ -3831,7 +3846,9 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="C21" s="6"/>
       <c r="E21" s="7" t="s">
         <v>193</v>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -2606,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3517,7 +3517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Aufbau!$A$1:$B$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Fest!$B$1:$D$55</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="258">
   <si>
     <t>Bereich</t>
   </si>
@@ -793,13 +793,16 @@
   </si>
   <si>
     <t>Marlene Buchner</t>
+  </si>
+  <si>
+    <t>Höllwirth Heinz (entweder Auf oder Abbau)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1271,7 +1274,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -1345,7 +1348,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1380,7 +1382,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -1556,14 +1557,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -1573,7 +1574,7 @@
     <col min="7" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="21.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>208</v>
       </c>
@@ -1594,7 +1595,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" customHeight="1">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -1618,7 +1619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>90</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" customHeight="1">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="24" t="s">
@@ -1656,7 +1657,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14.25" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="42" t="s">
@@ -1672,7 +1673,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="14.25" customHeight="1">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="42" t="s">
@@ -1688,7 +1689,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="14.25" customHeight="1">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="42" t="s">
@@ -1706,7 +1707,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="14.25" customHeight="1">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="24" t="s">
@@ -1723,7 +1724,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="43" t="s">
@@ -1741,7 +1742,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="14.25" customHeight="1">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1765,7 +1766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="14.25" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="24" t="s">
@@ -1781,7 +1782,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="14.25" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="24" t="s">
@@ -1792,7 +1793,7 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="14.25" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="42" t="s">
@@ -1810,7 +1811,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="25" t="s">
@@ -1830,7 +1831,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="14.25" customHeight="1">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -1857,7 +1858,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="14.25" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="42" t="s">
@@ -1878,7 +1879,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="42" t="s">
@@ -1899,7 +1900,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="14.25" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="42" t="s">
@@ -1920,7 +1921,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="14.25" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="42" t="s">
@@ -1941,7 +1942,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="14.25" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="42" t="s">
@@ -1962,7 +1963,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="14.25" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="42" t="s">
@@ -1983,7 +1984,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="14.25" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
         <v>144</v>
@@ -2006,7 +2007,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="14.25" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="42" t="s">
@@ -2027,7 +2028,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="14.25" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="42" t="s">
@@ -2043,7 +2044,7 @@
       </c>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="14.25" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="47" t="s">
@@ -2055,7 +2056,7 @@
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
     </row>
-    <row r="26" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="25" t="s">
@@ -2070,7 +2071,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="14.25" customHeight="1">
       <c r="A27" t="s">
         <v>252</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="25" t="s">
@@ -2111,7 +2112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="14.25" customHeight="1">
       <c r="B29" s="2" t="s">
         <v>231</v>
       </c>
@@ -2126,7 +2127,7 @@
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
     </row>
-    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="14.25" customHeight="1">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="24" t="s">
@@ -2137,7 +2138,7 @@
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
     </row>
-    <row r="31" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="46" t="s">
@@ -2148,7 +2149,7 @@
       <c r="H31" s="31"/>
       <c r="I31" s="31"/>
     </row>
-    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="14.25" customHeight="1">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2172,7 +2173,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="14.25" customHeight="1">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="42" t="s">
@@ -2188,7 +2189,7 @@
       </c>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="14.25" customHeight="1">
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
         <v>233</v>
@@ -2204,7 +2205,7 @@
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="14.25" customHeight="1">
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="42" t="s">
@@ -2220,7 +2221,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="14.25" customHeight="1">
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="42" t="s">
@@ -2236,7 +2237,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="25" t="s">
@@ -2251,7 +2252,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="14.25" customHeight="1">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -2275,7 +2276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="14.25" customHeight="1">
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="24" t="s">
@@ -2292,7 +2293,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="14.25" customHeight="1">
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="24" t="s">
@@ -2309,7 +2310,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
       <c r="D41" s="43"/>
@@ -2323,7 +2324,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="14.25" customHeight="1">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="14.25" customHeight="1">
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="42" t="s">
@@ -2365,7 +2366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="14.25" customHeight="1">
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="24" t="s">
@@ -2378,7 +2379,7 @@
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
     </row>
-    <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="14.25" customHeight="1">
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="24" t="s">
@@ -2395,7 +2396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
       <c r="D46" s="25" t="s">
@@ -2412,7 +2413,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="14.25" customHeight="1">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="14.25" customHeight="1">
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="42" t="s">
@@ -2450,7 +2451,7 @@
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
     </row>
-    <row r="49" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
       <c r="D49" s="25" t="s">
@@ -2467,7 +2468,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -2491,7 +2492,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -2515,7 +2516,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="14.25" customHeight="1">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
       <c r="D53" s="25" t="s">
@@ -2552,7 +2553,7 @@
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="A54" t="s">
         <v>253</v>
       </c>
@@ -2574,7 +2575,7 @@
       </c>
       <c r="I54" s="14"/>
     </row>
-    <row r="55" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -2603,14 +2604,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="3" width="37.42578125" customWidth="1"/>
@@ -2619,7 +2620,7 @@
     <col min="6" max="7" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="21.75" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>207</v>
       </c>
@@ -2628,7 +2629,7 @@
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>206</v>
       </c>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
@@ -2669,7 +2670,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -2689,7 +2690,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
@@ -2709,7 +2710,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -2729,7 +2730,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>28</v>
@@ -2747,7 +2748,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="7"/>
       <c r="B8" s="29"/>
       <c r="C8" s="26"/>
@@ -2761,7 +2762,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -2770,11 +2771,11 @@
       <c r="G9" s="7"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1">
       <c r="E10"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
       <c r="A11" s="17" t="s">
         <v>205</v>
       </c>
@@ -2785,7 +2786,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="16" t="s">
         <v>35</v>
       </c>
@@ -2808,7 +2809,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
@@ -2827,7 +2828,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
@@ -2846,7 +2847,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
         <v>150</v>
       </c>
@@ -2865,7 +2866,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="7"/>
       <c r="B16" s="29" t="s">
         <v>237</v>
@@ -2882,7 +2883,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="7"/>
       <c r="B17" s="29" t="s">
         <v>238</v>
@@ -2899,7 +2900,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="7"/>
       <c r="B18" s="29" t="s">
         <v>153</v>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="7"/>
       <c r="B19" s="29" t="s">
         <v>23</v>
@@ -2931,7 +2932,7 @@
       <c r="G19" s="7"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="7"/>
       <c r="B20" s="29" t="s">
         <v>159</v>
@@ -2946,7 +2947,7 @@
       <c r="G20" s="7"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7"/>
       <c r="B21" s="29"/>
       <c r="C21" s="26"/>
@@ -2959,7 +2960,7 @@
       <c r="G21" s="7"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="7"/>
       <c r="B22" s="29"/>
       <c r="C22" s="26"/>
@@ -2970,11 +2971,11 @@
       <c r="G22" s="7"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1">
       <c r="E23"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
       <c r="A24" s="17" t="s">
         <v>204</v>
       </c>
@@ -2985,7 +2986,7 @@
       <c r="F24" s="39"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="16" t="s">
         <v>35</v>
       </c>
@@ -3008,7 +3009,7 @@
       <c r="H25" s="20"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="7" t="s">
         <v>57</v>
       </c>
@@ -3027,7 +3028,7 @@
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
         <v>47</v>
       </c>
@@ -3046,7 +3047,7 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
         <v>43</v>
       </c>
@@ -3065,7 +3066,7 @@
       </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
@@ -3084,7 +3085,7 @@
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="7" t="s">
         <v>45</v>
       </c>
@@ -3103,7 +3104,7 @@
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
@@ -3122,7 +3123,7 @@
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="7" t="s">
         <v>182</v>
       </c>
@@ -3141,7 +3142,7 @@
       </c>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="7" t="s">
         <v>99</v>
       </c>
@@ -3160,7 +3161,7 @@
       </c>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="7"/>
       <c r="B34" s="29" t="s">
         <v>63</v>
@@ -3175,7 +3176,7 @@
       <c r="G34" s="7"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="7"/>
       <c r="B35" s="29" t="s">
         <v>247</v>
@@ -3190,7 +3191,7 @@
       <c r="G35" s="7"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="7"/>
       <c r="B36" s="29" t="s">
         <v>248</v>
@@ -3207,7 +3208,7 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="7"/>
       <c r="B37" s="29" t="s">
         <v>256</v>
@@ -3222,7 +3223,7 @@
       <c r="G37" s="7"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="7"/>
       <c r="B38" s="29"/>
       <c r="C38" s="26"/>
@@ -3235,7 +3236,7 @@
       <c r="G38" s="7"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="7"/>
       <c r="B39" s="29"/>
       <c r="C39" s="26"/>
@@ -3248,7 +3249,7 @@
       <c r="G39" s="7"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="6"/>
@@ -3257,11 +3258,11 @@
       <c r="G40" s="7"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15.75" thickBot="1">
       <c r="E41"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
       <c r="A42" s="17" t="s">
         <v>203</v>
       </c>
@@ -3272,7 +3273,7 @@
       <c r="F42" s="39"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="16" t="s">
         <v>35</v>
       </c>
@@ -3295,7 +3296,7 @@
       <c r="H43" s="21"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="7" t="s">
         <v>46</v>
       </c>
@@ -3314,7 +3315,7 @@
       </c>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="7" t="s">
         <v>48</v>
       </c>
@@ -3333,7 +3334,7 @@
       </c>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="7" t="s">
         <v>181</v>
       </c>
@@ -3352,7 +3353,7 @@
       </c>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="7" t="s">
         <v>49</v>
       </c>
@@ -3371,7 +3372,7 @@
       </c>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="7" t="s">
         <v>50</v>
       </c>
@@ -3388,7 +3389,7 @@
       <c r="G48" s="7"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="7" t="s">
         <v>51</v>
       </c>
@@ -3405,7 +3406,7 @@
       <c r="G49" s="7"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="7"/>
       <c r="B50" s="29" t="s">
         <v>22</v>
@@ -3420,7 +3421,7 @@
       <c r="G50" s="7"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="7"/>
       <c r="B51" s="29" t="s">
         <v>137</v>
@@ -3435,7 +3436,7 @@
       <c r="G51" s="7"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="7"/>
       <c r="B52" s="29" t="s">
         <v>235</v>
@@ -3449,7 +3450,7 @@
       </c>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="7"/>
       <c r="B53" s="29" t="s">
         <v>76</v>
@@ -3463,7 +3464,7 @@
       </c>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="7"/>
       <c r="B54" s="29" t="s">
         <v>238</v>
@@ -3477,7 +3478,7 @@
       </c>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="7"/>
       <c r="B55" s="29" t="s">
         <v>239</v>
@@ -3489,7 +3490,7 @@
       </c>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="7"/>
       <c r="B56" s="29"/>
       <c r="C56" s="26"/>
@@ -3499,7 +3500,7 @@
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="6"/>
@@ -3514,14 +3515,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
@@ -3531,7 +3532,7 @@
     <col min="6" max="7" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="21.75" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>201</v>
       </c>
@@ -3540,7 +3541,7 @@
       <c r="D1" s="32"/>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>202</v>
       </c>
@@ -3557,7 +3558,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
@@ -3578,7 +3579,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
@@ -3596,7 +3597,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="7"/>
       <c r="B5" s="29" t="s">
         <v>175</v>
@@ -3612,7 +3613,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="7"/>
       <c r="B6" s="29" t="s">
         <v>161</v>
@@ -3628,7 +3629,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="7"/>
       <c r="B7" s="29" t="s">
         <v>149</v>
@@ -3644,7 +3645,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="7"/>
       <c r="B8" s="29" t="s">
         <v>226</v>
@@ -3660,7 +3661,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="7"/>
       <c r="B9" s="29" t="s">
         <v>176</v>
@@ -3676,7 +3677,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="7"/>
       <c r="B10" s="29" t="s">
         <v>170</v>
@@ -3692,7 +3693,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="7"/>
       <c r="B11" s="29" t="s">
         <v>242</v>
@@ -3708,7 +3709,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="7"/>
       <c r="B12" s="29" t="s">
         <v>243</v>
@@ -3724,7 +3725,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="7"/>
       <c r="B13" s="29" t="s">
         <v>15</v>
@@ -3740,7 +3741,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="7"/>
       <c r="B14" s="29" t="s">
         <v>33</v>
@@ -3756,7 +3757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="7"/>
       <c r="B15" s="29" t="s">
         <v>249</v>
@@ -3772,7 +3773,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="7"/>
       <c r="B16" s="29" t="s">
         <v>74</v>
@@ -3788,7 +3789,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="7"/>
       <c r="B17" s="29" t="s">
         <v>130</v>
@@ -3802,7 +3803,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="7"/>
       <c r="B18" s="29" t="s">
         <v>250</v>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="7"/>
       <c r="B19" s="29" t="s">
         <v>251</v>
@@ -3830,7 +3831,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="7"/>
       <c r="B20" s="29" t="s">
         <v>254</v>
@@ -3844,7 +3845,7 @@
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
         <v>255</v>
@@ -3856,9 +3857,11 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>257</v>
+      </c>
       <c r="C22" s="6"/>
       <c r="E22" s="7" t="s">
         <v>215</v>
@@ -3866,7 +3869,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="6"/>
@@ -3874,7 +3877,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
@@ -3882,7 +3885,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="6"/>
@@ -3890,7 +3893,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="7"/>
       <c r="B26" s="29"/>
       <c r="C26" s="6"/>
@@ -3905,12 +3908,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950" activeTab="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="264">
   <si>
     <t>Bereich</t>
   </si>
@@ -543,9 +543,6 @@
     <t>Pointner Erwin</t>
   </si>
   <si>
-    <t>Schinnagl Florian</t>
-  </si>
-  <si>
     <t>Herman Mauracher</t>
   </si>
   <si>
@@ -735,9 +732,6 @@
     <t>Lukas Scherer</t>
   </si>
   <si>
-    <t>Stefan Niedersüss (ab 18:00)</t>
-  </si>
-  <si>
     <t>Alexander Luger</t>
   </si>
   <si>
@@ -777,9 +771,6 @@
     <t>Marianne Ogolder</t>
   </si>
   <si>
-    <t>Florian Schinnagl</t>
-  </si>
-  <si>
     <t>Buchner Wolfgang</t>
   </si>
   <si>
@@ -792,17 +783,44 @@
     <t>Sieglinde Mauracher</t>
   </si>
   <si>
-    <t>Marlene Buchner</t>
-  </si>
-  <si>
-    <t>Höllwirth Heinz (entweder Auf oder Abbau)</t>
+    <t>Höllwirth Heinz (entw. Auf- oder Abbau)</t>
+  </si>
+  <si>
+    <t>Bettina Kremplbauer (Deko)</t>
+  </si>
+  <si>
+    <t>Verena Schatz (Deko)</t>
+  </si>
+  <si>
+    <t>Sabrina Gagstädter (Deko)</t>
+  </si>
+  <si>
+    <t>Marlene Buchner (Deko)</t>
+  </si>
+  <si>
+    <t>Karl Ebenhofer (unsicher)</t>
+  </si>
+  <si>
+    <t>Verena Schatz (Deko ab 14:00 Uhr)</t>
+  </si>
+  <si>
+    <t>Sabrina Gagstädter (Deko ab 14:00 Uhr)</t>
+  </si>
+  <si>
+    <t>Bettina Kremplbauer (Deko ab 14:00 Uhr)</t>
+  </si>
+  <si>
+    <t>Stefan Niedersüss (ab 18:00 Uhr)</t>
+  </si>
+  <si>
+    <t>Josef Luger (bis 20:00 Uhr)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1274,7 +1292,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -1348,6 +1366,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1382,6 +1401,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -1557,14 +1577,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -1574,9 +1594,9 @@
     <col min="7" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21.75" thickBot="1">
+    <row r="1" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1586,16 +1606,16 @@
       </c>
       <c r="E1" s="40"/>
       <c r="G1" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H1" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="I1" s="27" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="14.25" customHeight="1">
+    </row>
+    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -1603,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>120</v>
@@ -1619,7 +1639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.25" customHeight="1">
+    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>90</v>
       </c>
@@ -1640,7 +1660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.25" customHeight="1">
+    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="24" t="s">
@@ -1648,7 +1668,7 @@
       </c>
       <c r="F4" s="41"/>
       <c r="G4" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>81</v>
@@ -1657,11 +1677,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.25" customHeight="1">
+    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="41"/>
@@ -1673,11 +1693,11 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:14" ht="14.25" customHeight="1">
+    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="41"/>
@@ -1689,11 +1709,11 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:14" ht="14.25" customHeight="1">
+    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="41"/>
@@ -1707,7 +1727,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.25" customHeight="1">
+    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="24" t="s">
@@ -1724,11 +1744,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
+    <row r="9" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="41"/>
@@ -1742,7 +1762,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.25" customHeight="1">
+    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1766,14 +1786,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.25" customHeight="1">
+    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="6" t="s">
@@ -1782,7 +1802,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:14" ht="14.25" customHeight="1">
+    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="24" t="s">
@@ -1793,11 +1813,11 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:14" ht="14.25" customHeight="1">
+    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="41"/>
@@ -1811,7 +1831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
+    <row r="14" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="25" t="s">
@@ -1831,7 +1851,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="14.25" customHeight="1">
+    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -1858,11 +1878,11 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" ht="14.25" customHeight="1">
+    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="41"/>
@@ -1879,11 +1899,11 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" ht="14.25" customHeight="1">
+    <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="41"/>
@@ -1900,11 +1920,11 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" ht="14.25" customHeight="1">
+    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="41"/>
@@ -1921,7 +1941,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" ht="14.25" customHeight="1">
+    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="42" t="s">
@@ -1942,7 +1962,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14" ht="14.25" customHeight="1">
+    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="42" t="s">
@@ -1963,7 +1983,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14" ht="14.25" customHeight="1">
+    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="42" t="s">
@@ -1984,13 +2004,13 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14" ht="14.25" customHeight="1">
+    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="41"/>
@@ -2007,11 +2027,11 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14" ht="14.25" customHeight="1">
+    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="41"/>
@@ -2028,7 +2048,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:14" ht="14.25" customHeight="1">
+    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="42" t="s">
@@ -2044,7 +2064,7 @@
       </c>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="1:14" ht="14.25" customHeight="1">
+    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="47" t="s">
@@ -2056,11 +2076,11 @@
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
     </row>
-    <row r="26" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
+    <row r="26" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="9" t="s">
@@ -2071,9 +2091,9 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:14" ht="14.25" customHeight="1">
+    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
@@ -2095,7 +2115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
+    <row r="28" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="25" t="s">
@@ -2112,22 +2132,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="14.25" customHeight="1">
+    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F29" s="41"/>
       <c r="G29" s="6"/>
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
     </row>
-    <row r="30" spans="1:14" ht="14.25" customHeight="1">
+    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="24" t="s">
@@ -2138,18 +2158,18 @@
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
     </row>
-    <row r="31" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
+    <row r="31" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F31" s="41"/>
       <c r="G31" s="6"/>
       <c r="H31" s="31"/>
       <c r="I31" s="31"/>
     </row>
-    <row r="32" spans="1:14" ht="14.25" customHeight="1">
+    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2157,7 +2177,7 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>82</v>
@@ -2173,7 +2193,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.25" customHeight="1">
+    <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="42" t="s">
@@ -2189,10 +2209,10 @@
       </c>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25" customHeight="1">
+    <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D34" s="42" t="s">
         <v>54</v>
@@ -2200,59 +2220,59 @@
       <c r="E34" s="26"/>
       <c r="F34" s="41"/>
       <c r="G34" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" spans="1:9" ht="14.25" customHeight="1">
+    <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="42" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="41"/>
       <c r="G35" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.25" customHeight="1">
+    <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="42" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="41"/>
       <c r="G36" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="37" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F37" s="41"/>
       <c r="G37" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.25" customHeight="1">
+    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -2276,11 +2296,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.25" customHeight="1">
+    <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F39" s="41"/>
       <c r="G39" s="6" t="s">
@@ -2293,15 +2313,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.25" customHeight="1">
+    <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="24" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F40" s="41"/>
       <c r="G40" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>84</v>
@@ -2310,21 +2330,23 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="41" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="43"/>
+      <c r="D41" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="E41" s="26"/>
       <c r="F41" s="41"/>
       <c r="G41" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.25" customHeight="1">
+    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -2348,16 +2370,16 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.25" customHeight="1">
+    <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="41"/>
       <c r="G43" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H43" s="24" t="s">
         <v>27</v>
@@ -2366,7 +2388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="14.25" customHeight="1">
+    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="24" t="s">
@@ -2379,7 +2401,7 @@
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
     </row>
-    <row r="45" spans="1:9" ht="14.25" customHeight="1">
+    <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="24" t="s">
@@ -2396,7 +2418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="46" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
       <c r="D46" s="25" t="s">
@@ -2413,7 +2435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.25" customHeight="1">
+    <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -2421,14 +2443,14 @@
         <v>10</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D47" s="23" t="s">
         <v>63</v>
       </c>
       <c r="F47" s="41"/>
       <c r="G47" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>25</v>
@@ -2437,7 +2459,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.25" customHeight="1">
+    <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="42" t="s">
@@ -2446,12 +2468,12 @@
       <c r="E48" s="26"/>
       <c r="F48" s="41"/>
       <c r="G48" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
     </row>
-    <row r="49" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="49" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
       <c r="D49" s="25" t="s">
@@ -2468,31 +2490,31 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="50" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>70</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F50" s="41"/>
       <c r="G50" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -2516,7 +2538,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="14.25" customHeight="1">
+    <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -2540,11 +2562,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="53" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
       <c r="D53" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F53" s="41"/>
       <c r="G53" s="9" t="s">
@@ -2553,9 +2575,9 @@
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="54" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>106</v>
@@ -2575,7 +2597,7 @@
       </c>
       <c r="I54" s="14"/>
     </row>
-    <row r="55" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="55" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -2586,7 +2608,7 @@
         <v>12</v>
       </c>
       <c r="D55" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F55" s="41"/>
       <c r="G55" s="9"/>
@@ -2604,14 +2626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="3" width="37.42578125" customWidth="1"/>
@@ -2620,34 +2642,34 @@
     <col min="6" max="7" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.75" thickBot="1">
+    <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
       <c r="E2" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>199</v>
-      </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
@@ -2670,7 +2692,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -2690,7 +2712,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
@@ -2710,7 +2732,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -2730,7 +2752,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>28</v>
@@ -2748,13 +2770,13 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="29"/>
       <c r="C8" s="26"/>
       <c r="D8" s="38"/>
       <c r="E8" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
@@ -2762,7 +2784,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -2771,13 +2793,13 @@
       <c r="G9" s="7"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="33"/>
@@ -2786,7 +2808,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>35</v>
       </c>
@@ -2809,12 +2831,12 @@
       <c r="H12" s="21"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C13" s="26"/>
       <c r="E13" s="29" t="s">
@@ -2828,12 +2850,12 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C14" s="26"/>
       <c r="E14" s="29" t="s">
@@ -2847,7 +2869,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>150</v>
       </c>
@@ -2866,10 +2888,10 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="29" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="C16" s="26"/>
       <c r="E16" s="29" t="s">
@@ -2883,10 +2905,10 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C17" s="26"/>
       <c r="E17" s="29" t="s">
@@ -2900,7 +2922,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="29" t="s">
         <v>153</v>
@@ -2917,7 +2939,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="29" t="s">
         <v>23</v>
@@ -2932,7 +2954,7 @@
       <c r="G19" s="7"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="29" t="s">
         <v>159</v>
@@ -2947,9 +2969,11 @@
       <c r="G20" s="7"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="29"/>
+      <c r="B21" s="29" t="s">
+        <v>263</v>
+      </c>
       <c r="C21" s="26"/>
       <c r="E21" s="29" t="s">
         <v>23</v>
@@ -2960,7 +2984,7 @@
       <c r="G21" s="7"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="29"/>
       <c r="C22" s="26"/>
@@ -2971,13 +2995,13 @@
       <c r="G22" s="7"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
+    <row r="24" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="33"/>
@@ -2986,7 +3010,7 @@
       <c r="F24" s="39"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>35</v>
       </c>
@@ -2994,7 +3018,7 @@
         <v>154</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="30" t="s">
@@ -3009,7 +3033,7 @@
       <c r="H25" s="20"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>57</v>
       </c>
@@ -3028,7 +3052,7 @@
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>47</v>
       </c>
@@ -3047,7 +3071,7 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>43</v>
       </c>
@@ -3066,7 +3090,7 @@
       </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
@@ -3085,16 +3109,16 @@
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C30" s="26"/>
       <c r="E30" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>104</v>
@@ -3104,16 +3128,16 @@
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C31" s="26"/>
       <c r="E31" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>134</v>
@@ -3123,16 +3147,16 @@
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C32" s="26"/>
       <c r="E32" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>133</v>
@@ -3142,7 +3166,7 @@
       </c>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>99</v>
       </c>
@@ -3151,7 +3175,7 @@
       </c>
       <c r="C33" s="26"/>
       <c r="E33" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>55</v>
@@ -3161,7 +3185,7 @@
       </c>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="29" t="s">
         <v>63</v>
@@ -3176,14 +3200,14 @@
       <c r="G34" s="7"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C35" s="26"/>
       <c r="E35" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>138</v>
@@ -3191,14 +3215,14 @@
       <c r="G35" s="7"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C36" s="26"/>
       <c r="E36" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>139</v>
@@ -3208,10 +3232,10 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C37" s="26"/>
       <c r="E37" s="29" t="s">
@@ -3223,9 +3247,11 @@
       <c r="G37" s="7"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="B38" s="29"/>
+      <c r="B38" s="29" t="s">
+        <v>261</v>
+      </c>
       <c r="C38" s="26"/>
       <c r="E38" s="29" t="s">
         <v>127</v>
@@ -3236,9 +3262,11 @@
       <c r="G38" s="7"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="29"/>
+      <c r="B39" s="29" t="s">
+        <v>259</v>
+      </c>
       <c r="C39" s="26"/>
       <c r="E39" s="29" t="s">
         <v>94</v>
@@ -3249,22 +3277,24 @@
       <c r="G39" s="7"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
+      <c r="B40" s="7" t="s">
+        <v>260</v>
+      </c>
       <c r="C40" s="6"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1">
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E41"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1">
+    <row r="42" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B42" s="36"/>
       <c r="C42" s="33"/>
@@ -3273,7 +3303,7 @@
       <c r="F42" s="39"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>35</v>
       </c>
@@ -3296,12 +3326,12 @@
       <c r="H43" s="21"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C44" s="26"/>
       <c r="E44" s="29" t="s">
@@ -3315,7 +3345,7 @@
       </c>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>48</v>
       </c>
@@ -3334,9 +3364,9 @@
       </c>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B46" s="29" t="s">
         <v>162</v>
@@ -3353,7 +3383,7 @@
       </c>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>49</v>
       </c>
@@ -3372,7 +3402,7 @@
       </c>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>50</v>
       </c>
@@ -3389,7 +3419,7 @@
       <c r="G48" s="7"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>51</v>
       </c>
@@ -3398,7 +3428,7 @@
       </c>
       <c r="C49" s="26"/>
       <c r="E49" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>133</v>
@@ -3406,7 +3436,7 @@
       <c r="G49" s="7"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="29" t="s">
         <v>22</v>
@@ -3421,7 +3451,7 @@
       <c r="G50" s="7"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="29" t="s">
         <v>137</v>
@@ -3436,10 +3466,10 @@
       <c r="G51" s="7"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C52" s="26"/>
       <c r="E52" s="29" t="s">
@@ -3450,7 +3480,7 @@
       </c>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="29" t="s">
         <v>76</v>
@@ -3464,10 +3494,10 @@
       </c>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C54" s="26"/>
       <c r="E54" s="29" t="s">
@@ -3478,10 +3508,10 @@
       </c>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="29" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C55" s="26"/>
       <c r="E55" s="29"/>
@@ -3490,9 +3520,11 @@
       </c>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
-      <c r="B56" s="29"/>
+      <c r="B56" s="29" t="s">
+        <v>258</v>
+      </c>
       <c r="C56" s="26"/>
       <c r="E56" s="29"/>
       <c r="F56" s="7" t="s">
@@ -3500,13 +3532,33 @@
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
+      <c r="B57" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="C57" s="6"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7" t="s">
+        <v>257</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3515,14 +3567,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
@@ -3532,33 +3584,33 @@
     <col min="6" max="7" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.75" thickBot="1">
+    <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="32"/>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="38"/>
       <c r="D2" s="33"/>
       <c r="E2" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
@@ -3566,7 +3618,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="48" t="s">
@@ -3579,12 +3631,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C4" s="26"/>
       <c r="E4" s="29" t="s">
@@ -3597,10 +3649,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="26"/>
       <c r="E5" s="49" t="s">
@@ -3613,7 +3665,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="29" t="s">
         <v>161</v>
@@ -3629,7 +3681,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="29" t="s">
         <v>149</v>
@@ -3645,10 +3697,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C8" s="26"/>
       <c r="E8" s="49" t="s">
@@ -3661,14 +3713,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" s="26"/>
       <c r="E9" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>29</v>
@@ -3677,7 +3729,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="29" t="s">
         <v>170</v>
@@ -3693,10 +3745,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="29" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C11" s="26"/>
       <c r="E11" s="49" t="s">
@@ -3709,10 +3761,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C12" s="26"/>
       <c r="E12" s="49" t="s">
@@ -3725,7 +3777,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="29" t="s">
         <v>15</v>
@@ -3741,7 +3793,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="29" t="s">
         <v>33</v>
@@ -3757,14 +3809,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C15" s="26"/>
       <c r="E15" s="29" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>33</v>
@@ -3773,7 +3825,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="29" t="s">
         <v>74</v>
@@ -3789,24 +3841,24 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="29" t="s">
         <v>130</v>
       </c>
       <c r="C17" s="26"/>
       <c r="E17" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>79</v>
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C18" s="26"/>
       <c r="E18" s="29" t="s">
@@ -3817,10 +3869,10 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="29" t="s">
-        <v>251</v>
+        <v>85</v>
       </c>
       <c r="C19" s="26"/>
       <c r="E19" s="29" t="s">
@@ -3831,45 +3883,45 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="29" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C20" s="26"/>
       <c r="E20" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>149</v>
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C21" s="6"/>
       <c r="E21" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C22" s="6"/>
       <c r="E22" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="6"/>
@@ -3877,7 +3929,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
@@ -3885,7 +3937,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="6"/>
@@ -3893,7 +3945,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="29"/>
       <c r="C26" s="6"/>
@@ -3908,12 +3960,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -699,12 +699,6 @@
     <t xml:space="preserve">Christian Brandstötter </t>
   </si>
   <si>
-    <t>Pointner Maria</t>
-  </si>
-  <si>
-    <t>Schatz Bruno (Gläser)</t>
-  </si>
-  <si>
     <t>Julian Raml (Gläser)</t>
   </si>
   <si>
@@ -744,9 +738,6 @@
     <t>Michael Kolberger (Gläser)</t>
   </si>
   <si>
-    <t>Luger Michael</t>
-  </si>
-  <si>
     <t>Harald Höflinger (Raika) --&gt; Anhänger</t>
   </si>
   <si>
@@ -759,12 +750,6 @@
     <t>Sabrina Wurmsdobler</t>
   </si>
   <si>
-    <t>Friedl Johann</t>
-  </si>
-  <si>
-    <t>Aberl Johann</t>
-  </si>
-  <si>
     <t>Johann Röbl</t>
   </si>
   <si>
@@ -783,9 +768,6 @@
     <t>Sieglinde Mauracher</t>
   </si>
   <si>
-    <t>Höllwirth Heinz (entw. Auf- oder Abbau)</t>
-  </si>
-  <si>
     <t>Bettina Kremplbauer (Deko)</t>
   </si>
   <si>
@@ -814,6 +796,24 @@
   </si>
   <si>
     <t>Josef Luger (bis 20:00 Uhr)</t>
+  </si>
+  <si>
+    <t>Johann Friedl</t>
+  </si>
+  <si>
+    <t>Johann Aberl</t>
+  </si>
+  <si>
+    <t>Maria Pointner</t>
+  </si>
+  <si>
+    <t>Bruno Schatz (Gläser)</t>
+  </si>
+  <si>
+    <t>Heinz Höllwirth (entw. Auf- oder Abbau)</t>
+  </si>
+  <si>
+    <t>Michael Luger</t>
   </si>
 </sst>
 </file>
@@ -1580,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1681,7 +1681,7 @@
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="41"/>
@@ -1790,7 +1790,7 @@
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>215</v>
@@ -2010,7 +2010,7 @@
         <v>144</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="41"/>
@@ -2031,7 +2031,7 @@
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="42" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="41"/>
@@ -2080,7 +2080,7 @@
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="9" t="s">
@@ -2093,7 +2093,7 @@
     </row>
     <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>176</v>
@@ -2212,7 +2212,7 @@
     <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D34" s="42" t="s">
         <v>54</v>
@@ -2229,7 +2229,7 @@
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="42" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="41"/>
@@ -2245,7 +2245,7 @@
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="42" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="41"/>
@@ -2261,11 +2261,11 @@
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F37" s="41"/>
       <c r="G37" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="10" t="s">
@@ -2317,7 +2317,7 @@
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="24" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F40" s="41"/>
       <c r="G40" s="6" t="s">
@@ -2501,17 +2501,17 @@
         <v>12</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F50" s="41"/>
       <c r="G50" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2566,7 +2566,7 @@
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
       <c r="D53" s="25" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F53" s="41"/>
       <c r="G53" s="9" t="s">
@@ -2577,7 +2577,7 @@
     </row>
     <row r="54" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>106</v>
@@ -2629,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2673,7 +2673,7 @@
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="48" t="s">
         <v>107</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2696,7 +2696,7 @@
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="49" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="6"/>
@@ -2716,7 +2716,7 @@
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="49" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="6"/>
@@ -2736,7 +2736,7 @@
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="49" t="s">
         <v>159</v>
       </c>
       <c r="C6" s="6"/>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="49" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="6"/>
@@ -2812,7 +2812,7 @@
       <c r="A12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="48" t="s">
         <v>109</v>
       </c>
       <c r="C12" s="26" t="s">
@@ -2835,7 +2835,7 @@
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="49" t="s">
         <v>220</v>
       </c>
       <c r="C13" s="26"/>
@@ -2854,7 +2854,7 @@
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="49" t="s">
         <v>221</v>
       </c>
       <c r="C14" s="26"/>
@@ -2873,7 +2873,7 @@
       <c r="A15" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="49" t="s">
         <v>162</v>
       </c>
       <c r="C15" s="26"/>
@@ -2890,8 +2890,8 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="29" t="s">
-        <v>262</v>
+      <c r="B16" s="49" t="s">
+        <v>256</v>
       </c>
       <c r="C16" s="26"/>
       <c r="E16" s="29" t="s">
@@ -2907,8 +2907,8 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="29" t="s">
-        <v>236</v>
+      <c r="B17" s="49" t="s">
+        <v>234</v>
       </c>
       <c r="C17" s="26"/>
       <c r="E17" s="29" t="s">
@@ -2924,7 +2924,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="49" t="s">
         <v>153</v>
       </c>
       <c r="C18" s="26"/>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="49" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="26"/>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="49" t="s">
         <v>159</v>
       </c>
       <c r="C20" s="26"/>
@@ -2971,8 +2971,8 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="29" t="s">
-        <v>263</v>
+      <c r="B21" s="49" t="s">
+        <v>257</v>
       </c>
       <c r="C21" s="26"/>
       <c r="E21" s="29" t="s">
@@ -3014,11 +3014,11 @@
       <c r="A25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="48" t="s">
         <v>154</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="30" t="s">
@@ -3037,7 +3037,7 @@
       <c r="A26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="49" t="s">
         <v>92</v>
       </c>
       <c r="C26" s="26"/>
@@ -3056,7 +3056,7 @@
       <c r="A27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="49" t="s">
         <v>104</v>
       </c>
       <c r="C27" s="26"/>
@@ -3075,7 +3075,7 @@
       <c r="A28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="49" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="26"/>
@@ -3094,7 +3094,7 @@
       <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="49" t="s">
         <v>127</v>
       </c>
       <c r="C29" s="26"/>
@@ -3113,8 +3113,8 @@
       <c r="A30" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>231</v>
+      <c r="B30" s="49" t="s">
+        <v>229</v>
       </c>
       <c r="C30" s="26"/>
       <c r="E30" s="29" t="s">
@@ -3132,7 +3132,7 @@
       <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="49" t="s">
         <v>186</v>
       </c>
       <c r="C31" s="26"/>
@@ -3151,8 +3151,8 @@
       <c r="A32" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B32" s="29" t="s">
-        <v>238</v>
+      <c r="B32" s="49" t="s">
+        <v>236</v>
       </c>
       <c r="C32" s="26"/>
       <c r="E32" s="29" t="s">
@@ -3170,7 +3170,7 @@
       <c r="A33" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="49" t="s">
         <v>171</v>
       </c>
       <c r="C33" s="26"/>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="49" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="26"/>
@@ -3202,8 +3202,8 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="29" t="s">
-        <v>245</v>
+      <c r="B35" s="49" t="s">
+        <v>258</v>
       </c>
       <c r="C35" s="26"/>
       <c r="E35" s="29" t="s">
@@ -3217,8 +3217,8 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="29" t="s">
-        <v>246</v>
+      <c r="B36" s="49" t="s">
+        <v>259</v>
       </c>
       <c r="C36" s="26"/>
       <c r="E36" s="29" t="s">
@@ -3234,8 +3234,8 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="29" t="s">
-        <v>257</v>
+      <c r="B37" s="49" t="s">
+        <v>251</v>
       </c>
       <c r="C37" s="26"/>
       <c r="E37" s="29" t="s">
@@ -3249,8 +3249,8 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="B38" s="29" t="s">
-        <v>261</v>
+      <c r="B38" s="49" t="s">
+        <v>255</v>
       </c>
       <c r="C38" s="26"/>
       <c r="E38" s="29" t="s">
@@ -3264,8 +3264,8 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="29" t="s">
-        <v>259</v>
+      <c r="B39" s="49" t="s">
+        <v>253</v>
       </c>
       <c r="C39" s="26"/>
       <c r="E39" s="29" t="s">
@@ -3279,8 +3279,8 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="B40" s="7" t="s">
-        <v>260</v>
+      <c r="B40" s="49" t="s">
+        <v>254</v>
       </c>
       <c r="C40" s="6"/>
       <c r="E40" s="7"/>
@@ -3307,7 +3307,7 @@
       <c r="A43" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="48" t="s">
         <v>109</v>
       </c>
       <c r="C43" s="26" t="s">
@@ -3330,7 +3330,7 @@
       <c r="A44" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="49" t="s">
         <v>218</v>
       </c>
       <c r="C44" s="26"/>
@@ -3349,7 +3349,7 @@
       <c r="A45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="49" t="s">
         <v>140</v>
       </c>
       <c r="C45" s="26"/>
@@ -3368,7 +3368,7 @@
       <c r="A46" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="49" t="s">
         <v>162</v>
       </c>
       <c r="C46" s="26"/>
@@ -3387,7 +3387,7 @@
       <c r="A47" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="49" t="s">
         <v>55</v>
       </c>
       <c r="C47" s="26"/>
@@ -3406,7 +3406,7 @@
       <c r="A48" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="49" t="s">
         <v>120</v>
       </c>
       <c r="C48" s="26"/>
@@ -3423,7 +3423,7 @@
       <c r="A49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="49" t="s">
         <v>104</v>
       </c>
       <c r="C49" s="26"/>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="49" t="s">
         <v>22</v>
       </c>
       <c r="C50" s="26"/>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="49" t="s">
         <v>137</v>
       </c>
       <c r="C51" s="26"/>
@@ -3468,8 +3468,8 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
-      <c r="B52" s="29" t="s">
-        <v>234</v>
+      <c r="B52" s="49" t="s">
+        <v>232</v>
       </c>
       <c r="C52" s="26"/>
       <c r="E52" s="29" t="s">
@@ -3482,7 +3482,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="49" t="s">
         <v>76</v>
       </c>
       <c r="C53" s="26"/>
@@ -3496,8 +3496,8 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
-      <c r="B54" s="29" t="s">
-        <v>236</v>
+      <c r="B54" s="49" t="s">
+        <v>234</v>
       </c>
       <c r="C54" s="26"/>
       <c r="E54" s="29" t="s">
@@ -3510,8 +3510,8 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
-      <c r="B55" s="29" t="s">
-        <v>237</v>
+      <c r="B55" s="49" t="s">
+        <v>235</v>
       </c>
       <c r="C55" s="26"/>
       <c r="E55" s="29"/>
@@ -3522,8 +3522,8 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
-      <c r="B56" s="29" t="s">
-        <v>258</v>
+      <c r="B56" s="49" t="s">
+        <v>252</v>
       </c>
       <c r="C56" s="26"/>
       <c r="E56" s="29"/>
@@ -3534,8 +3534,8 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
-      <c r="B57" s="7" t="s">
-        <v>255</v>
+      <c r="B57" s="49" t="s">
+        <v>249</v>
       </c>
       <c r="C57" s="6"/>
       <c r="E57" s="7"/>
@@ -3544,20 +3544,20 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
-      <c r="B58" s="7" t="s">
-        <v>256</v>
+      <c r="B58" s="49" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
-      <c r="B59" s="7" t="s">
-        <v>254</v>
+      <c r="B59" s="49" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
-      <c r="B60" s="7" t="s">
-        <v>257</v>
+      <c r="B60" s="49" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3571,7 +3571,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3618,10 +3618,10 @@
         <v>155</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D3" s="34"/>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="30" t="s">
         <v>155</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -3655,7 +3655,7 @@
         <v>174</v>
       </c>
       <c r="C5" s="26"/>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="29" t="s">
         <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -3684,7 +3684,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="29" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="C7" s="26"/>
       <c r="E7" s="29" t="s">
@@ -3700,10 +3700,10 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="29" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="C8" s="26"/>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="29" t="s">
         <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -3732,7 +3732,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="29" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="C10" s="26"/>
       <c r="E10" s="29" t="s">
@@ -3748,10 +3748,10 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="29" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="C11" s="26"/>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="29" t="s">
         <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -3764,10 +3764,10 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="29" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C12" s="26"/>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="29" t="s">
         <v>170</v>
       </c>
       <c r="F12" s="7" t="s">
@@ -3812,7 +3812,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="29" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C15" s="26"/>
       <c r="E15" s="29" t="s">
@@ -3847,7 +3847,7 @@
         <v>130</v>
       </c>
       <c r="C17" s="26"/>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="29" t="s">
         <v>175</v>
       </c>
       <c r="F17" s="7" t="s">
@@ -3858,7 +3858,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="29" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C18" s="26"/>
       <c r="E18" s="29" t="s">
@@ -3886,7 +3886,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="29" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C20" s="26"/>
       <c r="E20" s="29" t="s">
@@ -3900,7 +3900,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C21" s="6"/>
       <c r="E21" s="7" t="s">
@@ -3912,7 +3912,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C22" s="6"/>
       <c r="E22" s="7" t="s">

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="266">
   <si>
     <t>Bereich</t>
   </si>
@@ -814,6 +814,12 @@
   </si>
   <si>
     <t>Michael Luger</t>
+  </si>
+  <si>
+    <t>Erwin Pointner</t>
+  </si>
+  <si>
+    <t>Gabriele Ehlers</t>
   </si>
 </sst>
 </file>
@@ -3923,7 +3929,9 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>264</v>
+      </c>
       <c r="C23" s="6"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -3931,7 +3939,9 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>265</v>
+      </c>
       <c r="C24" s="6"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -17,7 +17,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Aufbau!$A$1:$B$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Fest!$B$1:$D$55</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -3577,7 +3577,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="266">
   <si>
     <t>Bereich</t>
   </si>
@@ -816,10 +816,10 @@
     <t>Michael Luger</t>
   </si>
   <si>
-    <t>Erwin Pointner</t>
-  </si>
-  <si>
     <t>Gabriele Ehlers</t>
+  </si>
+  <si>
+    <t>Sabrina Reichl</t>
   </si>
 </sst>
 </file>
@@ -876,18 +876,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="27">
@@ -1230,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1281,8 +1275,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1586,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,14 +2630,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="3" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="50" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
     <col min="4" max="4" width="4.85546875" style="6" customWidth="1"/>
     <col min="5" max="5" width="43.7109375" style="6" customWidth="1"/>
     <col min="6" max="7" width="43.7109375" customWidth="1"/>
@@ -2652,7 +2648,7 @@
       <c r="A1" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="19"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
@@ -2661,7 +2657,7 @@
       <c r="A2" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
       <c r="E2" s="11" t="s">
@@ -2679,7 +2675,7 @@
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="30" t="s">
         <v>107</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2702,7 +2698,7 @@
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="29" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="6"/>
@@ -2722,7 +2718,7 @@
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="29" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="6"/>
@@ -2742,7 +2738,7 @@
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="29" t="s">
         <v>159</v>
       </c>
       <c r="C6" s="6"/>
@@ -2760,7 +2756,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="6"/>
@@ -2778,7 +2774,9 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="29"/>
+      <c r="B8" s="29" t="s">
+        <v>265</v>
+      </c>
       <c r="C8" s="26"/>
       <c r="D8" s="38"/>
       <c r="E8" s="29" t="s">
@@ -2792,7 +2790,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -2807,7 +2805,7 @@
       <c r="A11" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="35"/>
@@ -2818,7 +2816,7 @@
       <c r="A12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="30" t="s">
         <v>109</v>
       </c>
       <c r="C12" s="26" t="s">
@@ -2841,7 +2839,7 @@
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="29" t="s">
         <v>220</v>
       </c>
       <c r="C13" s="26"/>
@@ -2860,7 +2858,7 @@
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="29" t="s">
         <v>221</v>
       </c>
       <c r="C14" s="26"/>
@@ -2879,7 +2877,7 @@
       <c r="A15" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="29" t="s">
         <v>162</v>
       </c>
       <c r="C15" s="26"/>
@@ -2896,7 +2894,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="29" t="s">
         <v>256</v>
       </c>
       <c r="C16" s="26"/>
@@ -2913,7 +2911,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="29" t="s">
         <v>234</v>
       </c>
       <c r="C17" s="26"/>
@@ -2930,7 +2928,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="29" t="s">
         <v>153</v>
       </c>
       <c r="C18" s="26"/>
@@ -2947,7 +2945,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="29" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="26"/>
@@ -2962,7 +2960,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="29" t="s">
         <v>159</v>
       </c>
       <c r="C20" s="26"/>
@@ -2977,7 +2975,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="29" t="s">
         <v>257</v>
       </c>
       <c r="C21" s="26"/>
@@ -3009,7 +3007,7 @@
       <c r="A24" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="35"/>
@@ -3020,7 +3018,7 @@
       <c r="A25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="30" t="s">
         <v>154</v>
       </c>
       <c r="C25" s="26" t="s">
@@ -3043,7 +3041,7 @@
       <c r="A26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="29" t="s">
         <v>92</v>
       </c>
       <c r="C26" s="26"/>
@@ -3062,7 +3060,7 @@
       <c r="A27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="29" t="s">
         <v>104</v>
       </c>
       <c r="C27" s="26"/>
@@ -3081,7 +3079,7 @@
       <c r="A28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="26"/>
@@ -3100,7 +3098,7 @@
       <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="29" t="s">
         <v>127</v>
       </c>
       <c r="C29" s="26"/>
@@ -3119,7 +3117,7 @@
       <c r="A30" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="29" t="s">
         <v>229</v>
       </c>
       <c r="C30" s="26"/>
@@ -3138,7 +3136,7 @@
       <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="29" t="s">
         <v>186</v>
       </c>
       <c r="C31" s="26"/>
@@ -3157,7 +3155,7 @@
       <c r="A32" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="29" t="s">
         <v>236</v>
       </c>
       <c r="C32" s="26"/>
@@ -3176,7 +3174,7 @@
       <c r="A33" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="29" t="s">
         <v>171</v>
       </c>
       <c r="C33" s="26"/>
@@ -3193,7 +3191,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="26"/>
@@ -3208,7 +3206,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="29" t="s">
         <v>258</v>
       </c>
       <c r="C35" s="26"/>
@@ -3223,7 +3221,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="29" t="s">
         <v>259</v>
       </c>
       <c r="C36" s="26"/>
@@ -3240,7 +3238,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="29" t="s">
         <v>251</v>
       </c>
       <c r="C37" s="26"/>
@@ -3255,7 +3253,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="29" t="s">
         <v>255</v>
       </c>
       <c r="C38" s="26"/>
@@ -3270,7 +3268,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="29" t="s">
         <v>253</v>
       </c>
       <c r="C39" s="26"/>
@@ -3285,7 +3283,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="29" t="s">
         <v>254</v>
       </c>
       <c r="C40" s="6"/>
@@ -3302,7 +3300,7 @@
       <c r="A42" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="B42" s="36"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="35"/>
@@ -3313,7 +3311,7 @@
       <c r="A43" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="30" t="s">
         <v>109</v>
       </c>
       <c r="C43" s="26" t="s">
@@ -3336,7 +3334,7 @@
       <c r="A44" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="29" t="s">
         <v>218</v>
       </c>
       <c r="C44" s="26"/>
@@ -3355,7 +3353,7 @@
       <c r="A45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="29" t="s">
         <v>140</v>
       </c>
       <c r="C45" s="26"/>
@@ -3374,7 +3372,7 @@
       <c r="A46" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="29" t="s">
         <v>162</v>
       </c>
       <c r="C46" s="26"/>
@@ -3393,7 +3391,7 @@
       <c r="A47" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="29" t="s">
         <v>55</v>
       </c>
       <c r="C47" s="26"/>
@@ -3412,7 +3410,7 @@
       <c r="A48" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="29" t="s">
         <v>120</v>
       </c>
       <c r="C48" s="26"/>
@@ -3429,7 +3427,7 @@
       <c r="A49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="29" t="s">
         <v>104</v>
       </c>
       <c r="C49" s="26"/>
@@ -3444,7 +3442,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C50" s="26"/>
@@ -3459,7 +3457,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="29" t="s">
         <v>137</v>
       </c>
       <c r="C51" s="26"/>
@@ -3474,7 +3472,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
-      <c r="B52" s="49" t="s">
+      <c r="B52" s="29" t="s">
         <v>232</v>
       </c>
       <c r="C52" s="26"/>
@@ -3488,7 +3486,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="29" t="s">
         <v>76</v>
       </c>
       <c r="C53" s="26"/>
@@ -3502,8 +3500,8 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
-      <c r="B54" s="49" t="s">
-        <v>234</v>
+      <c r="B54" s="29" t="s">
+        <v>235</v>
       </c>
       <c r="C54" s="26"/>
       <c r="E54" s="29" t="s">
@@ -3516,8 +3514,8 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
-      <c r="B55" s="49" t="s">
-        <v>235</v>
+      <c r="B55" s="29" t="s">
+        <v>252</v>
       </c>
       <c r="C55" s="26"/>
       <c r="E55" s="29"/>
@@ -3528,8 +3526,8 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
-      <c r="B56" s="49" t="s">
-        <v>252</v>
+      <c r="B56" s="29" t="s">
+        <v>249</v>
       </c>
       <c r="C56" s="26"/>
       <c r="E56" s="29"/>
@@ -3540,8 +3538,8 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
-      <c r="B57" s="49" t="s">
-        <v>249</v>
+      <c r="B57" s="29" t="s">
+        <v>250</v>
       </c>
       <c r="C57" s="6"/>
       <c r="E57" s="7"/>
@@ -3550,21 +3548,19 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
-      <c r="B58" s="49" t="s">
-        <v>250</v>
+      <c r="B58" s="29" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
-      <c r="B59" s="49" t="s">
-        <v>248</v>
+      <c r="B59" s="29" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
-      <c r="B60" s="49" t="s">
-        <v>251</v>
-      </c>
+      <c r="B60" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3576,8 +3572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3939,9 +3935,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
-        <v>265</v>
-      </c>
+      <c r="B24" s="7"/>
       <c r="C24" s="6"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="267">
   <si>
     <t>Bereich</t>
   </si>
@@ -820,6 +820,9 @@
   </si>
   <si>
     <t>Sabrina Reichl</t>
+  </si>
+  <si>
+    <t>Walter Breselmayr</t>
   </si>
 </sst>
 </file>
@@ -1582,7 +1585,7 @@
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2335,7 +2338,7 @@
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
       <c r="D41" s="43" t="s">
-        <v>84</v>
+        <v>266</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="41"/>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,8 @@
     <sheet name="Tabelle1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Abbau!$A$1:$B$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Aufbau!$A$1:$B$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Abbau!$A$1:$B$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Aufbau!$A$1:$B$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Fest!$B$1:$D$55</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="270">
   <si>
     <t>Bereich</t>
   </si>
@@ -823,13 +823,22 @@
   </si>
   <si>
     <t>Walter Breselmayr</t>
+  </si>
+  <si>
+    <t>Maria Brandstötter</t>
+  </si>
+  <si>
+    <t>Rudolf Huber</t>
+  </si>
+  <si>
+    <t>Christoph Huber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -878,6 +887,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1227,16 +1260,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -1272,15 +1302,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1584,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,7 +1644,7 @@
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="6" width="8.140625" style="6" customWidth="1"/>
+    <col min="5" max="6" width="8.140625" style="4" customWidth="1"/>
     <col min="7" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1605,1021 +1655,1062 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28">
+      <c r="D1" s="25">
         <v>41825</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="G1" s="27" t="s">
+      <c r="E1" s="37"/>
+      <c r="G1" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="24" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="24" t="s">
+    <row r="4" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="42" t="s">
+    <row r="5" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="47"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="26" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="42" t="s">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="26" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="42" t="s">
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="26" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="24" t="s">
+    <row r="8" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="38"/>
+      <c r="G8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="43" t="s">
+    <row r="9" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="47"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="26" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="38"/>
+      <c r="G10" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="24" t="s">
+    <row r="11" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="38"/>
+      <c r="G11" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="24" t="s">
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="42" t="s">
+      <c r="F12" s="38"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="26" t="s">
+      <c r="E13" s="23"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="25" t="s">
+    <row r="14" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="47"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="38"/>
+      <c r="G14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="38"/>
+      <c r="G15" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="42" t="s">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="47"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="26" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="42" t="s">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="26" t="s">
+      <c r="E17" s="23"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="42" t="s">
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="26" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="42" t="s">
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="26" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="42" t="s">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="26" t="s">
+      <c r="E20" s="23"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="42" t="s">
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="47"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="26" t="s">
+      <c r="E21" s="23"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="47"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="26" t="s">
+      <c r="E22" s="23"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="42" t="s">
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="26" t="s">
+      <c r="E23" s="23"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="42" t="s">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="26" t="s">
+      <c r="E24" s="23"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="I24" s="22"/>
-    </row>
-    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="47" t="s">
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="47"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-    </row>
-    <row r="26" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="25" t="s">
+      <c r="E25" s="23"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="47"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="9" t="s">
+      <c r="F26" s="38"/>
+      <c r="G26" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="3" t="s">
+      <c r="F27" s="38"/>
+      <c r="G27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="25" t="s">
+    <row r="28" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="47"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="9" t="s">
+      <c r="F28" s="38"/>
+      <c r="G28" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+    <row r="29" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="47"/>
+      <c r="B29" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-    </row>
-    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="24" t="s">
+      <c r="F29" s="38"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+    </row>
+    <row r="30" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="47"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-    </row>
-    <row r="31" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="46" t="s">
+      <c r="F30" s="38"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="47"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-    </row>
-    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="F31" s="38"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="3" t="s">
+      <c r="F32" s="38"/>
+      <c r="G32" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="42" t="s">
+    <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="47"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="26" t="s">
+      <c r="E33" s="23"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="I33" s="15"/>
-    </row>
-    <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-      <c r="C34" s="6" t="s">
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="47"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="26" t="s">
+      <c r="E34" s="23"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-    </row>
-    <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="42" t="s">
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="47"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="26" t="s">
+      <c r="E35" s="23"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15" t="s">
+      <c r="H35" s="12"/>
+      <c r="I35" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="42" t="s">
+    <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="47"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="26" t="s">
+      <c r="E36" s="23"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7" t="s">
+      <c r="H36" s="5"/>
+      <c r="I36" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="25" t="s">
+    <row r="37" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="47"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="9" t="s">
+      <c r="F37" s="38"/>
+      <c r="G37" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10" t="s">
+      <c r="H37" s="7"/>
+      <c r="I37" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="3" t="s">
+      <c r="F38" s="38"/>
+      <c r="G38" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="24" t="s">
+    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="47"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="F39" s="41"/>
-      <c r="G39" s="6" t="s">
+      <c r="F39" s="38"/>
+      <c r="G39" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="24" t="s">
+    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="47"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="6" t="s">
+      <c r="F40" s="38"/>
+      <c r="G40" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="43" t="s">
+    <row r="41" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="47"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="60" t="s">
         <v>266</v>
       </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="26" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22" t="s">
+      <c r="H41" s="19"/>
+      <c r="I41" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="F42" s="41"/>
-      <c r="G42" s="3" t="s">
+      <c r="F42" s="38"/>
+      <c r="G42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="H42" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="23" t="s">
+      <c r="I42" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="42" t="s">
+    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="47"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="26" t="s">
+      <c r="E43" s="23"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="H43" s="24" t="s">
+      <c r="H43" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I43" s="24" t="s">
+      <c r="I43" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="24" t="s">
+    <row r="44" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="47"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="41"/>
-      <c r="G44" s="6" t="s">
+      <c r="F44" s="38"/>
+      <c r="G44" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-    </row>
-    <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="24" t="s">
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+    </row>
+    <row r="45" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="47"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="41"/>
-      <c r="G45" s="6" t="s">
+      <c r="F45" s="38"/>
+      <c r="G45" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="H45" s="24" t="s">
+      <c r="H45" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="24" t="s">
+      <c r="I45" s="21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="25" t="s">
+    <row r="46" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="47"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="F46" s="41"/>
-      <c r="G46" s="9" t="s">
+      <c r="F46" s="38"/>
+      <c r="G46" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H46" s="25" t="s">
+      <c r="H46" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="I46" s="25" t="s">
+      <c r="I46" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="41"/>
-      <c r="G47" s="3" t="s">
+      <c r="F47" s="38"/>
+      <c r="G47" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="42" t="s">
+    <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="47"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="26"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="26" t="s">
+      <c r="E48" s="23"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-    </row>
-    <row r="49" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="8"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="25" t="s">
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+    </row>
+    <row r="49" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="47"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="9" t="s">
+      <c r="F49" s="38"/>
+      <c r="G49" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="H49" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="I49" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="44" t="s">
+      <c r="D50" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="9" t="s">
+      <c r="F50" s="38"/>
+      <c r="G50" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="H50" s="14" t="s">
+      <c r="H50" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="I50" s="14" t="s">
+      <c r="I50" s="11" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="F51" s="41"/>
-      <c r="G51" s="12" t="s">
+      <c r="F51" s="38"/>
+      <c r="G51" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="H51" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I51" s="13" t="s">
+      <c r="I51" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="41"/>
-      <c r="G52" s="6" t="s">
+      <c r="F52" s="38"/>
+      <c r="G52" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I52" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="8"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="25" t="s">
+    <row r="53" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="47"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="F53" s="41"/>
-      <c r="G53" s="9" t="s">
+      <c r="F53" s="38"/>
+      <c r="G53" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-    </row>
-    <row r="54" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="44" t="s">
+      <c r="D54" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="F54" s="41"/>
-      <c r="G54" s="9" t="s">
+      <c r="F54" s="38"/>
+      <c r="G54" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H54" s="14" t="s">
+      <c r="H54" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I54" s="14"/>
-    </row>
-    <row r="55" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="I54" s="11"/>
+    </row>
+    <row r="55" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="44" t="s">
+      <c r="D55" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="F55" s="41"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="14" t="s">
+      <c r="F55" s="38"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="I55" s="14" t="s">
+      <c r="I55" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2631,939 +2722,983 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" style="50" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="40" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" style="4" customWidth="1"/>
     <col min="6" max="7" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="11" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="29" t="s">
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="29" t="s">
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="29" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="47"/>
+      <c r="E9"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B11" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C11" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="30" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F11" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G11" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B12" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="E13" s="29" t="s">
+      <c r="C12" s="51"/>
+      <c r="E12" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B13" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="E14" s="29" t="s">
+      <c r="C13" s="51"/>
+      <c r="E13" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B14" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="E15" s="29" t="s">
+      <c r="C14" s="51"/>
+      <c r="E14" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="29" t="s">
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="E16" s="29" t="s">
+      <c r="C15" s="51"/>
+      <c r="E15" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="29" t="s">
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="E17" s="29" t="s">
+      <c r="C16" s="51"/>
+      <c r="E16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="29" t="s">
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="E18" s="29" t="s">
+      <c r="C17" s="51"/>
+      <c r="E17" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="29" t="s">
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="E19" s="29" t="s">
+      <c r="C18" s="51"/>
+      <c r="E18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="29" t="s">
+      <c r="G18" s="5"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="E20" s="29" t="s">
+      <c r="C19" s="51"/>
+      <c r="E19" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="29" t="s">
+      <c r="G19" s="5"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="E21" s="29" t="s">
+      <c r="C20" s="51"/>
+      <c r="E20" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="26"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="7" t="s">
+      <c r="G20" s="5"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="51"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22" s="51"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="51"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="45"/>
+      <c r="B25" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="C25" s="51"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="G25" s="5"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="47"/>
+      <c r="E26"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B28" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C28" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="30" t="s">
+      <c r="D28" s="35"/>
+      <c r="E28" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F28" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G28" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="H28" s="17"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B29" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="E26" s="29" t="s">
+      <c r="C29" s="51"/>
+      <c r="E29" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B30" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="E27" s="29" t="s">
+      <c r="C30" s="51"/>
+      <c r="E30" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F30" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B31" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="E28" s="29" t="s">
+      <c r="C31" s="51"/>
+      <c r="E31" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F31" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G31" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B32" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="E29" s="29" t="s">
+      <c r="C32" s="51"/>
+      <c r="E32" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F32" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G32" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B33" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="E30" s="29" t="s">
+      <c r="C33" s="51"/>
+      <c r="E33" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F33" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G33" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B34" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="E31" s="29" t="s">
+      <c r="C34" s="51"/>
+      <c r="E34" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F34" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G34" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B35" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="E32" s="29" t="s">
+      <c r="C35" s="51"/>
+      <c r="E35" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F35" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G35" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B36" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="E33" s="29" t="s">
+      <c r="C36" s="51"/>
+      <c r="E36" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F36" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="29" t="s">
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="45"/>
+      <c r="B37" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="E34" s="29" t="s">
+      <c r="C37" s="51"/>
+      <c r="E37" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F37" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="29" t="s">
+      <c r="G37" s="5"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="45"/>
+      <c r="B38" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="E35" s="29" t="s">
+      <c r="C38" s="51"/>
+      <c r="E38" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F38" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="29" t="s">
+      <c r="G38" s="5"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="45"/>
+      <c r="B39" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="E36" s="29" t="s">
+      <c r="C39" s="51"/>
+      <c r="E39" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F39" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G39" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="29" t="s">
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="45"/>
+      <c r="B40" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="E37" s="29" t="s">
+      <c r="C40" s="51"/>
+      <c r="E40" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F40" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="29" t="s">
+      <c r="G40" s="5"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="45"/>
+      <c r="B41" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="E38" s="29" t="s">
+      <c r="C41" s="51"/>
+      <c r="E41" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F41" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="29" t="s">
+      <c r="G41" s="5"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="45"/>
+      <c r="B42" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="E39" s="29" t="s">
+      <c r="C42" s="51"/>
+      <c r="E42" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F42" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="29" t="s">
+      <c r="G42" s="5"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="45"/>
+      <c r="B43" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41"/>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+      <c r="C43" s="50"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="47"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="47"/>
+      <c r="E44"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="18"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+      <c r="B45" s="42"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="15"/>
+    </row>
+    <row r="46" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B46" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C46" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="30" t="s">
+      <c r="D46" s="31"/>
+      <c r="E46" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F46" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G46" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H43" s="21"/>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="H46" s="18"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B47" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="E44" s="29" t="s">
+      <c r="C47" s="51"/>
+      <c r="E47" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F47" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G47" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B48" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="E45" s="29" t="s">
+      <c r="C48" s="51"/>
+      <c r="E48" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F48" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G48" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B49" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="E46" s="29" t="s">
+      <c r="C49" s="51"/>
+      <c r="E49" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F49" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G49" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B50" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="26"/>
-      <c r="E47" s="29" t="s">
+      <c r="C50" s="51"/>
+      <c r="E50" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F50" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G50" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B51" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="E48" s="29" t="s">
+      <c r="C51" s="51"/>
+      <c r="E51" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F51" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="G51" s="5"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B52" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="E49" s="29" t="s">
+      <c r="C52" s="51"/>
+      <c r="E52" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F52" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="29" t="s">
+      <c r="G52" s="5"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="45"/>
+      <c r="B53" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="E50" s="29" t="s">
+      <c r="C53" s="51"/>
+      <c r="E53" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F53" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="29" t="s">
+      <c r="G53" s="5"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="45"/>
+      <c r="B54" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="E51" s="29" t="s">
+      <c r="C54" s="51"/>
+      <c r="E54" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F54" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="29" t="s">
+      <c r="G54" s="5"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="45"/>
+      <c r="B55" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="C52" s="26"/>
-      <c r="E52" s="29" t="s">
+      <c r="C55" s="51"/>
+      <c r="E55" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F55" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="29" t="s">
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="45"/>
+      <c r="B56" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="26"/>
-      <c r="E53" s="29" t="s">
+      <c r="C56" s="51"/>
+      <c r="E56" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F56" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="29" t="s">
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="45"/>
+      <c r="B57" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="C54" s="26"/>
-      <c r="E54" s="29" t="s">
+      <c r="C57" s="51"/>
+      <c r="E57" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F57" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="29" t="s">
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="45"/>
+      <c r="B58" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="C55" s="26"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="7" t="s">
+      <c r="C58" s="51"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G55" s="7"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="29" t="s">
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="45"/>
+      <c r="B59" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="C56" s="26"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="7" t="s">
+      <c r="C59" s="51"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G56" s="7"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="29" t="s">
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="45"/>
+      <c r="B60" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="29" t="s">
+      <c r="C60" s="50"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="45"/>
+      <c r="B61" s="46" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="29" t="s">
+      <c r="C61" s="47"/>
+    </row>
+    <row r="62" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="45"/>
+      <c r="B62" s="46" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="29"/>
+      <c r="C62" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3573,10 +3708,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3584,381 +3719,393 @@
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="34.28515625" customWidth="1"/>
     <col min="6" max="7" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="37" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="15" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="23"/>
+      <c r="E4" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="E5" s="29" t="s">
+      <c r="C5" s="23"/>
+      <c r="E5" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="E6" s="29" t="s">
+      <c r="C6" s="23"/>
+      <c r="E6" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="E7" s="29" t="s">
+      <c r="C7" s="23"/>
+      <c r="E7" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="E8" s="29" t="s">
+      <c r="C8" s="23"/>
+      <c r="E8" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="E9" s="29" t="s">
+      <c r="C9" s="23"/>
+      <c r="E9" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="29" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="E10" s="29" t="s">
+      <c r="C10" s="23"/>
+      <c r="E10" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="E11" s="29" t="s">
+      <c r="C11" s="23"/>
+      <c r="E11" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="E12" s="29" t="s">
+      <c r="C12" s="23"/>
+      <c r="E12" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="29" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="E13" s="29" t="s">
+      <c r="C13" s="23"/>
+      <c r="E13" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="E14" s="29" t="s">
+      <c r="C14" s="23"/>
+      <c r="E14" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="E15" s="29" t="s">
+      <c r="C15" s="23"/>
+      <c r="E15" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="29" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="E16" s="29" t="s">
+      <c r="C16" s="23"/>
+      <c r="E16" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="29" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="E17" s="29" t="s">
+      <c r="C17" s="23"/>
+      <c r="E17" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="E18" s="29" t="s">
+      <c r="C18" s="23"/>
+      <c r="E18" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="29" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="E19" s="29" t="s">
+      <c r="C19" s="23"/>
+      <c r="E19" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="29" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="E20" s="29" t="s">
+      <c r="C20" s="23"/>
+      <c r="E20" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="E21" s="7" t="s">
+      <c r="C21" s="4"/>
+      <c r="E21" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="E22" s="7" t="s">
+      <c r="C22" s="4"/>
+      <c r="E22" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="C23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="271">
   <si>
     <t>Bereich</t>
   </si>
@@ -832,6 +832,9 @@
   </si>
   <si>
     <t>Christoph Huber</t>
+  </si>
+  <si>
+    <t>Erwin Pointner</t>
   </si>
 </sst>
 </file>
@@ -3711,7 +3714,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4073,7 +4076,9 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Aufbau!$A$1:$B$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Fest!$B$1:$D$55</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="271">
   <si>
     <t>Bereich</t>
   </si>
@@ -840,8 +840,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1349,7 +1349,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -1423,7 +1423,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1458,7 +1457,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -1634,14 +1632,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -1651,7 +1649,7 @@
     <col min="7" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="21.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>207</v>
       </c>
@@ -1672,7 +1670,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="13.5" customHeight="1">
       <c r="A2" s="47" t="s">
         <v>111</v>
       </c>
@@ -1696,7 +1694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="13.5" customHeight="1">
       <c r="A3" s="47"/>
       <c r="B3" s="55" t="s">
         <v>90</v>
@@ -1718,7 +1716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="13.5" customHeight="1">
       <c r="A4" s="47"/>
       <c r="B4" s="55"/>
       <c r="C4" s="50"/>
@@ -1736,7 +1734,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="13.5" customHeight="1">
       <c r="A5" s="47"/>
       <c r="B5" s="55"/>
       <c r="C5" s="50"/>
@@ -1753,7 +1751,7 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="13.5" customHeight="1">
       <c r="A6" s="47"/>
       <c r="B6" s="55"/>
       <c r="C6" s="50"/>
@@ -1770,7 +1768,7 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="13.5" customHeight="1">
       <c r="A7" s="47"/>
       <c r="B7" s="55"/>
       <c r="C7" s="50"/>
@@ -1789,7 +1787,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="13.5" customHeight="1">
       <c r="A8" s="47"/>
       <c r="B8" s="55"/>
       <c r="C8" s="50"/>
@@ -1807,7 +1805,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
       <c r="A9" s="47"/>
       <c r="B9" s="58"/>
       <c r="C9" s="59"/>
@@ -1826,7 +1824,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="13.5" customHeight="1">
       <c r="A10" s="47" t="s">
         <v>53</v>
       </c>
@@ -1850,7 +1848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="13.5" customHeight="1">
       <c r="A11" s="47"/>
       <c r="B11" s="55"/>
       <c r="C11" s="50"/>
@@ -1867,7 +1865,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="13.5" customHeight="1">
       <c r="A12" s="47"/>
       <c r="B12" s="55"/>
       <c r="C12" s="50"/>
@@ -1879,7 +1877,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="13.5" customHeight="1">
       <c r="A13" s="47"/>
       <c r="B13" s="55"/>
       <c r="C13" s="50"/>
@@ -1898,7 +1896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
       <c r="A14" s="47"/>
       <c r="B14" s="58"/>
       <c r="C14" s="59"/>
@@ -1919,7 +1917,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="13.5" customHeight="1">
       <c r="A15" s="47" t="s">
         <v>70</v>
       </c>
@@ -1946,7 +1944,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="13.5" customHeight="1">
       <c r="A16" s="47"/>
       <c r="B16" s="55"/>
       <c r="C16" s="50"/>
@@ -1968,7 +1966,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="13.5" customHeight="1">
       <c r="A17" s="47"/>
       <c r="B17" s="55"/>
       <c r="C17" s="50"/>
@@ -1990,7 +1988,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="13.5" customHeight="1">
       <c r="A18" s="47"/>
       <c r="B18" s="55"/>
       <c r="C18" s="50"/>
@@ -2012,7 +2010,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="13.5" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="55"/>
       <c r="C19" s="50"/>
@@ -2034,7 +2032,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="13.5" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="55"/>
       <c r="C20" s="50"/>
@@ -2056,7 +2054,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="13.5" customHeight="1">
       <c r="A21" s="47"/>
       <c r="B21" s="55"/>
       <c r="C21" s="50"/>
@@ -2078,7 +2076,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="13.5" customHeight="1">
       <c r="A22" s="47"/>
       <c r="B22" s="55"/>
       <c r="C22" s="50" t="s">
@@ -2102,7 +2100,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="13.5" customHeight="1">
       <c r="A23" s="47"/>
       <c r="B23" s="55"/>
       <c r="C23" s="50"/>
@@ -2124,7 +2122,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="13.5" customHeight="1">
       <c r="A24" s="47"/>
       <c r="B24" s="55"/>
       <c r="C24" s="50"/>
@@ -2141,7 +2139,7 @@
       </c>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="13.5" customHeight="1">
       <c r="A25" s="47"/>
       <c r="B25" s="55"/>
       <c r="C25" s="50"/>
@@ -2154,7 +2152,7 @@
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
       <c r="A26" s="47"/>
       <c r="B26" s="58"/>
       <c r="C26" s="59"/>
@@ -2170,7 +2168,7 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="13.5" customHeight="1">
       <c r="A27" s="47" t="s">
         <v>244</v>
       </c>
@@ -2194,7 +2192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
       <c r="A28" s="47"/>
       <c r="B28" s="58"/>
       <c r="C28" s="59"/>
@@ -2212,7 +2210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="13.5" customHeight="1">
       <c r="A29" s="47"/>
       <c r="B29" s="52" t="s">
         <v>228</v>
@@ -2228,7 +2226,7 @@
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
     </row>
-    <row r="30" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="13.5" customHeight="1">
       <c r="A30" s="47"/>
       <c r="B30" s="55"/>
       <c r="C30" s="50"/>
@@ -2240,7 +2238,7 @@
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
     </row>
-    <row r="31" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
       <c r="A31" s="47"/>
       <c r="B31" s="58"/>
       <c r="C31" s="59"/>
@@ -2252,7 +2250,7 @@
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
     </row>
-    <row r="32" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="13.5" customHeight="1">
       <c r="A32" s="47" t="s">
         <v>39</v>
       </c>
@@ -2276,7 +2274,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="13.5" customHeight="1">
       <c r="A33" s="47"/>
       <c r="B33" s="55"/>
       <c r="C33" s="50"/>
@@ -2293,7 +2291,7 @@
       </c>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="13.5" customHeight="1">
       <c r="A34" s="47"/>
       <c r="B34" s="55"/>
       <c r="C34" s="50" t="s">
@@ -2310,7 +2308,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="13.5" customHeight="1">
       <c r="A35" s="47"/>
       <c r="B35" s="55"/>
       <c r="C35" s="50"/>
@@ -2327,7 +2325,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="13.5" customHeight="1">
       <c r="A36" s="47"/>
       <c r="B36" s="55"/>
       <c r="C36" s="50"/>
@@ -2344,7 +2342,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A37" s="47"/>
       <c r="B37" s="58"/>
       <c r="C37" s="59"/>
@@ -2360,7 +2358,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="13.5" customHeight="1">
       <c r="A38" s="47" t="s">
         <v>53</v>
       </c>
@@ -2384,7 +2382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="13.5" customHeight="1">
       <c r="A39" s="47"/>
       <c r="B39" s="55"/>
       <c r="C39" s="50"/>
@@ -2402,7 +2400,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="13.5" customHeight="1">
       <c r="A40" s="47"/>
       <c r="B40" s="55"/>
       <c r="C40" s="50"/>
@@ -2420,7 +2418,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A41" s="47"/>
       <c r="B41" s="58"/>
       <c r="C41" s="59"/>
@@ -2437,7 +2435,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="13.5" customHeight="1">
       <c r="A42" s="47" t="s">
         <v>29</v>
       </c>
@@ -2461,7 +2459,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="47"/>
       <c r="B43" s="55"/>
       <c r="C43" s="50"/>
@@ -2480,7 +2478,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="13.5" customHeight="1">
       <c r="A44" s="47"/>
       <c r="B44" s="55"/>
       <c r="C44" s="50"/>
@@ -2494,7 +2492,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
     </row>
-    <row r="45" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="13.5" customHeight="1">
       <c r="A45" s="47"/>
       <c r="B45" s="55"/>
       <c r="C45" s="50"/>
@@ -2512,7 +2510,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A46" s="47"/>
       <c r="B46" s="58"/>
       <c r="C46" s="59"/>
@@ -2530,7 +2528,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="47" t="s">
         <v>100</v>
       </c>
@@ -2554,7 +2552,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="13.5" customHeight="1">
       <c r="A48" s="47"/>
       <c r="B48" s="55"/>
       <c r="C48" s="50"/>
@@ -2569,7 +2567,7 @@
       <c r="H48" s="28"/>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A49" s="47"/>
       <c r="B49" s="58"/>
       <c r="C49" s="59"/>
@@ -2587,7 +2585,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A50" s="47" t="s">
         <v>70</v>
       </c>
@@ -2611,7 +2609,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A51" s="47" t="s">
         <v>77</v>
       </c>
@@ -2635,7 +2633,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="13.5" customHeight="1">
       <c r="A52" s="47" t="s">
         <v>53</v>
       </c>
@@ -2659,7 +2657,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A53" s="47"/>
       <c r="B53" s="58"/>
       <c r="C53" s="59"/>
@@ -2673,7 +2671,7 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
     </row>
-    <row r="54" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A54" s="47" t="s">
         <v>245</v>
       </c>
@@ -2695,7 +2693,7 @@
       </c>
       <c r="I54" s="11"/>
     </row>
-    <row r="55" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A55" s="47" t="s">
         <v>39</v>
       </c>
@@ -2724,14 +2722,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" style="40" customWidth="1"/>
@@ -2741,7 +2739,7 @@
     <col min="6" max="7" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="21.75" thickBot="1">
       <c r="A1" s="16" t="s">
         <v>206</v>
       </c>
@@ -2750,7 +2748,7 @@
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A2" s="41" t="s">
         <v>205</v>
       </c>
@@ -2768,7 +2766,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="13.5" customHeight="1">
       <c r="A3" s="43" t="s">
         <v>35</v>
       </c>
@@ -2791,7 +2789,7 @@
       <c r="H3" s="17"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="13.5" customHeight="1">
       <c r="A4" s="45" t="s">
         <v>37</v>
       </c>
@@ -2811,7 +2809,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="45" t="s">
         <v>36</v>
       </c>
@@ -2831,7 +2829,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="13.5" customHeight="1">
       <c r="A6" s="45" t="s">
         <v>38</v>
       </c>
@@ -2851,7 +2849,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="13.5" customHeight="1">
       <c r="A7" s="45"/>
       <c r="B7" s="46" t="s">
         <v>28</v>
@@ -2869,7 +2867,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="13.5" customHeight="1">
       <c r="A8" s="45"/>
       <c r="B8" s="46" t="s">
         <v>265</v>
@@ -2885,14 +2883,14 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="12" customHeight="1" thickBot="1">
       <c r="A9" s="47"/>
       <c r="B9" s="48"/>
       <c r="C9" s="47"/>
       <c r="E9"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A10" s="41" t="s">
         <v>204</v>
       </c>
@@ -2903,7 +2901,7 @@
       <c r="F10" s="36"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="13.5" customHeight="1">
       <c r="A11" s="43" t="s">
         <v>35</v>
       </c>
@@ -2926,7 +2924,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="13.5" customHeight="1">
       <c r="A12" s="45" t="s">
         <v>41</v>
       </c>
@@ -2945,7 +2943,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="13.5" customHeight="1">
       <c r="A13" s="45" t="s">
         <v>42</v>
       </c>
@@ -2964,7 +2962,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="13.5" customHeight="1">
       <c r="A14" s="45" t="s">
         <v>150</v>
       </c>
@@ -2983,7 +2981,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="13.5" customHeight="1">
       <c r="A15" s="45"/>
       <c r="B15" s="46" t="s">
         <v>256</v>
@@ -3000,7 +2998,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="13.5" customHeight="1">
       <c r="A16" s="45"/>
       <c r="B16" s="46" t="s">
         <v>234</v>
@@ -3017,7 +3015,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="13.5" customHeight="1">
       <c r="A17" s="45"/>
       <c r="B17" s="46" t="s">
         <v>153</v>
@@ -3034,7 +3032,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="13.5" customHeight="1">
       <c r="A18" s="45"/>
       <c r="B18" s="46" t="s">
         <v>23</v>
@@ -3049,7 +3047,7 @@
       <c r="G18" s="5"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="13.5" customHeight="1">
       <c r="A19" s="45"/>
       <c r="B19" s="46" t="s">
         <v>159</v>
@@ -3064,7 +3062,7 @@
       <c r="G19" s="5"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="13.5" customHeight="1">
       <c r="A20" s="45"/>
       <c r="B20" s="46" t="s">
         <v>257</v>
@@ -3079,7 +3077,7 @@
       <c r="G20" s="5"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="13.5" customHeight="1">
       <c r="A21" s="45"/>
       <c r="B21" s="46" t="s">
         <v>104</v>
@@ -3090,7 +3088,7 @@
       <c r="G21" s="5"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="13.5" customHeight="1">
       <c r="A22" s="45"/>
       <c r="B22" s="46" t="s">
         <v>267</v>
@@ -3101,7 +3099,7 @@
       <c r="G22" s="5"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="13.5" customHeight="1">
       <c r="A23" s="45"/>
       <c r="B23" s="46" t="s">
         <v>56</v>
@@ -3112,7 +3110,7 @@
       <c r="G23" s="5"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="13.5" customHeight="1">
       <c r="A24" s="45"/>
       <c r="B24" s="46" t="s">
         <v>268</v>
@@ -3123,7 +3121,7 @@
       <c r="G24" s="5"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="13.5" customHeight="1">
       <c r="A25" s="45"/>
       <c r="B25" s="46" t="s">
         <v>269</v>
@@ -3136,14 +3134,14 @@
       <c r="G25" s="5"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="12" customHeight="1" thickBot="1">
       <c r="A26" s="47"/>
       <c r="B26" s="48"/>
       <c r="C26" s="47"/>
       <c r="E26"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A27" s="41" t="s">
         <v>203</v>
       </c>
@@ -3154,7 +3152,7 @@
       <c r="F27" s="36"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="13.5" customHeight="1">
       <c r="A28" s="43" t="s">
         <v>35</v>
       </c>
@@ -3177,7 +3175,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="13.5" customHeight="1">
       <c r="A29" s="45" t="s">
         <v>57</v>
       </c>
@@ -3196,7 +3194,7 @@
       </c>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="13.5" customHeight="1">
       <c r="A30" s="45" t="s">
         <v>47</v>
       </c>
@@ -3215,7 +3213,7 @@
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="13.5" customHeight="1">
       <c r="A31" s="45" t="s">
         <v>43</v>
       </c>
@@ -3234,7 +3232,7 @@
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="13.5" customHeight="1">
       <c r="A32" s="45" t="s">
         <v>44</v>
       </c>
@@ -3253,7 +3251,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="13.5" customHeight="1">
       <c r="A33" s="45" t="s">
         <v>45</v>
       </c>
@@ -3272,7 +3270,7 @@
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="13.5" customHeight="1">
       <c r="A34" s="45" t="s">
         <v>58</v>
       </c>
@@ -3291,7 +3289,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="13.5" customHeight="1">
       <c r="A35" s="45" t="s">
         <v>181</v>
       </c>
@@ -3310,7 +3308,7 @@
       </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="13.5" customHeight="1">
       <c r="A36" s="45" t="s">
         <v>99</v>
       </c>
@@ -3329,7 +3327,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="13.5" customHeight="1">
       <c r="A37" s="45"/>
       <c r="B37" s="46" t="s">
         <v>63</v>
@@ -3344,7 +3342,7 @@
       <c r="G37" s="5"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="13.5" customHeight="1">
       <c r="A38" s="45"/>
       <c r="B38" s="46" t="s">
         <v>258</v>
@@ -3359,7 +3357,7 @@
       <c r="G38" s="5"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="13.5" customHeight="1">
       <c r="A39" s="45"/>
       <c r="B39" s="46" t="s">
         <v>259</v>
@@ -3376,7 +3374,7 @@
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="13.5" customHeight="1">
       <c r="A40" s="45"/>
       <c r="B40" s="46" t="s">
         <v>251</v>
@@ -3391,7 +3389,7 @@
       <c r="G40" s="5"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="13.5" customHeight="1">
       <c r="A41" s="45"/>
       <c r="B41" s="46" t="s">
         <v>255</v>
@@ -3406,7 +3404,7 @@
       <c r="G41" s="5"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="13.5" customHeight="1">
       <c r="A42" s="45"/>
       <c r="B42" s="46" t="s">
         <v>253</v>
@@ -3421,7 +3419,7 @@
       <c r="G42" s="5"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="13.5" customHeight="1">
       <c r="A43" s="45"/>
       <c r="B43" s="46" t="s">
         <v>254</v>
@@ -3432,14 +3430,14 @@
       <c r="G43" s="5"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="12" customHeight="1" thickBot="1">
       <c r="A44" s="47"/>
       <c r="B44" s="48"/>
       <c r="C44" s="47"/>
       <c r="E44"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A45" s="41" t="s">
         <v>202</v>
       </c>
@@ -3450,7 +3448,7 @@
       <c r="F45" s="36"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="13.5" customHeight="1">
       <c r="A46" s="43" t="s">
         <v>35</v>
       </c>
@@ -3473,7 +3471,7 @@
       <c r="H46" s="18"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="13.5" customHeight="1">
       <c r="A47" s="45" t="s">
         <v>46</v>
       </c>
@@ -3492,7 +3490,7 @@
       </c>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="13.5" customHeight="1">
       <c r="A48" s="45" t="s">
         <v>48</v>
       </c>
@@ -3511,7 +3509,7 @@
       </c>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="13.5" customHeight="1">
       <c r="A49" s="45" t="s">
         <v>180</v>
       </c>
@@ -3530,7 +3528,7 @@
       </c>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="13.5" customHeight="1">
       <c r="A50" s="45" t="s">
         <v>49</v>
       </c>
@@ -3549,7 +3547,7 @@
       </c>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="13.5" customHeight="1">
       <c r="A51" s="45" t="s">
         <v>50</v>
       </c>
@@ -3566,7 +3564,7 @@
       <c r="G51" s="5"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="13.5" customHeight="1">
       <c r="A52" s="45" t="s">
         <v>51</v>
       </c>
@@ -3583,7 +3581,7 @@
       <c r="G52" s="5"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="13.5" customHeight="1">
       <c r="A53" s="45"/>
       <c r="B53" s="46" t="s">
         <v>22</v>
@@ -3598,7 +3596,7 @@
       <c r="G53" s="5"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="13.5" customHeight="1">
       <c r="A54" s="45"/>
       <c r="B54" s="46" t="s">
         <v>137</v>
@@ -3613,7 +3611,7 @@
       <c r="G54" s="5"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="13.5" customHeight="1">
       <c r="A55" s="45"/>
       <c r="B55" s="46" t="s">
         <v>232</v>
@@ -3627,7 +3625,7 @@
       </c>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="13.5" customHeight="1">
       <c r="A56" s="45"/>
       <c r="B56" s="46" t="s">
         <v>76</v>
@@ -3641,7 +3639,7 @@
       </c>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="13.5" customHeight="1">
       <c r="A57" s="45"/>
       <c r="B57" s="46" t="s">
         <v>235</v>
@@ -3655,7 +3653,7 @@
       </c>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="13.5" customHeight="1">
       <c r="A58" s="45"/>
       <c r="B58" s="46" t="s">
         <v>252</v>
@@ -3667,7 +3665,7 @@
       </c>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="13.5" customHeight="1">
       <c r="A59" s="45"/>
       <c r="B59" s="46" t="s">
         <v>249</v>
@@ -3679,7 +3677,7 @@
       </c>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="13.5" customHeight="1">
       <c r="A60" s="45"/>
       <c r="B60" s="46" t="s">
         <v>250</v>
@@ -3689,14 +3687,14 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="13.5" customHeight="1">
       <c r="A61" s="45"/>
       <c r="B61" s="46" t="s">
         <v>248</v>
       </c>
       <c r="C61" s="47"/>
     </row>
-    <row r="62" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="13.5" customHeight="1">
       <c r="A62" s="45"/>
       <c r="B62" s="46" t="s">
         <v>251</v>
@@ -3710,14 +3708,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
@@ -3727,7 +3725,7 @@
     <col min="6" max="7" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="21.75" thickBot="1">
       <c r="A1" s="16" t="s">
         <v>200</v>
       </c>
@@ -3736,7 +3734,7 @@
       <c r="D1" s="29"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>201</v>
       </c>
@@ -3753,7 +3751,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="13" t="s">
         <v>35</v>
       </c>
@@ -3774,7 +3772,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
@@ -3792,7 +3790,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="5"/>
       <c r="B5" s="26" t="s">
         <v>174</v>
@@ -3808,7 +3806,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="5"/>
       <c r="B6" s="26" t="s">
         <v>161</v>
@@ -3824,7 +3822,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="5"/>
       <c r="B7" s="26" t="s">
         <v>165</v>
@@ -3840,7 +3838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="5"/>
       <c r="B8" s="26" t="s">
         <v>260</v>
@@ -3856,7 +3854,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="5"/>
       <c r="B9" s="26" t="s">
         <v>175</v>
@@ -3872,7 +3870,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="5"/>
       <c r="B10" s="26" t="s">
         <v>234</v>
@@ -3888,7 +3886,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="5"/>
       <c r="B11" s="26" t="s">
         <v>263</v>
@@ -3904,7 +3902,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="5"/>
       <c r="B12" s="26" t="s">
         <v>238</v>
@@ -3920,7 +3918,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="5"/>
       <c r="B13" s="26" t="s">
         <v>15</v>
@@ -3936,7 +3934,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="5"/>
       <c r="B14" s="26" t="s">
         <v>33</v>
@@ -3952,7 +3950,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="5"/>
       <c r="B15" s="26" t="s">
         <v>242</v>
@@ -3968,7 +3966,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="5"/>
       <c r="B16" s="26" t="s">
         <v>74</v>
@@ -3984,7 +3982,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="5"/>
       <c r="B17" s="26" t="s">
         <v>130</v>
@@ -3998,7 +3996,7 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="5"/>
       <c r="B18" s="26" t="s">
         <v>243</v>
@@ -4012,7 +4010,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="5"/>
       <c r="B19" s="26" t="s">
         <v>85</v>
@@ -4026,7 +4024,7 @@
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="5"/>
       <c r="B20" s="26" t="s">
         <v>246</v>
@@ -4040,7 +4038,7 @@
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>247</v>
@@ -4052,7 +4050,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>262</v>
@@ -4064,7 +4062,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
         <v>264</v>
@@ -4074,7 +4072,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
         <v>270</v>
@@ -4084,15 +4082,17 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="5"/>
       <c r="B26" s="26"/>
       <c r="C26" s="4"/>
@@ -4100,15 +4100,15 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="5"/>
       <c r="B29" s="26"/>
     </row>
@@ -4119,12 +4119,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="165" windowWidth="15120" windowHeight="7950"/>
+    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -711,9 +711,6 @@
     <t>Eiskaffee-/Sangriabar</t>
   </si>
   <si>
-    <t>Fritz Zeitlhofer (Hoftrack, ab 14:00 Uhr)</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
@@ -835,13 +832,16 @@
   </si>
   <si>
     <t>Erwin Pointner</t>
+  </si>
+  <si>
+    <t>Thomas Zeitlhofer (Hoftrack, ab 14:00 Uhr)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -914,6 +914,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1263,7 +1279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1334,6 +1350,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1349,7 +1368,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -1423,6 +1442,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1457,6 +1477,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -1632,14 +1653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -1649,7 +1670,7 @@
     <col min="7" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21.75" thickBot="1">
+    <row r="1" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>207</v>
       </c>
@@ -1670,7 +1691,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13.5" customHeight="1">
+    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>111</v>
       </c>
@@ -1694,7 +1715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="13.5" customHeight="1">
+    <row r="3" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="55" t="s">
         <v>90</v>
@@ -1716,7 +1737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="13.5" customHeight="1">
+    <row r="4" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="55"/>
       <c r="C4" s="50"/>
@@ -1734,12 +1755,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="13.5" customHeight="1">
+    <row r="5" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="55"/>
       <c r="C5" s="50"/>
       <c r="D5" s="57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="38"/>
@@ -1751,7 +1772,7 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:14" ht="13.5" customHeight="1">
+    <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="55"/>
       <c r="C6" s="50"/>
@@ -1768,7 +1789,7 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:14" ht="13.5" customHeight="1">
+    <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="55"/>
       <c r="C7" s="50"/>
@@ -1787,7 +1808,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="13.5" customHeight="1">
+    <row r="8" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
       <c r="B8" s="55"/>
       <c r="C8" s="50"/>
@@ -1805,7 +1826,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
       <c r="B9" s="58"/>
       <c r="C9" s="59"/>
@@ -1824,7 +1845,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="13.5" customHeight="1">
+    <row r="10" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>53</v>
       </c>
@@ -1848,12 +1869,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="13.5" customHeight="1">
+    <row r="11" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="55"/>
       <c r="C11" s="50"/>
-      <c r="D11" s="56" t="s">
-        <v>233</v>
+      <c r="D11" s="69" t="s">
+        <v>232</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>215</v>
@@ -1865,7 +1886,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:14" ht="13.5" customHeight="1">
+    <row r="12" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="55"/>
       <c r="C12" s="50"/>
@@ -1877,7 +1898,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:14" ht="13.5" customHeight="1">
+    <row r="13" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="55"/>
       <c r="C13" s="50"/>
@@ -1896,7 +1917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
+    <row r="14" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="58"/>
       <c r="C14" s="59"/>
@@ -1917,7 +1938,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:14" ht="13.5" customHeight="1">
+    <row r="15" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
         <v>70</v>
       </c>
@@ -1944,7 +1965,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" ht="13.5" customHeight="1">
+    <row r="16" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47"/>
       <c r="B16" s="55"/>
       <c r="C16" s="50"/>
@@ -1966,7 +1987,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="1:14" ht="13.5" customHeight="1">
+    <row r="17" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="55"/>
       <c r="C17" s="50"/>
@@ -1988,7 +2009,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:14" ht="13.5" customHeight="1">
+    <row r="18" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="55"/>
       <c r="C18" s="50"/>
@@ -2010,7 +2031,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="1:14" ht="13.5" customHeight="1">
+    <row r="19" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="55"/>
       <c r="C19" s="50"/>
@@ -2032,7 +2053,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:14" ht="13.5" customHeight="1">
+    <row r="20" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="55"/>
       <c r="C20" s="50"/>
@@ -2054,7 +2075,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14" ht="13.5" customHeight="1">
+    <row r="21" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="55"/>
       <c r="C21" s="50"/>
@@ -2076,14 +2097,14 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="1:14" ht="13.5" customHeight="1">
+    <row r="22" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
       <c r="B22" s="55"/>
       <c r="C22" s="50" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="38"/>
@@ -2100,7 +2121,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14" ht="13.5" customHeight="1">
+    <row r="23" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47"/>
       <c r="B23" s="55"/>
       <c r="C23" s="50"/>
@@ -2122,7 +2143,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14" ht="13.5" customHeight="1">
+    <row r="24" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47"/>
       <c r="B24" s="55"/>
       <c r="C24" s="50"/>
@@ -2139,7 +2160,7 @@
       </c>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:14" ht="13.5" customHeight="1">
+    <row r="25" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47"/>
       <c r="B25" s="55"/>
       <c r="C25" s="50"/>
@@ -2152,12 +2173,12 @@
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="47"/>
       <c r="B26" s="58"/>
       <c r="C26" s="59"/>
       <c r="D26" s="61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="6" t="s">
@@ -2168,9 +2189,9 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:14" ht="13.5" customHeight="1">
+    <row r="27" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B27" s="52" t="s">
         <v>4</v>
@@ -2192,7 +2213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
+    <row r="28" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="47"/>
       <c r="B28" s="58"/>
       <c r="C28" s="59"/>
@@ -2210,7 +2231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="13.5" customHeight="1">
+    <row r="29" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47"/>
       <c r="B29" s="52" t="s">
         <v>228</v>
@@ -2226,7 +2247,7 @@
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
     </row>
-    <row r="30" spans="1:14" ht="13.5" customHeight="1">
+    <row r="30" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47"/>
       <c r="B30" s="55"/>
       <c r="C30" s="50"/>
@@ -2238,7 +2259,7 @@
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
     </row>
-    <row r="31" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
+    <row r="31" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="47"/>
       <c r="B31" s="58"/>
       <c r="C31" s="59"/>
@@ -2250,7 +2271,7 @@
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
     </row>
-    <row r="32" spans="1:14" ht="13.5" customHeight="1">
+    <row r="32" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
         <v>39</v>
       </c>
@@ -2274,7 +2295,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="13.5" customHeight="1">
+    <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47"/>
       <c r="B33" s="55"/>
       <c r="C33" s="50"/>
@@ -2291,11 +2312,11 @@
       </c>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" ht="13.5" customHeight="1">
+    <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47"/>
       <c r="B34" s="55"/>
       <c r="C34" s="50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D34" s="57" t="s">
         <v>54</v>
@@ -2308,12 +2329,12 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" ht="13.5" customHeight="1">
+    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47"/>
       <c r="B35" s="55"/>
       <c r="C35" s="50"/>
       <c r="D35" s="57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="38"/>
@@ -2325,12 +2346,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="13.5" customHeight="1">
+    <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="47"/>
       <c r="B36" s="55"/>
       <c r="C36" s="50"/>
       <c r="D36" s="57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="38"/>
@@ -2342,23 +2363,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
+    <row r="37" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="47"/>
       <c r="B37" s="58"/>
       <c r="C37" s="59"/>
       <c r="D37" s="61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="13.5" customHeight="1">
+    <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
         <v>53</v>
       </c>
@@ -2382,7 +2403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="13.5" customHeight="1">
+    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47"/>
       <c r="B39" s="55"/>
       <c r="C39" s="50"/>
@@ -2400,12 +2421,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="13.5" customHeight="1">
+    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47"/>
       <c r="B40" s="55"/>
       <c r="C40" s="50"/>
       <c r="D40" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="4" t="s">
@@ -2418,12 +2439,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
+    <row r="41" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="47"/>
       <c r="B41" s="58"/>
       <c r="C41" s="59"/>
       <c r="D41" s="60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="38"/>
@@ -2435,7 +2456,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="13.5" customHeight="1">
+    <row r="42" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
         <v>29</v>
       </c>
@@ -2459,7 +2480,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="13.5" customHeight="1">
+    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47"/>
       <c r="B43" s="55"/>
       <c r="C43" s="50"/>
@@ -2478,7 +2499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="13.5" customHeight="1">
+    <row r="44" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47"/>
       <c r="B44" s="55"/>
       <c r="C44" s="50"/>
@@ -2492,7 +2513,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
     </row>
-    <row r="45" spans="1:9" ht="13.5" customHeight="1">
+    <row r="45" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47"/>
       <c r="B45" s="55"/>
       <c r="C45" s="50"/>
@@ -2510,7 +2531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
+    <row r="46" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="47"/>
       <c r="B46" s="58"/>
       <c r="C46" s="59"/>
@@ -2528,7 +2549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="13.5" customHeight="1">
+    <row r="47" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
         <v>100</v>
       </c>
@@ -2552,7 +2573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="13.5" customHeight="1">
+    <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
       <c r="B48" s="55"/>
       <c r="C48" s="50"/>
@@ -2567,7 +2588,7 @@
       <c r="H48" s="28"/>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
+    <row r="49" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="47"/>
       <c r="B49" s="58"/>
       <c r="C49" s="59"/>
@@ -2585,7 +2606,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
+    <row r="50" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
         <v>70</v>
       </c>
@@ -2609,7 +2630,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
+    <row r="51" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>77</v>
       </c>
@@ -2633,7 +2654,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="13.5" customHeight="1">
+    <row r="52" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
         <v>53</v>
       </c>
@@ -2657,12 +2678,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
+    <row r="53" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="47"/>
       <c r="B53" s="58"/>
       <c r="C53" s="59"/>
       <c r="D53" s="61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="6" t="s">
@@ -2671,9 +2692,9 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
     </row>
-    <row r="54" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
+    <row r="54" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B54" s="65" t="s">
         <v>106</v>
@@ -2693,7 +2714,7 @@
       </c>
       <c r="I54" s="11"/>
     </row>
-    <row r="55" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
+    <row r="55" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="47" t="s">
         <v>39</v>
       </c>
@@ -2703,7 +2724,7 @@
       <c r="C55" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="67" t="s">
+      <c r="D55" s="70" t="s">
         <v>223</v>
       </c>
       <c r="F55" s="38"/>
@@ -2722,14 +2743,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" style="40" customWidth="1"/>
@@ -2739,7 +2760,7 @@
     <col min="6" max="7" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.75" thickBot="1">
+    <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>206</v>
       </c>
@@ -2748,7 +2769,7 @@
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>205</v>
       </c>
@@ -2766,7 +2787,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="13.5" customHeight="1">
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>35</v>
       </c>
@@ -2789,7 +2810,7 @@
       <c r="H3" s="17"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="13.5" customHeight="1">
+    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>37</v>
       </c>
@@ -2809,7 +2830,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="13.5" customHeight="1">
+    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>36</v>
       </c>
@@ -2829,7 +2850,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="13.5" customHeight="1">
+    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>38</v>
       </c>
@@ -2849,7 +2870,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="13.5" customHeight="1">
+    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="46" t="s">
         <v>28</v>
@@ -2867,10 +2888,10 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="13.5" customHeight="1">
+    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="35"/>
@@ -2883,14 +2904,14 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="12" customHeight="1" thickBot="1">
+    <row r="9" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
       <c r="B9" s="48"/>
       <c r="C9" s="47"/>
       <c r="E9"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>204</v>
       </c>
@@ -2901,7 +2922,7 @@
       <c r="F10" s="36"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:9" ht="13.5" customHeight="1">
+    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>35</v>
       </c>
@@ -2924,7 +2945,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="13.5" customHeight="1">
+    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>41</v>
       </c>
@@ -2943,7 +2964,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1">
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>42</v>
       </c>
@@ -2962,7 +2983,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="13.5" customHeight="1">
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>150</v>
       </c>
@@ -2981,10 +3002,10 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="13.5" customHeight="1">
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="51"/>
       <c r="E15" s="26" t="s">
@@ -2998,10 +3019,10 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="13.5" customHeight="1">
+    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C16" s="51"/>
       <c r="E16" s="26" t="s">
@@ -3015,7 +3036,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="13.5" customHeight="1">
+    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46" t="s">
         <v>153</v>
@@ -3032,7 +3053,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="13.5" customHeight="1">
+    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46" t="s">
         <v>23</v>
@@ -3047,7 +3068,7 @@
       <c r="G18" s="5"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1">
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46" t="s">
         <v>159</v>
@@ -3062,10 +3083,10 @@
       <c r="G19" s="5"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="13.5" customHeight="1">
+    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C20" s="51"/>
       <c r="E20" s="26" t="s">
@@ -3077,7 +3098,7 @@
       <c r="G20" s="5"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="13.5" customHeight="1">
+    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46" t="s">
         <v>104</v>
@@ -3088,10 +3109,10 @@
       <c r="G21" s="5"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1">
+    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C22" s="51"/>
       <c r="E22" s="26"/>
@@ -3099,7 +3120,7 @@
       <c r="G22" s="5"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="13.5" customHeight="1">
+    <row r="23" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46" t="s">
         <v>56</v>
@@ -3110,10 +3131,10 @@
       <c r="G23" s="5"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="13.5" customHeight="1">
+    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C24" s="51"/>
       <c r="E24" s="26"/>
@@ -3121,10 +3142,10 @@
       <c r="G24" s="5"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="13.5" customHeight="1">
+    <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C25" s="51"/>
       <c r="E25" s="26"/>
@@ -3134,14 +3155,14 @@
       <c r="G25" s="5"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="12" customHeight="1" thickBot="1">
+    <row r="26" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="47"/>
       <c r="B26" s="48"/>
       <c r="C26" s="47"/>
       <c r="E26"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>203</v>
       </c>
@@ -3152,7 +3173,7 @@
       <c r="F27" s="36"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:9" ht="13.5" customHeight="1">
+    <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>35</v>
       </c>
@@ -3160,7 +3181,7 @@
         <v>154</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="27" t="s">
@@ -3175,7 +3196,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="13.5" customHeight="1">
+    <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
         <v>57</v>
       </c>
@@ -3194,7 +3215,7 @@
       </c>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="13.5" customHeight="1">
+    <row r="30" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
         <v>47</v>
       </c>
@@ -3213,7 +3234,7 @@
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="13.5" customHeight="1">
+    <row r="31" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>43</v>
       </c>
@@ -3232,7 +3253,7 @@
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="13.5" customHeight="1">
+    <row r="32" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
         <v>44</v>
       </c>
@@ -3251,12 +3272,12 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="13.5" customHeight="1">
+    <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>229</v>
+        <v>270</v>
       </c>
       <c r="C33" s="51"/>
       <c r="E33" s="26" t="s">
@@ -3270,7 +3291,7 @@
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="13.5" customHeight="1">
+    <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
         <v>58</v>
       </c>
@@ -3289,12 +3310,12 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="13.5" customHeight="1">
+    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
         <v>181</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C35" s="51"/>
       <c r="E35" s="26" t="s">
@@ -3308,7 +3329,7 @@
       </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="13.5" customHeight="1">
+    <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
         <v>99</v>
       </c>
@@ -3327,7 +3348,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="13.5" customHeight="1">
+    <row r="37" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="46" t="s">
         <v>63</v>
@@ -3342,10 +3363,10 @@
       <c r="G37" s="5"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="13.5" customHeight="1">
+    <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" s="46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C38" s="51"/>
       <c r="E38" s="26" t="s">
@@ -3357,10 +3378,10 @@
       <c r="G38" s="5"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="13.5" customHeight="1">
+    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
       <c r="B39" s="46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C39" s="51"/>
       <c r="E39" s="26" t="s">
@@ -3374,10 +3395,10 @@
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="13.5" customHeight="1">
+    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
       <c r="B40" s="46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C40" s="51"/>
       <c r="E40" s="26" t="s">
@@ -3389,10 +3410,10 @@
       <c r="G40" s="5"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="13.5" customHeight="1">
+    <row r="41" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
       <c r="B41" s="46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C41" s="51"/>
       <c r="E41" s="26" t="s">
@@ -3404,10 +3425,10 @@
       <c r="G41" s="5"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="13.5" customHeight="1">
+    <row r="42" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
       <c r="B42" s="46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C42" s="51"/>
       <c r="E42" s="26" t="s">
@@ -3419,10 +3440,10 @@
       <c r="G42" s="5"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="13.5" customHeight="1">
+    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
       <c r="B43" s="46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C43" s="50"/>
       <c r="E43" s="5"/>
@@ -3430,14 +3451,14 @@
       <c r="G43" s="5"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="12" customHeight="1" thickBot="1">
+    <row r="44" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="47"/>
       <c r="B44" s="48"/>
       <c r="C44" s="47"/>
       <c r="E44"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="45" spans="1:9" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
         <v>202</v>
       </c>
@@ -3448,7 +3469,7 @@
       <c r="F45" s="36"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="1:9" ht="13.5" customHeight="1">
+    <row r="46" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
         <v>35</v>
       </c>
@@ -3471,7 +3492,7 @@
       <c r="H46" s="18"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="13.5" customHeight="1">
+    <row r="47" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="45" t="s">
         <v>46</v>
       </c>
@@ -3490,7 +3511,7 @@
       </c>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="13.5" customHeight="1">
+    <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
         <v>48</v>
       </c>
@@ -3509,7 +3530,7 @@
       </c>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" ht="13.5" customHeight="1">
+    <row r="49" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
         <v>180</v>
       </c>
@@ -3528,7 +3549,7 @@
       </c>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" ht="13.5" customHeight="1">
+    <row r="50" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
         <v>49</v>
       </c>
@@ -3547,7 +3568,7 @@
       </c>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" ht="13.5" customHeight="1">
+    <row r="51" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
         <v>50</v>
       </c>
@@ -3564,7 +3585,7 @@
       <c r="G51" s="5"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" ht="13.5" customHeight="1">
+    <row r="52" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
         <v>51</v>
       </c>
@@ -3581,7 +3602,7 @@
       <c r="G52" s="5"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" ht="13.5" customHeight="1">
+    <row r="53" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="45"/>
       <c r="B53" s="46" t="s">
         <v>22</v>
@@ -3596,7 +3617,7 @@
       <c r="G53" s="5"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9" ht="13.5" customHeight="1">
+    <row r="54" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="45"/>
       <c r="B54" s="46" t="s">
         <v>137</v>
@@ -3611,10 +3632,10 @@
       <c r="G54" s="5"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9" ht="13.5" customHeight="1">
+    <row r="55" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="45"/>
       <c r="B55" s="46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C55" s="51"/>
       <c r="E55" s="26" t="s">
@@ -3625,7 +3646,7 @@
       </c>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="13.5" customHeight="1">
+    <row r="56" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="45"/>
       <c r="B56" s="46" t="s">
         <v>76</v>
@@ -3639,10 +3660,10 @@
       </c>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:9" ht="13.5" customHeight="1">
+    <row r="57" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="45"/>
       <c r="B57" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C57" s="51"/>
       <c r="E57" s="26" t="s">
@@ -3653,10 +3674,10 @@
       </c>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:9" ht="13.5" customHeight="1">
+    <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="45"/>
       <c r="B58" s="46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C58" s="51"/>
       <c r="E58" s="26"/>
@@ -3665,10 +3686,10 @@
       </c>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:9" ht="13.5" customHeight="1">
+    <row r="59" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="45"/>
       <c r="B59" s="46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C59" s="51"/>
       <c r="E59" s="26"/>
@@ -3677,27 +3698,27 @@
       </c>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:9" ht="13.5" customHeight="1">
+    <row r="60" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="45"/>
       <c r="B60" s="46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C60" s="50"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:9" ht="13.5" customHeight="1">
+    <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="45"/>
       <c r="B61" s="46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C61" s="47"/>
     </row>
-    <row r="62" spans="1:9" ht="13.5" customHeight="1">
+    <row r="62" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="45"/>
       <c r="B62" s="46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C62" s="47"/>
     </row>
@@ -3708,14 +3729,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
@@ -3725,7 +3746,7 @@
     <col min="6" max="7" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.75" thickBot="1">
+    <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>200</v>
       </c>
@@ -3734,7 +3755,7 @@
       <c r="D1" s="29"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>201</v>
       </c>
@@ -3751,7 +3772,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>35</v>
       </c>
@@ -3759,7 +3780,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="27" t="s">
@@ -3772,7 +3793,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
@@ -3790,9 +3811,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="68" t="s">
         <v>174</v>
       </c>
       <c r="C5" s="23"/>
@@ -3806,7 +3827,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="26" t="s">
         <v>161</v>
@@ -3822,7 +3843,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="26" t="s">
         <v>165</v>
@@ -3838,10 +3859,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C8" s="23"/>
       <c r="E8" s="26" t="s">
@@ -3854,7 +3875,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="26" t="s">
         <v>175</v>
@@ -3870,10 +3891,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C10" s="23"/>
       <c r="E10" s="26" t="s">
@@ -3886,10 +3907,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C11" s="23"/>
       <c r="E11" s="26" t="s">
@@ -3902,10 +3923,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="23"/>
       <c r="E12" s="26" t="s">
@@ -3918,7 +3939,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="26" t="s">
         <v>15</v>
@@ -3934,7 +3955,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="26" t="s">
         <v>33</v>
@@ -3950,10 +3971,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C15" s="23"/>
       <c r="E15" s="26" t="s">
@@ -3966,7 +3987,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="26" t="s">
         <v>74</v>
@@ -3982,7 +4003,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="26" t="s">
         <v>130</v>
@@ -3996,10 +4017,10 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C18" s="23"/>
       <c r="E18" s="26" t="s">
@@ -4010,7 +4031,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="26" t="s">
         <v>85</v>
@@ -4024,10 +4045,10 @@
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C20" s="23"/>
       <c r="E20" s="26" t="s">
@@ -4038,10 +4059,10 @@
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C21" s="4"/>
       <c r="E21" s="5" t="s">
@@ -4050,10 +4071,10 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C22" s="4"/>
       <c r="E22" s="5" t="s">
@@ -4062,27 +4083,27 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
         <v>23</v>
@@ -4092,7 +4113,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="26"/>
       <c r="C26" s="4"/>
@@ -4100,15 +4121,15 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="26"/>
     </row>
@@ -4119,12 +4140,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fest" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="270">
   <si>
     <t>Bereich</t>
   </si>
@@ -820,9 +820,6 @@
   </si>
   <si>
     <t>Walter Breselmayr</t>
-  </si>
-  <si>
-    <t>Maria Brandstötter</t>
   </si>
   <si>
     <t>Rudolf Huber</t>
@@ -2746,8 +2743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3112,7 +3109,7 @@
     <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46" t="s">
-        <v>266</v>
+        <v>22</v>
       </c>
       <c r="C22" s="51"/>
       <c r="E22" s="26"/>
@@ -3134,7 +3131,7 @@
     <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C24" s="51"/>
       <c r="E24" s="26"/>
@@ -3145,7 +3142,7 @@
     <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C25" s="51"/>
       <c r="E25" s="26"/>
@@ -3277,7 +3274,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C33" s="51"/>
       <c r="E33" s="26" t="s">
@@ -3732,7 +3729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -4096,7 +4093,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C24" s="4"/>
       <c r="E24" s="5"/>

--- a/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
+++ b/trunk/2014/Personal/Personal-Glarea Nox 2014.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="1"/>
@@ -1360,14 +1360,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1405,9 +1408,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1442,7 +1445,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1477,7 +1480,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2743,8 +2746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
